--- a/test/RenpyData.xlsx
+++ b/test/RenpyData.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Character" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Image" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="259">
   <si>
     <t>Variable</t>
   </si>
@@ -43,16 +44,751 @@
     <t>{image=end_pic}</t>
   </si>
   <si>
-    <t>nanakin2</t>
-  </si>
-  <si>
-    <t>金娜娜2</t>
-  </si>
-  <si>
-    <t>#ffffff2</t>
-  </si>
-  <si>
-    <t>nana2</t>
+    <t>hetris</t>
+  </si>
+  <si>
+    <t>哈菲特</t>
+  </si>
+  <si>
+    <t>hikari</t>
+  </si>
+  <si>
+    <t>瑛光</t>
+  </si>
+  <si>
+    <t>leon</t>
+  </si>
+  <si>
+    <t>里昂</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>萊爾</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>職員</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>全辦公室</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>side nana normal</t>
+  </si>
+  <si>
+    <t>nana_causal_normal</t>
+  </si>
+  <si>
+    <t>side nana smile1</t>
+  </si>
+  <si>
+    <t>nana_causal_smile1</t>
+  </si>
+  <si>
+    <t>side nana shy1</t>
+  </si>
+  <si>
+    <t>nana_causal_shy1</t>
+  </si>
+  <si>
+    <t>side nana shock1</t>
+  </si>
+  <si>
+    <t>nana_causal_shock1</t>
+  </si>
+  <si>
+    <t>side nana shock2</t>
+  </si>
+  <si>
+    <t>nana_causal_shock2</t>
+  </si>
+  <si>
+    <t>side nana sadsmile</t>
+  </si>
+  <si>
+    <t>nana_causal_sadsmile</t>
+  </si>
+  <si>
+    <t>side nana sadsmile2</t>
+  </si>
+  <si>
+    <t>nana_causal_sadsmile2</t>
+  </si>
+  <si>
+    <t>side nana sad</t>
+  </si>
+  <si>
+    <t>nana_causal_sad</t>
+  </si>
+  <si>
+    <t>side nana sad2</t>
+  </si>
+  <si>
+    <t>nana_causal_sad2</t>
+  </si>
+  <si>
+    <t>side nana sad3</t>
+  </si>
+  <si>
+    <t>nana_causal_sad3</t>
+  </si>
+  <si>
+    <t>side nana angry</t>
+  </si>
+  <si>
+    <t>nana_causal_angry</t>
+  </si>
+  <si>
+    <t>side nana angry2</t>
+  </si>
+  <si>
+    <t>nana_causal_angry2</t>
+  </si>
+  <si>
+    <t>side nana fight</t>
+  </si>
+  <si>
+    <t>nana_causal_fight</t>
+  </si>
+  <si>
+    <t>side nana scared</t>
+  </si>
+  <si>
+    <t>nana_causal_scared</t>
+  </si>
+  <si>
+    <t>side nana scared2</t>
+  </si>
+  <si>
+    <t>nana_causal_scared2</t>
+  </si>
+  <si>
+    <t>side nana scared3</t>
+  </si>
+  <si>
+    <t>nana_causal_scared3</t>
+  </si>
+  <si>
+    <t>side nana office_normal</t>
+  </si>
+  <si>
+    <t>nanao_office_normal</t>
+  </si>
+  <si>
+    <t>side nana office_smile1</t>
+  </si>
+  <si>
+    <t>nanao_office_smile1</t>
+  </si>
+  <si>
+    <t>side nana office_shy1</t>
+  </si>
+  <si>
+    <t>nanao_office_shy1</t>
+  </si>
+  <si>
+    <t>side nana office_shock1</t>
+  </si>
+  <si>
+    <t>nanao_office_shock1</t>
+  </si>
+  <si>
+    <t>side nana office_shock2</t>
+  </si>
+  <si>
+    <t>nanao_office_shock2</t>
+  </si>
+  <si>
+    <t>side nana office_sadsmile</t>
+  </si>
+  <si>
+    <t>nanao_office_sadsmile</t>
+  </si>
+  <si>
+    <t>side nana office_sadsmile2</t>
+  </si>
+  <si>
+    <t>nanao_office_sadsmile2</t>
+  </si>
+  <si>
+    <t>side nana office_sad</t>
+  </si>
+  <si>
+    <t>nanao_office_sad</t>
+  </si>
+  <si>
+    <t>side nana office_sad2</t>
+  </si>
+  <si>
+    <t>nanao_office_sad2</t>
+  </si>
+  <si>
+    <t>side nana office_sad3</t>
+  </si>
+  <si>
+    <t>nanao_office_sad3</t>
+  </si>
+  <si>
+    <t>side nana office_angry</t>
+  </si>
+  <si>
+    <t>nanao_office_angry</t>
+  </si>
+  <si>
+    <t>side nana office_angry2</t>
+  </si>
+  <si>
+    <t>nanao_office_angry2</t>
+  </si>
+  <si>
+    <t>side nana office_fight</t>
+  </si>
+  <si>
+    <t>nanao_office_fight</t>
+  </si>
+  <si>
+    <t>side nana office_scared</t>
+  </si>
+  <si>
+    <t>nanao_office_scared</t>
+  </si>
+  <si>
+    <t>side nana office_scared2</t>
+  </si>
+  <si>
+    <t>nanao_office_scared2</t>
+  </si>
+  <si>
+    <t>side nana office_scared3</t>
+  </si>
+  <si>
+    <t>nanao_office_scared3</t>
+  </si>
+  <si>
+    <t>hetris normal</t>
+  </si>
+  <si>
+    <t>hetris_office1_normal</t>
+  </si>
+  <si>
+    <t>hetris normal2</t>
+  </si>
+  <si>
+    <t>hetris_office1_normal2</t>
+  </si>
+  <si>
+    <t>hetris office_normal</t>
+  </si>
+  <si>
+    <t>hetris office_normal2</t>
+  </si>
+  <si>
+    <t>hetris smile</t>
+  </si>
+  <si>
+    <t>hetris_office1_smile</t>
+  </si>
+  <si>
+    <t>hetris smile2</t>
+  </si>
+  <si>
+    <t>hetris_office1_smile2</t>
+  </si>
+  <si>
+    <t>hetris angry</t>
+  </si>
+  <si>
+    <t>hetris_office1_angry</t>
+  </si>
+  <si>
+    <t>hetris angry2</t>
+  </si>
+  <si>
+    <t>hetris_office1_angry2</t>
+  </si>
+  <si>
+    <t>hetris angry3</t>
+  </si>
+  <si>
+    <t>hetris_office1_angry3</t>
+  </si>
+  <si>
+    <t>hetris closeeye</t>
+  </si>
+  <si>
+    <t>hetris_office1_closeeye</t>
+  </si>
+  <si>
+    <t>hetris makefun</t>
+  </si>
+  <si>
+    <t>hetris_office1_makefun</t>
+  </si>
+  <si>
+    <t>hetris sadsmile</t>
+  </si>
+  <si>
+    <t>hetris_office1_sadsmile</t>
+  </si>
+  <si>
+    <t>hetris sad</t>
+  </si>
+  <si>
+    <t>hetris_office1_sad</t>
+  </si>
+  <si>
+    <t>hetris sad2</t>
+  </si>
+  <si>
+    <t>hetris_office1_sad2</t>
+  </si>
+  <si>
+    <t>hetris scary</t>
+  </si>
+  <si>
+    <t>hetris_office1_scary</t>
+  </si>
+  <si>
+    <t>hetris shock</t>
+  </si>
+  <si>
+    <t>hetris_office1_shock</t>
+  </si>
+  <si>
+    <t>hetris shy1</t>
+  </si>
+  <si>
+    <t>hetris_office1_shy1</t>
+  </si>
+  <si>
+    <t>hetris shy2</t>
+  </si>
+  <si>
+    <t>hetris_office1_shy2</t>
+  </si>
+  <si>
+    <t>hetris shy3</t>
+  </si>
+  <si>
+    <t>hetris_office1_shy3</t>
+  </si>
+  <si>
+    <t>hetris_office2_normal</t>
+  </si>
+  <si>
+    <t>hetris_office2_normal2</t>
+  </si>
+  <si>
+    <t>hetris office_smile</t>
+  </si>
+  <si>
+    <t>hetris_office2_smile</t>
+  </si>
+  <si>
+    <t>hetris office_smile2</t>
+  </si>
+  <si>
+    <t>hetris_office2_smile2</t>
+  </si>
+  <si>
+    <t>hetris office_angry</t>
+  </si>
+  <si>
+    <t>hetris_office2_angry</t>
+  </si>
+  <si>
+    <t>hetris office_angry2</t>
+  </si>
+  <si>
+    <t>hetris_office2_angry2</t>
+  </si>
+  <si>
+    <t>hetris office_angry3</t>
+  </si>
+  <si>
+    <t>hetris_office2_angry3</t>
+  </si>
+  <si>
+    <t>hetris office_closeeye</t>
+  </si>
+  <si>
+    <t>hetris_office2_closeeye</t>
+  </si>
+  <si>
+    <t>hetris office_makefun</t>
+  </si>
+  <si>
+    <t>hetris_office2_makefun</t>
+  </si>
+  <si>
+    <t>hetris office_sadsmile</t>
+  </si>
+  <si>
+    <t>hetris_office2_sadsmile</t>
+  </si>
+  <si>
+    <t>hetris office_sad</t>
+  </si>
+  <si>
+    <t>hetris_office2_sad</t>
+  </si>
+  <si>
+    <t>hetris office_sad2</t>
+  </si>
+  <si>
+    <t>hetris_office2_sad2</t>
+  </si>
+  <si>
+    <t>hetris office_scary</t>
+  </si>
+  <si>
+    <t>hetris_office2_scary</t>
+  </si>
+  <si>
+    <t>hetris office_shock</t>
+  </si>
+  <si>
+    <t>hetris_office2_shock</t>
+  </si>
+  <si>
+    <t>hetris office_shy1</t>
+  </si>
+  <si>
+    <t>hetris_office2_shy1</t>
+  </si>
+  <si>
+    <t>hetris office_shy2</t>
+  </si>
+  <si>
+    <t>hetris_office2_shy2</t>
+  </si>
+  <si>
+    <t>hetris office_shy3</t>
+  </si>
+  <si>
+    <t>hetris_office2_shy3</t>
+  </si>
+  <si>
+    <t>hetris nude_normal</t>
+  </si>
+  <si>
+    <t>hetris_nude_normal</t>
+  </si>
+  <si>
+    <t>hetris nude_normal2</t>
+  </si>
+  <si>
+    <t>hetris_nude_normal2</t>
+  </si>
+  <si>
+    <t>hetris nude_smile</t>
+  </si>
+  <si>
+    <t>hetris_nude_smile</t>
+  </si>
+  <si>
+    <t>hetris nude_smile2</t>
+  </si>
+  <si>
+    <t>hetris_nude_smile2</t>
+  </si>
+  <si>
+    <t>hetris nude_angry</t>
+  </si>
+  <si>
+    <t>hetris_nude_angry</t>
+  </si>
+  <si>
+    <t>hetris nude_angry2</t>
+  </si>
+  <si>
+    <t>hetris_nude_angry2</t>
+  </si>
+  <si>
+    <t>hetris nude_angry3</t>
+  </si>
+  <si>
+    <t>hetris_nude_angry3</t>
+  </si>
+  <si>
+    <t>hetris nude_closeeye</t>
+  </si>
+  <si>
+    <t>hetris_nude_closeeye</t>
+  </si>
+  <si>
+    <t>hetris nude_makefun</t>
+  </si>
+  <si>
+    <t>hetris_nude_makefun</t>
+  </si>
+  <si>
+    <t>hetris nude_sadsmile</t>
+  </si>
+  <si>
+    <t>hetris_nude_sadsmile</t>
+  </si>
+  <si>
+    <t>hetris nude_sad</t>
+  </si>
+  <si>
+    <t>hetris_nude_sad</t>
+  </si>
+  <si>
+    <t>hetris nude_sad2</t>
+  </si>
+  <si>
+    <t>hetris_nude_sad2</t>
+  </si>
+  <si>
+    <t>hetris nude_scary</t>
+  </si>
+  <si>
+    <t>hetris_nude_scary</t>
+  </si>
+  <si>
+    <t>hetris nude_shock</t>
+  </si>
+  <si>
+    <t>hetris_nude_shock</t>
+  </si>
+  <si>
+    <t>hetris nude_shy1</t>
+  </si>
+  <si>
+    <t>hetris_nude_shy1</t>
+  </si>
+  <si>
+    <t>hetris nude_shy2</t>
+  </si>
+  <si>
+    <t>hetris_nude_shy2</t>
+  </si>
+  <si>
+    <t>hetris nude_shy3</t>
+  </si>
+  <si>
+    <t>hetris_nude_shy3</t>
+  </si>
+  <si>
+    <t>hikari shock</t>
+  </si>
+  <si>
+    <t>hikari_coffee_shock</t>
+  </si>
+  <si>
+    <t>hikari smile</t>
+  </si>
+  <si>
+    <t>hikari_coffee_smile</t>
+  </si>
+  <si>
+    <t>hikari talk</t>
+  </si>
+  <si>
+    <t>hikari_coffee_talk</t>
+  </si>
+  <si>
+    <t>hikari think</t>
+  </si>
+  <si>
+    <t>hikari_coffee_think</t>
+  </si>
+  <si>
+    <t>hikari phone_shock</t>
+  </si>
+  <si>
+    <t>hikari_coffee_phone_shock</t>
+  </si>
+  <si>
+    <t>hikari phone_smile</t>
+  </si>
+  <si>
+    <t>hikari_coffee_phone_smile</t>
+  </si>
+  <si>
+    <t>hikari phone_talk</t>
+  </si>
+  <si>
+    <t>hikari_coffee_phone_talk</t>
+  </si>
+  <si>
+    <t>hikari phone_think</t>
+  </si>
+  <si>
+    <t>hikari_coffee_phone_think</t>
+  </si>
+  <si>
+    <t>leon cry</t>
+  </si>
+  <si>
+    <t>leon_office_cry</t>
+  </si>
+  <si>
+    <t>leon inlove</t>
+  </si>
+  <si>
+    <t>leon_office_inlove</t>
+  </si>
+  <si>
+    <t>leon interest</t>
+  </si>
+  <si>
+    <t>leon_office_interest</t>
+  </si>
+  <si>
+    <t>leon angry</t>
+  </si>
+  <si>
+    <t>leon_office_angry</t>
+  </si>
+  <si>
+    <t>leon smile</t>
+  </si>
+  <si>
+    <t>leon_office_smile</t>
+  </si>
+  <si>
+    <t>leon smile2</t>
+  </si>
+  <si>
+    <t>leon_office_smile2</t>
+  </si>
+  <si>
+    <t>leon sweat</t>
+  </si>
+  <si>
+    <t>leon_office_sweat</t>
+  </si>
+  <si>
+    <t>leon sad</t>
+  </si>
+  <si>
+    <t>leon_office_sad</t>
+  </si>
+  <si>
+    <t>leon sad2</t>
+  </si>
+  <si>
+    <t>leon_office_sad2</t>
+  </si>
+  <si>
+    <t>leon shock</t>
+  </si>
+  <si>
+    <t>leon_office_shock</t>
+  </si>
+  <si>
+    <t>leon shock2</t>
+  </si>
+  <si>
+    <t>leon_office_shock2</t>
+  </si>
+  <si>
+    <t>lion normal1</t>
+  </si>
+  <si>
+    <t>lion_office_normal1</t>
+  </si>
+  <si>
+    <t>lion normal2</t>
+  </si>
+  <si>
+    <t>lion_office_normal2</t>
+  </si>
+  <si>
+    <t>lion shy1</t>
+  </si>
+  <si>
+    <t>lion_office_shy1</t>
+  </si>
+  <si>
+    <t>lion shy2</t>
+  </si>
+  <si>
+    <t>lion_office_shy2</t>
+  </si>
+  <si>
+    <t>lion shy3</t>
+  </si>
+  <si>
+    <t>lion_office_shy3</t>
+  </si>
+  <si>
+    <t>lion smile</t>
+  </si>
+  <si>
+    <t>lion_office_smile</t>
+  </si>
+  <si>
+    <t>lion smile2</t>
+  </si>
+  <si>
+    <t>lion_office_smile2</t>
+  </si>
+  <si>
+    <t>lion sweat</t>
+  </si>
+  <si>
+    <t>lion_office_sweat</t>
+  </si>
+  <si>
+    <t>lion sad</t>
+  </si>
+  <si>
+    <t>lion_office_sad</t>
+  </si>
+  <si>
+    <t>lion shock</t>
+  </si>
+  <si>
+    <t>lion_office_shock</t>
+  </si>
+  <si>
+    <t>lion sadsmile</t>
+  </si>
+  <si>
+    <t>lion_office_sadsmile</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>images/cat.png</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>images/fire.png</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>images/hetristalk.png</t>
+  </si>
+  <si>
+    <t>ml1</t>
+  </si>
+  <si>
+    <t>images/movingleon1.png</t>
+  </si>
+  <si>
+    <t>ml2</t>
+  </si>
+  <si>
+    <t>images/movingleon2.png</t>
   </si>
 </sst>
 </file>
@@ -113,6 +849,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -368,13 +1108,1107 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.13"/>
+    <col customWidth="1" min="2" max="2" width="34.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/test/RenpyData.xlsx
+++ b/test/RenpyData.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Character" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Image" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CustomCode" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="260">
   <si>
     <t>Variable</t>
   </si>
@@ -789,6 +790,21 @@
   </si>
   <si>
     <t>images/movingleon2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image end_pic:
+    "heart.png"
+    size (25, 25)
+    block:
+        rotate 0
+        linear 3.0 rotate 360
+        repeat
+init:
+    $ my_center = Position(xpos= 0.5, xanchor='center' )
+    $ h_center = Position(xpos= 0.46, xanchor='center' )
+    $ my_left = Position(xpos= 0.1, xanchor='left')
+    $ my_right = Position(xpos= 0.9, xanchor='right')
+</t>
   </si>
 </sst>
 </file>
@@ -853,6 +869,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2214,4 +2234,27 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="154.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="331.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/RenpyData.xlsx
+++ b/test/RenpyData.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Character" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Image" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="CustomCode" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="start" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="290">
   <si>
     <t>Variable</t>
   </si>
@@ -792,7 +793,9 @@
     <t>images/movingleon2.png</t>
   </si>
   <si>
-    <t xml:space="preserve">image end_pic:
+    <t xml:space="preserve">define narrator_nvl = Character(None, kind=nvl)
+define narrator_adv = Character(None, kind=adv)
+image end_pic:
     "heart.png"
     size (25, 25)
     block:
@@ -806,12 +809,102 @@
     $ my_right = Position(xpos= 0.9, xanchor='right')
 </t>
   </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Tachie</t>
+  </si>
+  <si>
+    <t>TachiePosition</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>SpecialEffect</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>JumpToLabel</t>
+  </si>
+  <si>
+    <t>ClearPage</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>chapterstart</t>
+  </si>
+  <si>
+    <t>prologue</t>
+  </si>
+  <si>
+    <t>dissolve</t>
+  </si>
+  <si>
+    <t>mtr1</t>
+  </si>
+  <si>
+    <t>fade</t>
+  </si>
+  <si>
+    <t>metro_arriving</t>
+  </si>
+  <si>
+    <t>narrator_adv</t>
+  </si>
+  <si>
+    <t>請勿靠近車門</t>
+  </si>
+  <si>
+    <t>我拖著行李下車，小心翼翼地穿梭在人群中。</t>
+  </si>
+  <si>
+    <t>footstep</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>bgm04</t>
+  </si>
+  <si>
+    <t>streets_afternoon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -825,8 +918,18 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF222222"/>
+      <name val="Sans-serif"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +942,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor rgb="FFF7CAAC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -846,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -854,6 +963,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -873,6 +991,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1073,6 +1195,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFF9900"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -1241,6 +1364,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFF9900"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -2239,6 +2363,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFF9900"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -2257,4 +2382,141 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="41.0"/>
+    <col customWidth="1" min="9" max="9" width="16.38"/>
+    <col customWidth="1" min="13" max="13" width="8.5"/>
+    <col customWidth="1" min="14" max="14" width="5.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="G3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="G4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/RenpyData.xlsx
+++ b/test/RenpyData.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Character" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Image" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="CustomCode" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="start" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Chapter0" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="294">
   <si>
     <t>Variable</t>
   </si>
@@ -803,46 +803,55 @@
         linear 3.0 rotate 360
         repeat
 init:
-    $ my_center = Position(xpos= 0.5, xanchor='center' )
-    $ h_center = Position(xpos= 0.46, xanchor='center' )
-    $ my_left = Position(xpos= 0.1, xanchor='left')
-    $ my_right = Position(xpos= 0.9, xanchor='right')
+    $ custom_center = Position(xpos= 0.5, xanchor='center' )
+    $ hetris_center = Position(xpos= 0.46, xanchor='center' )
+    $ custom_left = Position(xpos= 0.1, xanchor='left')
+    $ custom_right = Position(xpos= 0.9, xanchor='right')
 </t>
   </si>
   <si>
     <t>Label</t>
   </si>
   <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Tachie</t>
+  </si>
+  <si>
+    <t>TachiePosition</t>
+  </si>
+  <si>
+    <t>IsOption</t>
+  </si>
+  <si>
     <t>Character</t>
   </si>
   <si>
     <t>Dialog</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Tachie</t>
-  </si>
-  <si>
-    <t>TachiePosition</t>
-  </si>
-  <si>
-    <t>Background</t>
+    <t>HideTachieAfterward</t>
+  </si>
+  <si>
+    <t>HideTachieAtPos</t>
   </si>
   <si>
     <t>Transition</t>
   </si>
   <si>
-    <t>Sound</t>
-  </si>
-  <si>
     <t>SpecialEffect</t>
   </si>
   <si>
-    <t>Voice</t>
-  </si>
-  <si>
     <t>JumpToLabel</t>
   </si>
   <si>
@@ -852,6 +861,9 @@
     <t>Pause</t>
   </si>
   <si>
+    <t>RenpyCommand</t>
+  </si>
+  <si>
     <t>Remark</t>
   </si>
   <si>
@@ -870,25 +882,25 @@
     <t>dissolve</t>
   </si>
   <si>
+    <t>metro_arriving</t>
+  </si>
+  <si>
     <t>mtr1</t>
   </si>
   <si>
     <t>fade</t>
   </si>
   <si>
-    <t>metro_arriving</t>
-  </si>
-  <si>
     <t>narrator_adv</t>
   </si>
   <si>
     <t>請勿靠近車門</t>
   </si>
   <si>
+    <t>footstep</t>
+  </si>
+  <si>
     <t>我拖著行李下車，小心翼翼地穿梭在人群中。</t>
-  </si>
-  <si>
-    <t>footstep</t>
   </si>
   <si>
     <t>street</t>
@@ -929,7 +941,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,6 +952,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
@@ -955,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -974,6 +992,10 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2371,10 +2393,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="154.75"/>
+    <col customWidth="1" min="1" max="1" width="207.88"/>
   </cols>
   <sheetData>
-    <row r="1" ht="331.5" customHeight="1">
+    <row r="1" ht="420.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>259</v>
       </c>
@@ -2397,10 +2419,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="41.0"/>
-    <col customWidth="1" min="9" max="9" width="16.38"/>
-    <col customWidth="1" min="13" max="13" width="8.5"/>
-    <col customWidth="1" min="14" max="14" width="5.75"/>
+    <col customWidth="1" min="3" max="3" width="16.38"/>
+    <col customWidth="1" min="5" max="5" width="14.5"/>
+    <col customWidth="1" min="7" max="7" width="16.13"/>
+    <col customWidth="1" min="10" max="10" width="41.0"/>
+    <col customWidth="1" min="11" max="11" width="16.88"/>
+    <col customWidth="1" min="12" max="12" width="18.38"/>
+    <col customWidth="1" min="17" max="17" width="8.0"/>
+    <col customWidth="1" min="18" max="18" width="15.38"/>
+    <col customWidth="1" min="19" max="19" width="21.88"/>
+    <col customWidth="1" min="20" max="20" width="20.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2416,16 +2444,16 @@
       <c r="D1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>267</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2446,77 +2474,3085 @@
       <c r="N1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>274</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="G3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3.0</v>
+      <c r="C3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="M3" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="4">
-      <c r="G4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="J5" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="M6" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="7">
-      <c r="G7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8">
-      <c r="D8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59">
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66">
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67">
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68">
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69">
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70">
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71">
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72">
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73">
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74">
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75">
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76">
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77">
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78">
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79">
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80">
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81">
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82">
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83">
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84">
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85">
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86">
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87">
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88">
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89">
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90">
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91">
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92">
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93">
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94">
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95">
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96">
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97">
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98">
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99">
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100">
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101">
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102">
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103">
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104">
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105">
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106">
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107">
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108">
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109">
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110">
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111">
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112">
+      <c r="G112" s="7"/>
+    </row>
+    <row r="113">
+      <c r="G113" s="7"/>
+    </row>
+    <row r="114">
+      <c r="G114" s="7"/>
+    </row>
+    <row r="115">
+      <c r="G115" s="7"/>
+    </row>
+    <row r="116">
+      <c r="G116" s="7"/>
+    </row>
+    <row r="117">
+      <c r="G117" s="7"/>
+    </row>
+    <row r="118">
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119">
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120">
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121">
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122">
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123">
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124">
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125">
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126">
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127">
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128">
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129">
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130">
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131">
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132">
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133">
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134">
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135">
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136">
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137">
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138">
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139">
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140">
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141">
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142">
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143">
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144">
+      <c r="G144" s="7"/>
+    </row>
+    <row r="145">
+      <c r="G145" s="7"/>
+    </row>
+    <row r="146">
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147">
+      <c r="G147" s="7"/>
+    </row>
+    <row r="148">
+      <c r="G148" s="7"/>
+    </row>
+    <row r="149">
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150">
+      <c r="G150" s="7"/>
+    </row>
+    <row r="151">
+      <c r="G151" s="7"/>
+    </row>
+    <row r="152">
+      <c r="G152" s="7"/>
+    </row>
+    <row r="153">
+      <c r="G153" s="7"/>
+    </row>
+    <row r="154">
+      <c r="G154" s="7"/>
+    </row>
+    <row r="155">
+      <c r="G155" s="7"/>
+    </row>
+    <row r="156">
+      <c r="G156" s="7"/>
+    </row>
+    <row r="157">
+      <c r="G157" s="7"/>
+    </row>
+    <row r="158">
+      <c r="G158" s="7"/>
+    </row>
+    <row r="159">
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160">
+      <c r="G160" s="7"/>
+    </row>
+    <row r="161">
+      <c r="G161" s="7"/>
+    </row>
+    <row r="162">
+      <c r="G162" s="7"/>
+    </row>
+    <row r="163">
+      <c r="G163" s="7"/>
+    </row>
+    <row r="164">
+      <c r="G164" s="7"/>
+    </row>
+    <row r="165">
+      <c r="G165" s="7"/>
+    </row>
+    <row r="166">
+      <c r="G166" s="7"/>
+    </row>
+    <row r="167">
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168">
+      <c r="G168" s="7"/>
+    </row>
+    <row r="169">
+      <c r="G169" s="7"/>
+    </row>
+    <row r="170">
+      <c r="G170" s="7"/>
+    </row>
+    <row r="171">
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172">
+      <c r="G172" s="7"/>
+    </row>
+    <row r="173">
+      <c r="G173" s="7"/>
+    </row>
+    <row r="174">
+      <c r="G174" s="7"/>
+    </row>
+    <row r="175">
+      <c r="G175" s="7"/>
+    </row>
+    <row r="176">
+      <c r="G176" s="7"/>
+    </row>
+    <row r="177">
+      <c r="G177" s="7"/>
+    </row>
+    <row r="178">
+      <c r="G178" s="7"/>
+    </row>
+    <row r="179">
+      <c r="G179" s="7"/>
+    </row>
+    <row r="180">
+      <c r="G180" s="7"/>
+    </row>
+    <row r="181">
+      <c r="G181" s="7"/>
+    </row>
+    <row r="182">
+      <c r="G182" s="7"/>
+    </row>
+    <row r="183">
+      <c r="G183" s="7"/>
+    </row>
+    <row r="184">
+      <c r="G184" s="7"/>
+    </row>
+    <row r="185">
+      <c r="G185" s="7"/>
+    </row>
+    <row r="186">
+      <c r="G186" s="7"/>
+    </row>
+    <row r="187">
+      <c r="G187" s="7"/>
+    </row>
+    <row r="188">
+      <c r="G188" s="7"/>
+    </row>
+    <row r="189">
+      <c r="G189" s="7"/>
+    </row>
+    <row r="190">
+      <c r="G190" s="7"/>
+    </row>
+    <row r="191">
+      <c r="G191" s="7"/>
+    </row>
+    <row r="192">
+      <c r="G192" s="7"/>
+    </row>
+    <row r="193">
+      <c r="G193" s="7"/>
+    </row>
+    <row r="194">
+      <c r="G194" s="7"/>
+    </row>
+    <row r="195">
+      <c r="G195" s="7"/>
+    </row>
+    <row r="196">
+      <c r="G196" s="7"/>
+    </row>
+    <row r="197">
+      <c r="G197" s="7"/>
+    </row>
+    <row r="198">
+      <c r="G198" s="7"/>
+    </row>
+    <row r="199">
+      <c r="G199" s="7"/>
+    </row>
+    <row r="200">
+      <c r="G200" s="7"/>
+    </row>
+    <row r="201">
+      <c r="G201" s="7"/>
+    </row>
+    <row r="202">
+      <c r="G202" s="7"/>
+    </row>
+    <row r="203">
+      <c r="G203" s="7"/>
+    </row>
+    <row r="204">
+      <c r="G204" s="7"/>
+    </row>
+    <row r="205">
+      <c r="G205" s="7"/>
+    </row>
+    <row r="206">
+      <c r="G206" s="7"/>
+    </row>
+    <row r="207">
+      <c r="G207" s="7"/>
+    </row>
+    <row r="208">
+      <c r="G208" s="7"/>
+    </row>
+    <row r="209">
+      <c r="G209" s="7"/>
+    </row>
+    <row r="210">
+      <c r="G210" s="7"/>
+    </row>
+    <row r="211">
+      <c r="G211" s="7"/>
+    </row>
+    <row r="212">
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213">
+      <c r="G213" s="7"/>
+    </row>
+    <row r="214">
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215">
+      <c r="G215" s="7"/>
+    </row>
+    <row r="216">
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217">
+      <c r="G217" s="7"/>
+    </row>
+    <row r="218">
+      <c r="G218" s="7"/>
+    </row>
+    <row r="219">
+      <c r="G219" s="7"/>
+    </row>
+    <row r="220">
+      <c r="G220" s="7"/>
+    </row>
+    <row r="221">
+      <c r="G221" s="7"/>
+    </row>
+    <row r="222">
+      <c r="G222" s="7"/>
+    </row>
+    <row r="223">
+      <c r="G223" s="7"/>
+    </row>
+    <row r="224">
+      <c r="G224" s="7"/>
+    </row>
+    <row r="225">
+      <c r="G225" s="7"/>
+    </row>
+    <row r="226">
+      <c r="G226" s="7"/>
+    </row>
+    <row r="227">
+      <c r="G227" s="7"/>
+    </row>
+    <row r="228">
+      <c r="G228" s="7"/>
+    </row>
+    <row r="229">
+      <c r="G229" s="7"/>
+    </row>
+    <row r="230">
+      <c r="G230" s="7"/>
+    </row>
+    <row r="231">
+      <c r="G231" s="7"/>
+    </row>
+    <row r="232">
+      <c r="G232" s="7"/>
+    </row>
+    <row r="233">
+      <c r="G233" s="7"/>
+    </row>
+    <row r="234">
+      <c r="G234" s="7"/>
+    </row>
+    <row r="235">
+      <c r="G235" s="7"/>
+    </row>
+    <row r="236">
+      <c r="G236" s="7"/>
+    </row>
+    <row r="237">
+      <c r="G237" s="7"/>
+    </row>
+    <row r="238">
+      <c r="G238" s="7"/>
+    </row>
+    <row r="239">
+      <c r="G239" s="7"/>
+    </row>
+    <row r="240">
+      <c r="G240" s="7"/>
+    </row>
+    <row r="241">
+      <c r="G241" s="7"/>
+    </row>
+    <row r="242">
+      <c r="G242" s="7"/>
+    </row>
+    <row r="243">
+      <c r="G243" s="7"/>
+    </row>
+    <row r="244">
+      <c r="G244" s="7"/>
+    </row>
+    <row r="245">
+      <c r="G245" s="7"/>
+    </row>
+    <row r="246">
+      <c r="G246" s="7"/>
+    </row>
+    <row r="247">
+      <c r="G247" s="7"/>
+    </row>
+    <row r="248">
+      <c r="G248" s="7"/>
+    </row>
+    <row r="249">
+      <c r="G249" s="7"/>
+    </row>
+    <row r="250">
+      <c r="G250" s="7"/>
+    </row>
+    <row r="251">
+      <c r="G251" s="7"/>
+    </row>
+    <row r="252">
+      <c r="G252" s="7"/>
+    </row>
+    <row r="253">
+      <c r="G253" s="7"/>
+    </row>
+    <row r="254">
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255">
+      <c r="G255" s="7"/>
+    </row>
+    <row r="256">
+      <c r="G256" s="7"/>
+    </row>
+    <row r="257">
+      <c r="G257" s="7"/>
+    </row>
+    <row r="258">
+      <c r="G258" s="7"/>
+    </row>
+    <row r="259">
+      <c r="G259" s="7"/>
+    </row>
+    <row r="260">
+      <c r="G260" s="7"/>
+    </row>
+    <row r="261">
+      <c r="G261" s="7"/>
+    </row>
+    <row r="262">
+      <c r="G262" s="7"/>
+    </row>
+    <row r="263">
+      <c r="G263" s="7"/>
+    </row>
+    <row r="264">
+      <c r="G264" s="7"/>
+    </row>
+    <row r="265">
+      <c r="G265" s="7"/>
+    </row>
+    <row r="266">
+      <c r="G266" s="7"/>
+    </row>
+    <row r="267">
+      <c r="G267" s="7"/>
+    </row>
+    <row r="268">
+      <c r="G268" s="7"/>
+    </row>
+    <row r="269">
+      <c r="G269" s="7"/>
+    </row>
+    <row r="270">
+      <c r="G270" s="7"/>
+    </row>
+    <row r="271">
+      <c r="G271" s="7"/>
+    </row>
+    <row r="272">
+      <c r="G272" s="7"/>
+    </row>
+    <row r="273">
+      <c r="G273" s="7"/>
+    </row>
+    <row r="274">
+      <c r="G274" s="7"/>
+    </row>
+    <row r="275">
+      <c r="G275" s="7"/>
+    </row>
+    <row r="276">
+      <c r="G276" s="7"/>
+    </row>
+    <row r="277">
+      <c r="G277" s="7"/>
+    </row>
+    <row r="278">
+      <c r="G278" s="7"/>
+    </row>
+    <row r="279">
+      <c r="G279" s="7"/>
+    </row>
+    <row r="280">
+      <c r="G280" s="7"/>
+    </row>
+    <row r="281">
+      <c r="G281" s="7"/>
+    </row>
+    <row r="282">
+      <c r="G282" s="7"/>
+    </row>
+    <row r="283">
+      <c r="G283" s="7"/>
+    </row>
+    <row r="284">
+      <c r="G284" s="7"/>
+    </row>
+    <row r="285">
+      <c r="G285" s="7"/>
+    </row>
+    <row r="286">
+      <c r="G286" s="7"/>
+    </row>
+    <row r="287">
+      <c r="G287" s="7"/>
+    </row>
+    <row r="288">
+      <c r="G288" s="7"/>
+    </row>
+    <row r="289">
+      <c r="G289" s="7"/>
+    </row>
+    <row r="290">
+      <c r="G290" s="7"/>
+    </row>
+    <row r="291">
+      <c r="G291" s="7"/>
+    </row>
+    <row r="292">
+      <c r="G292" s="7"/>
+    </row>
+    <row r="293">
+      <c r="G293" s="7"/>
+    </row>
+    <row r="294">
+      <c r="G294" s="7"/>
+    </row>
+    <row r="295">
+      <c r="G295" s="7"/>
+    </row>
+    <row r="296">
+      <c r="G296" s="7"/>
+    </row>
+    <row r="297">
+      <c r="G297" s="7"/>
+    </row>
+    <row r="298">
+      <c r="G298" s="7"/>
+    </row>
+    <row r="299">
+      <c r="G299" s="7"/>
+    </row>
+    <row r="300">
+      <c r="G300" s="7"/>
+    </row>
+    <row r="301">
+      <c r="G301" s="7"/>
+    </row>
+    <row r="302">
+      <c r="G302" s="7"/>
+    </row>
+    <row r="303">
+      <c r="G303" s="7"/>
+    </row>
+    <row r="304">
+      <c r="G304" s="7"/>
+    </row>
+    <row r="305">
+      <c r="G305" s="7"/>
+    </row>
+    <row r="306">
+      <c r="G306" s="7"/>
+    </row>
+    <row r="307">
+      <c r="G307" s="7"/>
+    </row>
+    <row r="308">
+      <c r="G308" s="7"/>
+    </row>
+    <row r="309">
+      <c r="G309" s="7"/>
+    </row>
+    <row r="310">
+      <c r="G310" s="7"/>
+    </row>
+    <row r="311">
+      <c r="G311" s="7"/>
+    </row>
+    <row r="312">
+      <c r="G312" s="7"/>
+    </row>
+    <row r="313">
+      <c r="G313" s="7"/>
+    </row>
+    <row r="314">
+      <c r="G314" s="7"/>
+    </row>
+    <row r="315">
+      <c r="G315" s="7"/>
+    </row>
+    <row r="316">
+      <c r="G316" s="7"/>
+    </row>
+    <row r="317">
+      <c r="G317" s="7"/>
+    </row>
+    <row r="318">
+      <c r="G318" s="7"/>
+    </row>
+    <row r="319">
+      <c r="G319" s="7"/>
+    </row>
+    <row r="320">
+      <c r="G320" s="7"/>
+    </row>
+    <row r="321">
+      <c r="G321" s="7"/>
+    </row>
+    <row r="322">
+      <c r="G322" s="7"/>
+    </row>
+    <row r="323">
+      <c r="G323" s="7"/>
+    </row>
+    <row r="324">
+      <c r="G324" s="7"/>
+    </row>
+    <row r="325">
+      <c r="G325" s="7"/>
+    </row>
+    <row r="326">
+      <c r="G326" s="7"/>
+    </row>
+    <row r="327">
+      <c r="G327" s="7"/>
+    </row>
+    <row r="328">
+      <c r="G328" s="7"/>
+    </row>
+    <row r="329">
+      <c r="G329" s="7"/>
+    </row>
+    <row r="330">
+      <c r="G330" s="7"/>
+    </row>
+    <row r="331">
+      <c r="G331" s="7"/>
+    </row>
+    <row r="332">
+      <c r="G332" s="7"/>
+    </row>
+    <row r="333">
+      <c r="G333" s="7"/>
+    </row>
+    <row r="334">
+      <c r="G334" s="7"/>
+    </row>
+    <row r="335">
+      <c r="G335" s="7"/>
+    </row>
+    <row r="336">
+      <c r="G336" s="7"/>
+    </row>
+    <row r="337">
+      <c r="G337" s="7"/>
+    </row>
+    <row r="338">
+      <c r="G338" s="7"/>
+    </row>
+    <row r="339">
+      <c r="G339" s="7"/>
+    </row>
+    <row r="340">
+      <c r="G340" s="7"/>
+    </row>
+    <row r="341">
+      <c r="G341" s="7"/>
+    </row>
+    <row r="342">
+      <c r="G342" s="7"/>
+    </row>
+    <row r="343">
+      <c r="G343" s="7"/>
+    </row>
+    <row r="344">
+      <c r="G344" s="7"/>
+    </row>
+    <row r="345">
+      <c r="G345" s="7"/>
+    </row>
+    <row r="346">
+      <c r="G346" s="7"/>
+    </row>
+    <row r="347">
+      <c r="G347" s="7"/>
+    </row>
+    <row r="348">
+      <c r="G348" s="7"/>
+    </row>
+    <row r="349">
+      <c r="G349" s="7"/>
+    </row>
+    <row r="350">
+      <c r="G350" s="7"/>
+    </row>
+    <row r="351">
+      <c r="G351" s="7"/>
+    </row>
+    <row r="352">
+      <c r="G352" s="7"/>
+    </row>
+    <row r="353">
+      <c r="G353" s="7"/>
+    </row>
+    <row r="354">
+      <c r="G354" s="7"/>
+    </row>
+    <row r="355">
+      <c r="G355" s="7"/>
+    </row>
+    <row r="356">
+      <c r="G356" s="7"/>
+    </row>
+    <row r="357">
+      <c r="G357" s="7"/>
+    </row>
+    <row r="358">
+      <c r="G358" s="7"/>
+    </row>
+    <row r="359">
+      <c r="G359" s="7"/>
+    </row>
+    <row r="360">
+      <c r="G360" s="7"/>
+    </row>
+    <row r="361">
+      <c r="G361" s="7"/>
+    </row>
+    <row r="362">
+      <c r="G362" s="7"/>
+    </row>
+    <row r="363">
+      <c r="G363" s="7"/>
+    </row>
+    <row r="364">
+      <c r="G364" s="7"/>
+    </row>
+    <row r="365">
+      <c r="G365" s="7"/>
+    </row>
+    <row r="366">
+      <c r="G366" s="7"/>
+    </row>
+    <row r="367">
+      <c r="G367" s="7"/>
+    </row>
+    <row r="368">
+      <c r="G368" s="7"/>
+    </row>
+    <row r="369">
+      <c r="G369" s="7"/>
+    </row>
+    <row r="370">
+      <c r="G370" s="7"/>
+    </row>
+    <row r="371">
+      <c r="G371" s="7"/>
+    </row>
+    <row r="372">
+      <c r="G372" s="7"/>
+    </row>
+    <row r="373">
+      <c r="G373" s="7"/>
+    </row>
+    <row r="374">
+      <c r="G374" s="7"/>
+    </row>
+    <row r="375">
+      <c r="G375" s="7"/>
+    </row>
+    <row r="376">
+      <c r="G376" s="7"/>
+    </row>
+    <row r="377">
+      <c r="G377" s="7"/>
+    </row>
+    <row r="378">
+      <c r="G378" s="7"/>
+    </row>
+    <row r="379">
+      <c r="G379" s="7"/>
+    </row>
+    <row r="380">
+      <c r="G380" s="7"/>
+    </row>
+    <row r="381">
+      <c r="G381" s="7"/>
+    </row>
+    <row r="382">
+      <c r="G382" s="7"/>
+    </row>
+    <row r="383">
+      <c r="G383" s="7"/>
+    </row>
+    <row r="384">
+      <c r="G384" s="7"/>
+    </row>
+    <row r="385">
+      <c r="G385" s="7"/>
+    </row>
+    <row r="386">
+      <c r="G386" s="7"/>
+    </row>
+    <row r="387">
+      <c r="G387" s="7"/>
+    </row>
+    <row r="388">
+      <c r="G388" s="7"/>
+    </row>
+    <row r="389">
+      <c r="G389" s="7"/>
+    </row>
+    <row r="390">
+      <c r="G390" s="7"/>
+    </row>
+    <row r="391">
+      <c r="G391" s="7"/>
+    </row>
+    <row r="392">
+      <c r="G392" s="7"/>
+    </row>
+    <row r="393">
+      <c r="G393" s="7"/>
+    </row>
+    <row r="394">
+      <c r="G394" s="7"/>
+    </row>
+    <row r="395">
+      <c r="G395" s="7"/>
+    </row>
+    <row r="396">
+      <c r="G396" s="7"/>
+    </row>
+    <row r="397">
+      <c r="G397" s="7"/>
+    </row>
+    <row r="398">
+      <c r="G398" s="7"/>
+    </row>
+    <row r="399">
+      <c r="G399" s="7"/>
+    </row>
+    <row r="400">
+      <c r="G400" s="7"/>
+    </row>
+    <row r="401">
+      <c r="G401" s="7"/>
+    </row>
+    <row r="402">
+      <c r="G402" s="7"/>
+    </row>
+    <row r="403">
+      <c r="G403" s="7"/>
+    </row>
+    <row r="404">
+      <c r="G404" s="7"/>
+    </row>
+    <row r="405">
+      <c r="G405" s="7"/>
+    </row>
+    <row r="406">
+      <c r="G406" s="7"/>
+    </row>
+    <row r="407">
+      <c r="G407" s="7"/>
+    </row>
+    <row r="408">
+      <c r="G408" s="7"/>
+    </row>
+    <row r="409">
+      <c r="G409" s="7"/>
+    </row>
+    <row r="410">
+      <c r="G410" s="7"/>
+    </row>
+    <row r="411">
+      <c r="G411" s="7"/>
+    </row>
+    <row r="412">
+      <c r="G412" s="7"/>
+    </row>
+    <row r="413">
+      <c r="G413" s="7"/>
+    </row>
+    <row r="414">
+      <c r="G414" s="7"/>
+    </row>
+    <row r="415">
+      <c r="G415" s="7"/>
+    </row>
+    <row r="416">
+      <c r="G416" s="7"/>
+    </row>
+    <row r="417">
+      <c r="G417" s="7"/>
+    </row>
+    <row r="418">
+      <c r="G418" s="7"/>
+    </row>
+    <row r="419">
+      <c r="G419" s="7"/>
+    </row>
+    <row r="420">
+      <c r="G420" s="7"/>
+    </row>
+    <row r="421">
+      <c r="G421" s="7"/>
+    </row>
+    <row r="422">
+      <c r="G422" s="7"/>
+    </row>
+    <row r="423">
+      <c r="G423" s="7"/>
+    </row>
+    <row r="424">
+      <c r="G424" s="7"/>
+    </row>
+    <row r="425">
+      <c r="G425" s="7"/>
+    </row>
+    <row r="426">
+      <c r="G426" s="7"/>
+    </row>
+    <row r="427">
+      <c r="G427" s="7"/>
+    </row>
+    <row r="428">
+      <c r="G428" s="7"/>
+    </row>
+    <row r="429">
+      <c r="G429" s="7"/>
+    </row>
+    <row r="430">
+      <c r="G430" s="7"/>
+    </row>
+    <row r="431">
+      <c r="G431" s="7"/>
+    </row>
+    <row r="432">
+      <c r="G432" s="7"/>
+    </row>
+    <row r="433">
+      <c r="G433" s="7"/>
+    </row>
+    <row r="434">
+      <c r="G434" s="7"/>
+    </row>
+    <row r="435">
+      <c r="G435" s="7"/>
+    </row>
+    <row r="436">
+      <c r="G436" s="7"/>
+    </row>
+    <row r="437">
+      <c r="G437" s="7"/>
+    </row>
+    <row r="438">
+      <c r="G438" s="7"/>
+    </row>
+    <row r="439">
+      <c r="G439" s="7"/>
+    </row>
+    <row r="440">
+      <c r="G440" s="7"/>
+    </row>
+    <row r="441">
+      <c r="G441" s="7"/>
+    </row>
+    <row r="442">
+      <c r="G442" s="7"/>
+    </row>
+    <row r="443">
+      <c r="G443" s="7"/>
+    </row>
+    <row r="444">
+      <c r="G444" s="7"/>
+    </row>
+    <row r="445">
+      <c r="G445" s="7"/>
+    </row>
+    <row r="446">
+      <c r="G446" s="7"/>
+    </row>
+    <row r="447">
+      <c r="G447" s="7"/>
+    </row>
+    <row r="448">
+      <c r="G448" s="7"/>
+    </row>
+    <row r="449">
+      <c r="G449" s="7"/>
+    </row>
+    <row r="450">
+      <c r="G450" s="7"/>
+    </row>
+    <row r="451">
+      <c r="G451" s="7"/>
+    </row>
+    <row r="452">
+      <c r="G452" s="7"/>
+    </row>
+    <row r="453">
+      <c r="G453" s="7"/>
+    </row>
+    <row r="454">
+      <c r="G454" s="7"/>
+    </row>
+    <row r="455">
+      <c r="G455" s="7"/>
+    </row>
+    <row r="456">
+      <c r="G456" s="7"/>
+    </row>
+    <row r="457">
+      <c r="G457" s="7"/>
+    </row>
+    <row r="458">
+      <c r="G458" s="7"/>
+    </row>
+    <row r="459">
+      <c r="G459" s="7"/>
+    </row>
+    <row r="460">
+      <c r="G460" s="7"/>
+    </row>
+    <row r="461">
+      <c r="G461" s="7"/>
+    </row>
+    <row r="462">
+      <c r="G462" s="7"/>
+    </row>
+    <row r="463">
+      <c r="G463" s="7"/>
+    </row>
+    <row r="464">
+      <c r="G464" s="7"/>
+    </row>
+    <row r="465">
+      <c r="G465" s="7"/>
+    </row>
+    <row r="466">
+      <c r="G466" s="7"/>
+    </row>
+    <row r="467">
+      <c r="G467" s="7"/>
+    </row>
+    <row r="468">
+      <c r="G468" s="7"/>
+    </row>
+    <row r="469">
+      <c r="G469" s="7"/>
+    </row>
+    <row r="470">
+      <c r="G470" s="7"/>
+    </row>
+    <row r="471">
+      <c r="G471" s="7"/>
+    </row>
+    <row r="472">
+      <c r="G472" s="7"/>
+    </row>
+    <row r="473">
+      <c r="G473" s="7"/>
+    </row>
+    <row r="474">
+      <c r="G474" s="7"/>
+    </row>
+    <row r="475">
+      <c r="G475" s="7"/>
+    </row>
+    <row r="476">
+      <c r="G476" s="7"/>
+    </row>
+    <row r="477">
+      <c r="G477" s="7"/>
+    </row>
+    <row r="478">
+      <c r="G478" s="7"/>
+    </row>
+    <row r="479">
+      <c r="G479" s="7"/>
+    </row>
+    <row r="480">
+      <c r="G480" s="7"/>
+    </row>
+    <row r="481">
+      <c r="G481" s="7"/>
+    </row>
+    <row r="482">
+      <c r="G482" s="7"/>
+    </row>
+    <row r="483">
+      <c r="G483" s="7"/>
+    </row>
+    <row r="484">
+      <c r="G484" s="7"/>
+    </row>
+    <row r="485">
+      <c r="G485" s="7"/>
+    </row>
+    <row r="486">
+      <c r="G486" s="7"/>
+    </row>
+    <row r="487">
+      <c r="G487" s="7"/>
+    </row>
+    <row r="488">
+      <c r="G488" s="7"/>
+    </row>
+    <row r="489">
+      <c r="G489" s="7"/>
+    </row>
+    <row r="490">
+      <c r="G490" s="7"/>
+    </row>
+    <row r="491">
+      <c r="G491" s="7"/>
+    </row>
+    <row r="492">
+      <c r="G492" s="7"/>
+    </row>
+    <row r="493">
+      <c r="G493" s="7"/>
+    </row>
+    <row r="494">
+      <c r="G494" s="7"/>
+    </row>
+    <row r="495">
+      <c r="G495" s="7"/>
+    </row>
+    <row r="496">
+      <c r="G496" s="7"/>
+    </row>
+    <row r="497">
+      <c r="G497" s="7"/>
+    </row>
+    <row r="498">
+      <c r="G498" s="7"/>
+    </row>
+    <row r="499">
+      <c r="G499" s="7"/>
+    </row>
+    <row r="500">
+      <c r="G500" s="7"/>
+    </row>
+    <row r="501">
+      <c r="G501" s="7"/>
+    </row>
+    <row r="502">
+      <c r="G502" s="7"/>
+    </row>
+    <row r="503">
+      <c r="G503" s="7"/>
+    </row>
+    <row r="504">
+      <c r="G504" s="7"/>
+    </row>
+    <row r="505">
+      <c r="G505" s="7"/>
+    </row>
+    <row r="506">
+      <c r="G506" s="7"/>
+    </row>
+    <row r="507">
+      <c r="G507" s="7"/>
+    </row>
+    <row r="508">
+      <c r="G508" s="7"/>
+    </row>
+    <row r="509">
+      <c r="G509" s="7"/>
+    </row>
+    <row r="510">
+      <c r="G510" s="7"/>
+    </row>
+    <row r="511">
+      <c r="G511" s="7"/>
+    </row>
+    <row r="512">
+      <c r="G512" s="7"/>
+    </row>
+    <row r="513">
+      <c r="G513" s="7"/>
+    </row>
+    <row r="514">
+      <c r="G514" s="7"/>
+    </row>
+    <row r="515">
+      <c r="G515" s="7"/>
+    </row>
+    <row r="516">
+      <c r="G516" s="7"/>
+    </row>
+    <row r="517">
+      <c r="G517" s="7"/>
+    </row>
+    <row r="518">
+      <c r="G518" s="7"/>
+    </row>
+    <row r="519">
+      <c r="G519" s="7"/>
+    </row>
+    <row r="520">
+      <c r="G520" s="7"/>
+    </row>
+    <row r="521">
+      <c r="G521" s="7"/>
+    </row>
+    <row r="522">
+      <c r="G522" s="7"/>
+    </row>
+    <row r="523">
+      <c r="G523" s="7"/>
+    </row>
+    <row r="524">
+      <c r="G524" s="7"/>
+    </row>
+    <row r="525">
+      <c r="G525" s="7"/>
+    </row>
+    <row r="526">
+      <c r="G526" s="7"/>
+    </row>
+    <row r="527">
+      <c r="G527" s="7"/>
+    </row>
+    <row r="528">
+      <c r="G528" s="7"/>
+    </row>
+    <row r="529">
+      <c r="G529" s="7"/>
+    </row>
+    <row r="530">
+      <c r="G530" s="7"/>
+    </row>
+    <row r="531">
+      <c r="G531" s="7"/>
+    </row>
+    <row r="532">
+      <c r="G532" s="7"/>
+    </row>
+    <row r="533">
+      <c r="G533" s="7"/>
+    </row>
+    <row r="534">
+      <c r="G534" s="7"/>
+    </row>
+    <row r="535">
+      <c r="G535" s="7"/>
+    </row>
+    <row r="536">
+      <c r="G536" s="7"/>
+    </row>
+    <row r="537">
+      <c r="G537" s="7"/>
+    </row>
+    <row r="538">
+      <c r="G538" s="7"/>
+    </row>
+    <row r="539">
+      <c r="G539" s="7"/>
+    </row>
+    <row r="540">
+      <c r="G540" s="7"/>
+    </row>
+    <row r="541">
+      <c r="G541" s="7"/>
+    </row>
+    <row r="542">
+      <c r="G542" s="7"/>
+    </row>
+    <row r="543">
+      <c r="G543" s="7"/>
+    </row>
+    <row r="544">
+      <c r="G544" s="7"/>
+    </row>
+    <row r="545">
+      <c r="G545" s="7"/>
+    </row>
+    <row r="546">
+      <c r="G546" s="7"/>
+    </row>
+    <row r="547">
+      <c r="G547" s="7"/>
+    </row>
+    <row r="548">
+      <c r="G548" s="7"/>
+    </row>
+    <row r="549">
+      <c r="G549" s="7"/>
+    </row>
+    <row r="550">
+      <c r="G550" s="7"/>
+    </row>
+    <row r="551">
+      <c r="G551" s="7"/>
+    </row>
+    <row r="552">
+      <c r="G552" s="7"/>
+    </row>
+    <row r="553">
+      <c r="G553" s="7"/>
+    </row>
+    <row r="554">
+      <c r="G554" s="7"/>
+    </row>
+    <row r="555">
+      <c r="G555" s="7"/>
+    </row>
+    <row r="556">
+      <c r="G556" s="7"/>
+    </row>
+    <row r="557">
+      <c r="G557" s="7"/>
+    </row>
+    <row r="558">
+      <c r="G558" s="7"/>
+    </row>
+    <row r="559">
+      <c r="G559" s="7"/>
+    </row>
+    <row r="560">
+      <c r="G560" s="7"/>
+    </row>
+    <row r="561">
+      <c r="G561" s="7"/>
+    </row>
+    <row r="562">
+      <c r="G562" s="7"/>
+    </row>
+    <row r="563">
+      <c r="G563" s="7"/>
+    </row>
+    <row r="564">
+      <c r="G564" s="7"/>
+    </row>
+    <row r="565">
+      <c r="G565" s="7"/>
+    </row>
+    <row r="566">
+      <c r="G566" s="7"/>
+    </row>
+    <row r="567">
+      <c r="G567" s="7"/>
+    </row>
+    <row r="568">
+      <c r="G568" s="7"/>
+    </row>
+    <row r="569">
+      <c r="G569" s="7"/>
+    </row>
+    <row r="570">
+      <c r="G570" s="7"/>
+    </row>
+    <row r="571">
+      <c r="G571" s="7"/>
+    </row>
+    <row r="572">
+      <c r="G572" s="7"/>
+    </row>
+    <row r="573">
+      <c r="G573" s="7"/>
+    </row>
+    <row r="574">
+      <c r="G574" s="7"/>
+    </row>
+    <row r="575">
+      <c r="G575" s="7"/>
+    </row>
+    <row r="576">
+      <c r="G576" s="7"/>
+    </row>
+    <row r="577">
+      <c r="G577" s="7"/>
+    </row>
+    <row r="578">
+      <c r="G578" s="7"/>
+    </row>
+    <row r="579">
+      <c r="G579" s="7"/>
+    </row>
+    <row r="580">
+      <c r="G580" s="7"/>
+    </row>
+    <row r="581">
+      <c r="G581" s="7"/>
+    </row>
+    <row r="582">
+      <c r="G582" s="7"/>
+    </row>
+    <row r="583">
+      <c r="G583" s="7"/>
+    </row>
+    <row r="584">
+      <c r="G584" s="7"/>
+    </row>
+    <row r="585">
+      <c r="G585" s="7"/>
+    </row>
+    <row r="586">
+      <c r="G586" s="7"/>
+    </row>
+    <row r="587">
+      <c r="G587" s="7"/>
+    </row>
+    <row r="588">
+      <c r="G588" s="7"/>
+    </row>
+    <row r="589">
+      <c r="G589" s="7"/>
+    </row>
+    <row r="590">
+      <c r="G590" s="7"/>
+    </row>
+    <row r="591">
+      <c r="G591" s="7"/>
+    </row>
+    <row r="592">
+      <c r="G592" s="7"/>
+    </row>
+    <row r="593">
+      <c r="G593" s="7"/>
+    </row>
+    <row r="594">
+      <c r="G594" s="7"/>
+    </row>
+    <row r="595">
+      <c r="G595" s="7"/>
+    </row>
+    <row r="596">
+      <c r="G596" s="7"/>
+    </row>
+    <row r="597">
+      <c r="G597" s="7"/>
+    </row>
+    <row r="598">
+      <c r="G598" s="7"/>
+    </row>
+    <row r="599">
+      <c r="G599" s="7"/>
+    </row>
+    <row r="600">
+      <c r="G600" s="7"/>
+    </row>
+    <row r="601">
+      <c r="G601" s="7"/>
+    </row>
+    <row r="602">
+      <c r="G602" s="7"/>
+    </row>
+    <row r="603">
+      <c r="G603" s="7"/>
+    </row>
+    <row r="604">
+      <c r="G604" s="7"/>
+    </row>
+    <row r="605">
+      <c r="G605" s="7"/>
+    </row>
+    <row r="606">
+      <c r="G606" s="7"/>
+    </row>
+    <row r="607">
+      <c r="G607" s="7"/>
+    </row>
+    <row r="608">
+      <c r="G608" s="7"/>
+    </row>
+    <row r="609">
+      <c r="G609" s="7"/>
+    </row>
+    <row r="610">
+      <c r="G610" s="7"/>
+    </row>
+    <row r="611">
+      <c r="G611" s="7"/>
+    </row>
+    <row r="612">
+      <c r="G612" s="7"/>
+    </row>
+    <row r="613">
+      <c r="G613" s="7"/>
+    </row>
+    <row r="614">
+      <c r="G614" s="7"/>
+    </row>
+    <row r="615">
+      <c r="G615" s="7"/>
+    </row>
+    <row r="616">
+      <c r="G616" s="7"/>
+    </row>
+    <row r="617">
+      <c r="G617" s="7"/>
+    </row>
+    <row r="618">
+      <c r="G618" s="7"/>
+    </row>
+    <row r="619">
+      <c r="G619" s="7"/>
+    </row>
+    <row r="620">
+      <c r="G620" s="7"/>
+    </row>
+    <row r="621">
+      <c r="G621" s="7"/>
+    </row>
+    <row r="622">
+      <c r="G622" s="7"/>
+    </row>
+    <row r="623">
+      <c r="G623" s="7"/>
+    </row>
+    <row r="624">
+      <c r="G624" s="7"/>
+    </row>
+    <row r="625">
+      <c r="G625" s="7"/>
+    </row>
+    <row r="626">
+      <c r="G626" s="7"/>
+    </row>
+    <row r="627">
+      <c r="G627" s="7"/>
+    </row>
+    <row r="628">
+      <c r="G628" s="7"/>
+    </row>
+    <row r="629">
+      <c r="G629" s="7"/>
+    </row>
+    <row r="630">
+      <c r="G630" s="7"/>
+    </row>
+    <row r="631">
+      <c r="G631" s="7"/>
+    </row>
+    <row r="632">
+      <c r="G632" s="7"/>
+    </row>
+    <row r="633">
+      <c r="G633" s="7"/>
+    </row>
+    <row r="634">
+      <c r="G634" s="7"/>
+    </row>
+    <row r="635">
+      <c r="G635" s="7"/>
+    </row>
+    <row r="636">
+      <c r="G636" s="7"/>
+    </row>
+    <row r="637">
+      <c r="G637" s="7"/>
+    </row>
+    <row r="638">
+      <c r="G638" s="7"/>
+    </row>
+    <row r="639">
+      <c r="G639" s="7"/>
+    </row>
+    <row r="640">
+      <c r="G640" s="7"/>
+    </row>
+    <row r="641">
+      <c r="G641" s="7"/>
+    </row>
+    <row r="642">
+      <c r="G642" s="7"/>
+    </row>
+    <row r="643">
+      <c r="G643" s="7"/>
+    </row>
+    <row r="644">
+      <c r="G644" s="7"/>
+    </row>
+    <row r="645">
+      <c r="G645" s="7"/>
+    </row>
+    <row r="646">
+      <c r="G646" s="7"/>
+    </row>
+    <row r="647">
+      <c r="G647" s="7"/>
+    </row>
+    <row r="648">
+      <c r="G648" s="7"/>
+    </row>
+    <row r="649">
+      <c r="G649" s="7"/>
+    </row>
+    <row r="650">
+      <c r="G650" s="7"/>
+    </row>
+    <row r="651">
+      <c r="G651" s="7"/>
+    </row>
+    <row r="652">
+      <c r="G652" s="7"/>
+    </row>
+    <row r="653">
+      <c r="G653" s="7"/>
+    </row>
+    <row r="654">
+      <c r="G654" s="7"/>
+    </row>
+    <row r="655">
+      <c r="G655" s="7"/>
+    </row>
+    <row r="656">
+      <c r="G656" s="7"/>
+    </row>
+    <row r="657">
+      <c r="G657" s="7"/>
+    </row>
+    <row r="658">
+      <c r="G658" s="7"/>
+    </row>
+    <row r="659">
+      <c r="G659" s="7"/>
+    </row>
+    <row r="660">
+      <c r="G660" s="7"/>
+    </row>
+    <row r="661">
+      <c r="G661" s="7"/>
+    </row>
+    <row r="662">
+      <c r="G662" s="7"/>
+    </row>
+    <row r="663">
+      <c r="G663" s="7"/>
+    </row>
+    <row r="664">
+      <c r="G664" s="7"/>
+    </row>
+    <row r="665">
+      <c r="G665" s="7"/>
+    </row>
+    <row r="666">
+      <c r="G666" s="7"/>
+    </row>
+    <row r="667">
+      <c r="G667" s="7"/>
+    </row>
+    <row r="668">
+      <c r="G668" s="7"/>
+    </row>
+    <row r="669">
+      <c r="G669" s="7"/>
+    </row>
+    <row r="670">
+      <c r="G670" s="7"/>
+    </row>
+    <row r="671">
+      <c r="G671" s="7"/>
+    </row>
+    <row r="672">
+      <c r="G672" s="7"/>
+    </row>
+    <row r="673">
+      <c r="G673" s="7"/>
+    </row>
+    <row r="674">
+      <c r="G674" s="7"/>
+    </row>
+    <row r="675">
+      <c r="G675" s="7"/>
+    </row>
+    <row r="676">
+      <c r="G676" s="7"/>
+    </row>
+    <row r="677">
+      <c r="G677" s="7"/>
+    </row>
+    <row r="678">
+      <c r="G678" s="7"/>
+    </row>
+    <row r="679">
+      <c r="G679" s="7"/>
+    </row>
+    <row r="680">
+      <c r="G680" s="7"/>
+    </row>
+    <row r="681">
+      <c r="G681" s="7"/>
+    </row>
+    <row r="682">
+      <c r="G682" s="7"/>
+    </row>
+    <row r="683">
+      <c r="G683" s="7"/>
+    </row>
+    <row r="684">
+      <c r="G684" s="7"/>
+    </row>
+    <row r="685">
+      <c r="G685" s="7"/>
+    </row>
+    <row r="686">
+      <c r="G686" s="7"/>
+    </row>
+    <row r="687">
+      <c r="G687" s="7"/>
+    </row>
+    <row r="688">
+      <c r="G688" s="7"/>
+    </row>
+    <row r="689">
+      <c r="G689" s="7"/>
+    </row>
+    <row r="690">
+      <c r="G690" s="7"/>
+    </row>
+    <row r="691">
+      <c r="G691" s="7"/>
+    </row>
+    <row r="692">
+      <c r="G692" s="7"/>
+    </row>
+    <row r="693">
+      <c r="G693" s="7"/>
+    </row>
+    <row r="694">
+      <c r="G694" s="7"/>
+    </row>
+    <row r="695">
+      <c r="G695" s="7"/>
+    </row>
+    <row r="696">
+      <c r="G696" s="7"/>
+    </row>
+    <row r="697">
+      <c r="G697" s="7"/>
+    </row>
+    <row r="698">
+      <c r="G698" s="7"/>
+    </row>
+    <row r="699">
+      <c r="G699" s="7"/>
+    </row>
+    <row r="700">
+      <c r="G700" s="7"/>
+    </row>
+    <row r="701">
+      <c r="G701" s="7"/>
+    </row>
+    <row r="702">
+      <c r="G702" s="7"/>
+    </row>
+    <row r="703">
+      <c r="G703" s="7"/>
+    </row>
+    <row r="704">
+      <c r="G704" s="7"/>
+    </row>
+    <row r="705">
+      <c r="G705" s="7"/>
+    </row>
+    <row r="706">
+      <c r="G706" s="7"/>
+    </row>
+    <row r="707">
+      <c r="G707" s="7"/>
+    </row>
+    <row r="708">
+      <c r="G708" s="7"/>
+    </row>
+    <row r="709">
+      <c r="G709" s="7"/>
+    </row>
+    <row r="710">
+      <c r="G710" s="7"/>
+    </row>
+    <row r="711">
+      <c r="G711" s="7"/>
+    </row>
+    <row r="712">
+      <c r="G712" s="7"/>
+    </row>
+    <row r="713">
+      <c r="G713" s="7"/>
+    </row>
+    <row r="714">
+      <c r="G714" s="7"/>
+    </row>
+    <row r="715">
+      <c r="G715" s="7"/>
+    </row>
+    <row r="716">
+      <c r="G716" s="7"/>
+    </row>
+    <row r="717">
+      <c r="G717" s="7"/>
+    </row>
+    <row r="718">
+      <c r="G718" s="7"/>
+    </row>
+    <row r="719">
+      <c r="G719" s="7"/>
+    </row>
+    <row r="720">
+      <c r="G720" s="7"/>
+    </row>
+    <row r="721">
+      <c r="G721" s="7"/>
+    </row>
+    <row r="722">
+      <c r="G722" s="7"/>
+    </row>
+    <row r="723">
+      <c r="G723" s="7"/>
+    </row>
+    <row r="724">
+      <c r="G724" s="7"/>
+    </row>
+    <row r="725">
+      <c r="G725" s="7"/>
+    </row>
+    <row r="726">
+      <c r="G726" s="7"/>
+    </row>
+    <row r="727">
+      <c r="G727" s="7"/>
+    </row>
+    <row r="728">
+      <c r="G728" s="7"/>
+    </row>
+    <row r="729">
+      <c r="G729" s="7"/>
+    </row>
+    <row r="730">
+      <c r="G730" s="7"/>
+    </row>
+    <row r="731">
+      <c r="G731" s="7"/>
+    </row>
+    <row r="732">
+      <c r="G732" s="7"/>
+    </row>
+    <row r="733">
+      <c r="G733" s="7"/>
+    </row>
+    <row r="734">
+      <c r="G734" s="7"/>
+    </row>
+    <row r="735">
+      <c r="G735" s="7"/>
+    </row>
+    <row r="736">
+      <c r="G736" s="7"/>
+    </row>
+    <row r="737">
+      <c r="G737" s="7"/>
+    </row>
+    <row r="738">
+      <c r="G738" s="7"/>
+    </row>
+    <row r="739">
+      <c r="G739" s="7"/>
+    </row>
+    <row r="740">
+      <c r="G740" s="7"/>
+    </row>
+    <row r="741">
+      <c r="G741" s="7"/>
+    </row>
+    <row r="742">
+      <c r="G742" s="7"/>
+    </row>
+    <row r="743">
+      <c r="G743" s="7"/>
+    </row>
+    <row r="744">
+      <c r="G744" s="7"/>
+    </row>
+    <row r="745">
+      <c r="G745" s="7"/>
+    </row>
+    <row r="746">
+      <c r="G746" s="7"/>
+    </row>
+    <row r="747">
+      <c r="G747" s="7"/>
+    </row>
+    <row r="748">
+      <c r="G748" s="7"/>
+    </row>
+    <row r="749">
+      <c r="G749" s="7"/>
+    </row>
+    <row r="750">
+      <c r="G750" s="7"/>
+    </row>
+    <row r="751">
+      <c r="G751" s="7"/>
+    </row>
+    <row r="752">
+      <c r="G752" s="7"/>
+    </row>
+    <row r="753">
+      <c r="G753" s="7"/>
+    </row>
+    <row r="754">
+      <c r="G754" s="7"/>
+    </row>
+    <row r="755">
+      <c r="G755" s="7"/>
+    </row>
+    <row r="756">
+      <c r="G756" s="7"/>
+    </row>
+    <row r="757">
+      <c r="G757" s="7"/>
+    </row>
+    <row r="758">
+      <c r="G758" s="7"/>
+    </row>
+    <row r="759">
+      <c r="G759" s="7"/>
+    </row>
+    <row r="760">
+      <c r="G760" s="7"/>
+    </row>
+    <row r="761">
+      <c r="G761" s="7"/>
+    </row>
+    <row r="762">
+      <c r="G762" s="7"/>
+    </row>
+    <row r="763">
+      <c r="G763" s="7"/>
+    </row>
+    <row r="764">
+      <c r="G764" s="7"/>
+    </row>
+    <row r="765">
+      <c r="G765" s="7"/>
+    </row>
+    <row r="766">
+      <c r="G766" s="7"/>
+    </row>
+    <row r="767">
+      <c r="G767" s="7"/>
+    </row>
+    <row r="768">
+      <c r="G768" s="7"/>
+    </row>
+    <row r="769">
+      <c r="G769" s="7"/>
+    </row>
+    <row r="770">
+      <c r="G770" s="7"/>
+    </row>
+    <row r="771">
+      <c r="G771" s="7"/>
+    </row>
+    <row r="772">
+      <c r="G772" s="7"/>
+    </row>
+    <row r="773">
+      <c r="G773" s="7"/>
+    </row>
+    <row r="774">
+      <c r="G774" s="7"/>
+    </row>
+    <row r="775">
+      <c r="G775" s="7"/>
+    </row>
+    <row r="776">
+      <c r="G776" s="7"/>
+    </row>
+    <row r="777">
+      <c r="G777" s="7"/>
+    </row>
+    <row r="778">
+      <c r="G778" s="7"/>
+    </row>
+    <row r="779">
+      <c r="G779" s="7"/>
+    </row>
+    <row r="780">
+      <c r="G780" s="7"/>
+    </row>
+    <row r="781">
+      <c r="G781" s="7"/>
+    </row>
+    <row r="782">
+      <c r="G782" s="7"/>
+    </row>
+    <row r="783">
+      <c r="G783" s="7"/>
+    </row>
+    <row r="784">
+      <c r="G784" s="7"/>
+    </row>
+    <row r="785">
+      <c r="G785" s="7"/>
+    </row>
+    <row r="786">
+      <c r="G786" s="7"/>
+    </row>
+    <row r="787">
+      <c r="G787" s="7"/>
+    </row>
+    <row r="788">
+      <c r="G788" s="7"/>
+    </row>
+    <row r="789">
+      <c r="G789" s="7"/>
+    </row>
+    <row r="790">
+      <c r="G790" s="7"/>
+    </row>
+    <row r="791">
+      <c r="G791" s="7"/>
+    </row>
+    <row r="792">
+      <c r="G792" s="7"/>
+    </row>
+    <row r="793">
+      <c r="G793" s="7"/>
+    </row>
+    <row r="794">
+      <c r="G794" s="7"/>
+    </row>
+    <row r="795">
+      <c r="G795" s="7"/>
+    </row>
+    <row r="796">
+      <c r="G796" s="7"/>
+    </row>
+    <row r="797">
+      <c r="G797" s="7"/>
+    </row>
+    <row r="798">
+      <c r="G798" s="7"/>
+    </row>
+    <row r="799">
+      <c r="G799" s="7"/>
+    </row>
+    <row r="800">
+      <c r="G800" s="7"/>
+    </row>
+    <row r="801">
+      <c r="G801" s="7"/>
+    </row>
+    <row r="802">
+      <c r="G802" s="7"/>
+    </row>
+    <row r="803">
+      <c r="G803" s="7"/>
+    </row>
+    <row r="804">
+      <c r="G804" s="7"/>
+    </row>
+    <row r="805">
+      <c r="G805" s="7"/>
+    </row>
+    <row r="806">
+      <c r="G806" s="7"/>
+    </row>
+    <row r="807">
+      <c r="G807" s="7"/>
+    </row>
+    <row r="808">
+      <c r="G808" s="7"/>
+    </row>
+    <row r="809">
+      <c r="G809" s="7"/>
+    </row>
+    <row r="810">
+      <c r="G810" s="7"/>
+    </row>
+    <row r="811">
+      <c r="G811" s="7"/>
+    </row>
+    <row r="812">
+      <c r="G812" s="7"/>
+    </row>
+    <row r="813">
+      <c r="G813" s="7"/>
+    </row>
+    <row r="814">
+      <c r="G814" s="7"/>
+    </row>
+    <row r="815">
+      <c r="G815" s="7"/>
+    </row>
+    <row r="816">
+      <c r="G816" s="7"/>
+    </row>
+    <row r="817">
+      <c r="G817" s="7"/>
+    </row>
+    <row r="818">
+      <c r="G818" s="7"/>
+    </row>
+    <row r="819">
+      <c r="G819" s="7"/>
+    </row>
+    <row r="820">
+      <c r="G820" s="7"/>
+    </row>
+    <row r="821">
+      <c r="G821" s="7"/>
+    </row>
+    <row r="822">
+      <c r="G822" s="7"/>
+    </row>
+    <row r="823">
+      <c r="G823" s="7"/>
+    </row>
+    <row r="824">
+      <c r="G824" s="7"/>
+    </row>
+    <row r="825">
+      <c r="G825" s="7"/>
+    </row>
+    <row r="826">
+      <c r="G826" s="7"/>
+    </row>
+    <row r="827">
+      <c r="G827" s="7"/>
+    </row>
+    <row r="828">
+      <c r="G828" s="7"/>
+    </row>
+    <row r="829">
+      <c r="G829" s="7"/>
+    </row>
+    <row r="830">
+      <c r="G830" s="7"/>
+    </row>
+    <row r="831">
+      <c r="G831" s="7"/>
+    </row>
+    <row r="832">
+      <c r="G832" s="7"/>
+    </row>
+    <row r="833">
+      <c r="G833" s="7"/>
+    </row>
+    <row r="834">
+      <c r="G834" s="7"/>
+    </row>
+    <row r="835">
+      <c r="G835" s="7"/>
+    </row>
+    <row r="836">
+      <c r="G836" s="7"/>
+    </row>
+    <row r="837">
+      <c r="G837" s="7"/>
+    </row>
+    <row r="838">
+      <c r="G838" s="7"/>
+    </row>
+    <row r="839">
+      <c r="G839" s="7"/>
+    </row>
+    <row r="840">
+      <c r="G840" s="7"/>
+    </row>
+    <row r="841">
+      <c r="G841" s="7"/>
+    </row>
+    <row r="842">
+      <c r="G842" s="7"/>
+    </row>
+    <row r="843">
+      <c r="G843" s="7"/>
+    </row>
+    <row r="844">
+      <c r="G844" s="7"/>
+    </row>
+    <row r="845">
+      <c r="G845" s="7"/>
+    </row>
+    <row r="846">
+      <c r="G846" s="7"/>
+    </row>
+    <row r="847">
+      <c r="G847" s="7"/>
+    </row>
+    <row r="848">
+      <c r="G848" s="7"/>
+    </row>
+    <row r="849">
+      <c r="G849" s="7"/>
+    </row>
+    <row r="850">
+      <c r="G850" s="7"/>
+    </row>
+    <row r="851">
+      <c r="G851" s="7"/>
+    </row>
+    <row r="852">
+      <c r="G852" s="7"/>
+    </row>
+    <row r="853">
+      <c r="G853" s="7"/>
+    </row>
+    <row r="854">
+      <c r="G854" s="7"/>
+    </row>
+    <row r="855">
+      <c r="G855" s="7"/>
+    </row>
+    <row r="856">
+      <c r="G856" s="7"/>
+    </row>
+    <row r="857">
+      <c r="G857" s="7"/>
+    </row>
+    <row r="858">
+      <c r="G858" s="7"/>
+    </row>
+    <row r="859">
+      <c r="G859" s="7"/>
+    </row>
+    <row r="860">
+      <c r="G860" s="7"/>
+    </row>
+    <row r="861">
+      <c r="G861" s="7"/>
+    </row>
+    <row r="862">
+      <c r="G862" s="7"/>
+    </row>
+    <row r="863">
+      <c r="G863" s="7"/>
+    </row>
+    <row r="864">
+      <c r="G864" s="7"/>
+    </row>
+    <row r="865">
+      <c r="G865" s="7"/>
+    </row>
+    <row r="866">
+      <c r="G866" s="7"/>
+    </row>
+    <row r="867">
+      <c r="G867" s="7"/>
+    </row>
+    <row r="868">
+      <c r="G868" s="7"/>
+    </row>
+    <row r="869">
+      <c r="G869" s="7"/>
+    </row>
+    <row r="870">
+      <c r="G870" s="7"/>
+    </row>
+    <row r="871">
+      <c r="G871" s="7"/>
+    </row>
+    <row r="872">
+      <c r="G872" s="7"/>
+    </row>
+    <row r="873">
+      <c r="G873" s="7"/>
+    </row>
+    <row r="874">
+      <c r="G874" s="7"/>
+    </row>
+    <row r="875">
+      <c r="G875" s="7"/>
+    </row>
+    <row r="876">
+      <c r="G876" s="7"/>
+    </row>
+    <row r="877">
+      <c r="G877" s="7"/>
+    </row>
+    <row r="878">
+      <c r="G878" s="7"/>
+    </row>
+    <row r="879">
+      <c r="G879" s="7"/>
+    </row>
+    <row r="880">
+      <c r="G880" s="7"/>
+    </row>
+    <row r="881">
+      <c r="G881" s="7"/>
+    </row>
+    <row r="882">
+      <c r="G882" s="7"/>
+    </row>
+    <row r="883">
+      <c r="G883" s="7"/>
+    </row>
+    <row r="884">
+      <c r="G884" s="7"/>
+    </row>
+    <row r="885">
+      <c r="G885" s="7"/>
+    </row>
+    <row r="886">
+      <c r="G886" s="7"/>
+    </row>
+    <row r="887">
+      <c r="G887" s="7"/>
+    </row>
+    <row r="888">
+      <c r="G888" s="7"/>
+    </row>
+    <row r="889">
+      <c r="G889" s="7"/>
+    </row>
+    <row r="890">
+      <c r="G890" s="7"/>
+    </row>
+    <row r="891">
+      <c r="G891" s="7"/>
+    </row>
+    <row r="892">
+      <c r="G892" s="7"/>
+    </row>
+    <row r="893">
+      <c r="G893" s="7"/>
+    </row>
+    <row r="894">
+      <c r="G894" s="7"/>
+    </row>
+    <row r="895">
+      <c r="G895" s="7"/>
+    </row>
+    <row r="896">
+      <c r="G896" s="7"/>
+    </row>
+    <row r="897">
+      <c r="G897" s="7"/>
+    </row>
+    <row r="898">
+      <c r="G898" s="7"/>
+    </row>
+    <row r="899">
+      <c r="G899" s="7"/>
+    </row>
+    <row r="900">
+      <c r="G900" s="7"/>
+    </row>
+    <row r="901">
+      <c r="G901" s="7"/>
+    </row>
+    <row r="902">
+      <c r="G902" s="7"/>
+    </row>
+    <row r="903">
+      <c r="G903" s="7"/>
+    </row>
+    <row r="904">
+      <c r="G904" s="7"/>
+    </row>
+    <row r="905">
+      <c r="G905" s="7"/>
+    </row>
+    <row r="906">
+      <c r="G906" s="7"/>
+    </row>
+    <row r="907">
+      <c r="G907" s="7"/>
+    </row>
+    <row r="908">
+      <c r="G908" s="7"/>
+    </row>
+    <row r="909">
+      <c r="G909" s="7"/>
+    </row>
+    <row r="910">
+      <c r="G910" s="7"/>
+    </row>
+    <row r="911">
+      <c r="G911" s="7"/>
+    </row>
+    <row r="912">
+      <c r="G912" s="7"/>
+    </row>
+    <row r="913">
+      <c r="G913" s="7"/>
+    </row>
+    <row r="914">
+      <c r="G914" s="7"/>
+    </row>
+    <row r="915">
+      <c r="G915" s="7"/>
+    </row>
+    <row r="916">
+      <c r="G916" s="7"/>
+    </row>
+    <row r="917">
+      <c r="G917" s="7"/>
+    </row>
+    <row r="918">
+      <c r="G918" s="7"/>
+    </row>
+    <row r="919">
+      <c r="G919" s="7"/>
+    </row>
+    <row r="920">
+      <c r="G920" s="7"/>
+    </row>
+    <row r="921">
+      <c r="G921" s="7"/>
+    </row>
+    <row r="922">
+      <c r="G922" s="7"/>
+    </row>
+    <row r="923">
+      <c r="G923" s="7"/>
+    </row>
+    <row r="924">
+      <c r="G924" s="7"/>
+    </row>
+    <row r="925">
+      <c r="G925" s="7"/>
+    </row>
+    <row r="926">
+      <c r="G926" s="7"/>
+    </row>
+    <row r="927">
+      <c r="G927" s="7"/>
+    </row>
+    <row r="928">
+      <c r="G928" s="7"/>
+    </row>
+    <row r="929">
+      <c r="G929" s="7"/>
+    </row>
+    <row r="930">
+      <c r="G930" s="7"/>
+    </row>
+    <row r="931">
+      <c r="G931" s="7"/>
+    </row>
+    <row r="932">
+      <c r="G932" s="7"/>
+    </row>
+    <row r="933">
+      <c r="G933" s="7"/>
+    </row>
+    <row r="934">
+      <c r="G934" s="7"/>
+    </row>
+    <row r="935">
+      <c r="G935" s="7"/>
+    </row>
+    <row r="936">
+      <c r="G936" s="7"/>
+    </row>
+    <row r="937">
+      <c r="G937" s="7"/>
+    </row>
+    <row r="938">
+      <c r="G938" s="7"/>
+    </row>
+    <row r="939">
+      <c r="G939" s="7"/>
+    </row>
+    <row r="940">
+      <c r="G940" s="7"/>
+    </row>
+    <row r="941">
+      <c r="G941" s="7"/>
+    </row>
+    <row r="942">
+      <c r="G942" s="7"/>
+    </row>
+    <row r="943">
+      <c r="G943" s="7"/>
+    </row>
+    <row r="944">
+      <c r="G944" s="7"/>
+    </row>
+    <row r="945">
+      <c r="G945" s="7"/>
+    </row>
+    <row r="946">
+      <c r="G946" s="7"/>
+    </row>
+    <row r="947">
+      <c r="G947" s="7"/>
+    </row>
+    <row r="948">
+      <c r="G948" s="7"/>
+    </row>
+    <row r="949">
+      <c r="G949" s="7"/>
+    </row>
+    <row r="950">
+      <c r="G950" s="7"/>
+    </row>
+    <row r="951">
+      <c r="G951" s="7"/>
+    </row>
+    <row r="952">
+      <c r="G952" s="7"/>
+    </row>
+    <row r="953">
+      <c r="G953" s="7"/>
+    </row>
+    <row r="954">
+      <c r="G954" s="7"/>
+    </row>
+    <row r="955">
+      <c r="G955" s="7"/>
+    </row>
+    <row r="956">
+      <c r="G956" s="7"/>
+    </row>
+    <row r="957">
+      <c r="G957" s="7"/>
+    </row>
+    <row r="958">
+      <c r="G958" s="7"/>
+    </row>
+    <row r="959">
+      <c r="G959" s="7"/>
+    </row>
+    <row r="960">
+      <c r="G960" s="7"/>
+    </row>
+    <row r="961">
+      <c r="G961" s="7"/>
+    </row>
+    <row r="962">
+      <c r="G962" s="7"/>
+    </row>
+    <row r="963">
+      <c r="G963" s="7"/>
+    </row>
+    <row r="964">
+      <c r="G964" s="7"/>
+    </row>
+    <row r="965">
+      <c r="G965" s="7"/>
+    </row>
+    <row r="966">
+      <c r="G966" s="7"/>
+    </row>
+    <row r="967">
+      <c r="G967" s="7"/>
+    </row>
+    <row r="968">
+      <c r="G968" s="7"/>
+    </row>
+    <row r="969">
+      <c r="G969" s="7"/>
+    </row>
+    <row r="970">
+      <c r="G970" s="7"/>
+    </row>
+    <row r="971">
+      <c r="G971" s="7"/>
+    </row>
+    <row r="972">
+      <c r="G972" s="7"/>
+    </row>
+    <row r="973">
+      <c r="G973" s="7"/>
+    </row>
+    <row r="974">
+      <c r="G974" s="7"/>
+    </row>
+    <row r="975">
+      <c r="G975" s="7"/>
+    </row>
+    <row r="976">
+      <c r="G976" s="7"/>
+    </row>
+    <row r="977">
+      <c r="G977" s="7"/>
+    </row>
+    <row r="978">
+      <c r="G978" s="7"/>
+    </row>
+    <row r="979">
+      <c r="G979" s="7"/>
+    </row>
+    <row r="980">
+      <c r="G980" s="7"/>
+    </row>
+    <row r="981">
+      <c r="G981" s="7"/>
+    </row>
+    <row r="982">
+      <c r="G982" s="7"/>
+    </row>
+    <row r="983">
+      <c r="G983" s="7"/>
+    </row>
+    <row r="984">
+      <c r="G984" s="7"/>
+    </row>
+    <row r="985">
+      <c r="G985" s="7"/>
+    </row>
+    <row r="986">
+      <c r="G986" s="7"/>
+    </row>
+    <row r="987">
+      <c r="G987" s="7"/>
+    </row>
+    <row r="988">
+      <c r="G988" s="7"/>
+    </row>
+    <row r="989">
+      <c r="G989" s="7"/>
+    </row>
+    <row r="990">
+      <c r="G990" s="7"/>
+    </row>
+    <row r="991">
+      <c r="G991" s="7"/>
+    </row>
+    <row r="992">
+      <c r="G992" s="7"/>
+    </row>
+    <row r="993">
+      <c r="G993" s="7"/>
+    </row>
+    <row r="994">
+      <c r="G994" s="7"/>
+    </row>
+    <row r="995">
+      <c r="G995" s="7"/>
+    </row>
+    <row r="996">
+      <c r="G996" s="7"/>
+    </row>
+    <row r="997">
+      <c r="G997" s="7"/>
+    </row>
+    <row r="998">
+      <c r="G998" s="7"/>
+    </row>
+    <row r="999">
+      <c r="G999" s="7"/>
+    </row>
+    <row r="1000">
+      <c r="G1000" s="7"/>
+    </row>
+    <row r="1001">
+      <c r="G1001" s="7"/>
+    </row>
+    <row r="1002">
+      <c r="G1002" s="7"/>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="G1:G1002">
+      <formula1>"Left,Right,Center,HetrisCenter"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/RenpyData.xlsx
+++ b/test/RenpyData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="310">
   <si>
     <t>Variable</t>
   </si>
@@ -31,16 +31,13 @@
     <t>what_suffix</t>
   </si>
   <si>
-    <t>nanakin</t>
+    <t>nana</t>
   </si>
   <si>
     <t>金娜娜</t>
   </si>
   <si>
     <t>#ffffff</t>
-  </si>
-  <si>
-    <t>nana</t>
   </si>
   <si>
     <t>{image=end_pic}</t>
@@ -882,27 +879,27 @@
     <t>dissolve</t>
   </si>
   <si>
+    <t>mtr1</t>
+  </si>
+  <si>
+    <t>fade</t>
+  </si>
+  <si>
     <t>metro_arriving</t>
   </si>
   <si>
-    <t>mtr1</t>
-  </si>
-  <si>
-    <t>fade</t>
-  </si>
-  <si>
     <t>narrator_adv</t>
   </si>
   <si>
     <t>請勿靠近車門</t>
   </si>
   <si>
+    <t>我拖著行李下車，小心翼翼地穿梭在人群中。</t>
+  </si>
+  <si>
     <t>footstep</t>
   </si>
   <si>
-    <t>我拖著行李下車，小心翼翼地穿梭在人群中。</t>
-  </si>
-  <si>
     <t>street</t>
   </si>
   <si>
@@ -910,13 +907,64 @@
   </si>
   <si>
     <t>streets_afternoon</t>
+  </si>
+  <si>
+    <t>nana normal</t>
+  </si>
+  <si>
+    <t>哇…這就是大都市的感覺嗎！</t>
+  </si>
+  <si>
+    <t>直到大學畢業為止都是住在小市鎮的我，對眼前的環境感到十分新鮮。</t>
+  </si>
+  <si>
+    <t>(除了中學時跟小光來過這裡遊覽外，都沒有機會來。)</t>
+  </si>
+  <si>
+    <t>nana smile1</t>
+  </si>
+  <si>
+    <t>我得好好努力，識應這裏的生活才行！</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>嗶嗶嗶嗶嗶</t>
+  </si>
+  <si>
+    <t>vpunch</t>
+  </si>
+  <si>
+    <t>nana shock1</t>
+  </si>
+  <si>
+    <t>（啊！是小光！）</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>hikari/hi_hi.wav</t>
+  </si>
+  <si>
+    <t>Hi~娜娜，順利到達了嗎？</t>
+  </si>
+  <si>
+    <t>嗯！我剛剛下車呢！</t>
+  </si>
+  <si>
+    <t>hikari/hi_ok.mp3</t>
+  </si>
+  <si>
+    <t>看來你很興奮呢，面試準備得如何了？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -926,6 +974,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -939,6 +988,11 @@
       <sz val="11.0"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -973,20 +1027,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -996,6 +1053,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1249,134 +1309,134 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10">
-      <c r="C10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11">
-      <c r="C11" s="2"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1406,975 +1466,975 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2458,7 @@
   <sheetData>
     <row r="1" ht="420.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2421,8 +2481,10 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="16.38"/>
     <col customWidth="1" min="5" max="5" width="14.5"/>
+    <col customWidth="1" min="6" max="6" width="16.0"/>
     <col customWidth="1" min="7" max="7" width="16.13"/>
-    <col customWidth="1" min="10" max="10" width="41.0"/>
+    <col customWidth="1" min="9" max="9" width="17.5"/>
+    <col customWidth="1" min="10" max="10" width="59.13"/>
     <col customWidth="1" min="11" max="11" width="16.88"/>
     <col customWidth="1" min="12" max="12" width="18.38"/>
     <col customWidth="1" min="17" max="17" width="8.0"/>
@@ -2433,3123 +2495,4206 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="1"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="Q2" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="M3" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="8"/>
+      <c r="J5" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="1" t="s">
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="C6" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="J5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="8"/>
+      <c r="I7" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="J7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L7" s="8"/>
     </row>
     <row r="8">
-      <c r="G8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L8" s="8"/>
     </row>
     <row r="9">
-      <c r="G9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L9" s="8"/>
     </row>
     <row r="10">
-      <c r="G10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="8"/>
     </row>
     <row r="11">
-      <c r="G11" s="7"/>
+      <c r="C11" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="I11" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="12">
-      <c r="G12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L12" s="8"/>
     </row>
     <row r="13">
-      <c r="G13" s="7"/>
+      <c r="C13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="14">
-      <c r="G14" s="7"/>
+      <c r="E14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L14" s="8"/>
     </row>
     <row r="15">
-      <c r="G15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="I15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L15" s="8"/>
     </row>
     <row r="16">
-      <c r="G16" s="7"/>
+      <c r="F16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L16" s="8"/>
     </row>
     <row r="17">
-      <c r="G17" s="7"/>
+      <c r="E17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L17" s="8"/>
     </row>
     <row r="18">
-      <c r="G18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19">
-      <c r="G19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20">
-      <c r="G20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21">
-      <c r="G21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22">
-      <c r="G22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23">
-      <c r="G23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24">
-      <c r="G24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25">
-      <c r="G25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26">
-      <c r="G26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27">
-      <c r="G27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28">
-      <c r="G28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29">
-      <c r="G29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30">
-      <c r="G30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31">
-      <c r="G31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32">
-      <c r="G32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33">
-      <c r="G33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="34">
-      <c r="G34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35">
-      <c r="G35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="36">
-      <c r="G36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="L36" s="8"/>
     </row>
     <row r="37">
-      <c r="G37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38">
-      <c r="G38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="L38" s="8"/>
     </row>
     <row r="39">
-      <c r="G39" s="7"/>
+      <c r="G39" s="8"/>
+      <c r="L39" s="8"/>
     </row>
     <row r="40">
-      <c r="G40" s="7"/>
+      <c r="G40" s="8"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41">
-      <c r="G41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42">
-      <c r="G42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43">
-      <c r="G43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44">
-      <c r="G44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="L44" s="8"/>
     </row>
     <row r="45">
-      <c r="G45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="L45" s="8"/>
     </row>
     <row r="46">
-      <c r="G46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="L46" s="8"/>
     </row>
     <row r="47">
-      <c r="G47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="L47" s="8"/>
     </row>
     <row r="48">
-      <c r="G48" s="7"/>
+      <c r="G48" s="8"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49">
-      <c r="G49" s="7"/>
+      <c r="G49" s="8"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50">
-      <c r="G50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="L50" s="8"/>
     </row>
     <row r="51">
-      <c r="G51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="L51" s="8"/>
     </row>
     <row r="52">
-      <c r="G52" s="7"/>
+      <c r="G52" s="8"/>
+      <c r="L52" s="8"/>
     </row>
     <row r="53">
-      <c r="G53" s="7"/>
+      <c r="G53" s="8"/>
+      <c r="L53" s="8"/>
     </row>
     <row r="54">
-      <c r="G54" s="7"/>
+      <c r="G54" s="8"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="55">
-      <c r="G55" s="7"/>
+      <c r="G55" s="8"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56">
-      <c r="G56" s="7"/>
+      <c r="G56" s="8"/>
+      <c r="L56" s="8"/>
     </row>
     <row r="57">
-      <c r="G57" s="7"/>
+      <c r="G57" s="8"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58">
-      <c r="G58" s="7"/>
+      <c r="G58" s="8"/>
+      <c r="L58" s="8"/>
     </row>
     <row r="59">
-      <c r="G59" s="7"/>
+      <c r="G59" s="8"/>
+      <c r="L59" s="8"/>
     </row>
     <row r="60">
-      <c r="G60" s="7"/>
+      <c r="G60" s="8"/>
+      <c r="L60" s="8"/>
     </row>
     <row r="61">
-      <c r="G61" s="7"/>
+      <c r="G61" s="8"/>
+      <c r="L61" s="8"/>
     </row>
     <row r="62">
-      <c r="G62" s="7"/>
+      <c r="G62" s="8"/>
+      <c r="L62" s="8"/>
     </row>
     <row r="63">
-      <c r="G63" s="7"/>
+      <c r="G63" s="8"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64">
-      <c r="G64" s="7"/>
+      <c r="G64" s="8"/>
+      <c r="L64" s="8"/>
     </row>
     <row r="65">
-      <c r="G65" s="7"/>
+      <c r="G65" s="8"/>
+      <c r="L65" s="8"/>
     </row>
     <row r="66">
-      <c r="G66" s="7"/>
+      <c r="G66" s="8"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67">
-      <c r="G67" s="7"/>
+      <c r="G67" s="8"/>
+      <c r="L67" s="8"/>
     </row>
     <row r="68">
-      <c r="G68" s="7"/>
+      <c r="G68" s="8"/>
+      <c r="L68" s="8"/>
     </row>
     <row r="69">
-      <c r="G69" s="7"/>
+      <c r="G69" s="8"/>
+      <c r="L69" s="8"/>
     </row>
     <row r="70">
-      <c r="G70" s="7"/>
+      <c r="G70" s="8"/>
+      <c r="L70" s="8"/>
     </row>
     <row r="71">
-      <c r="G71" s="7"/>
+      <c r="G71" s="8"/>
+      <c r="L71" s="8"/>
     </row>
     <row r="72">
-      <c r="G72" s="7"/>
+      <c r="G72" s="8"/>
+      <c r="L72" s="8"/>
     </row>
     <row r="73">
-      <c r="G73" s="7"/>
+      <c r="G73" s="8"/>
+      <c r="L73" s="8"/>
     </row>
     <row r="74">
-      <c r="G74" s="7"/>
+      <c r="G74" s="8"/>
+      <c r="L74" s="8"/>
     </row>
     <row r="75">
-      <c r="G75" s="7"/>
+      <c r="G75" s="8"/>
+      <c r="L75" s="8"/>
     </row>
     <row r="76">
-      <c r="G76" s="7"/>
+      <c r="G76" s="8"/>
+      <c r="L76" s="8"/>
     </row>
     <row r="77">
-      <c r="G77" s="7"/>
+      <c r="G77" s="8"/>
+      <c r="L77" s="8"/>
     </row>
     <row r="78">
-      <c r="G78" s="7"/>
+      <c r="G78" s="8"/>
+      <c r="L78" s="8"/>
     </row>
     <row r="79">
-      <c r="G79" s="7"/>
+      <c r="G79" s="8"/>
+      <c r="L79" s="8"/>
     </row>
     <row r="80">
-      <c r="G80" s="7"/>
+      <c r="G80" s="8"/>
+      <c r="L80" s="8"/>
     </row>
     <row r="81">
-      <c r="G81" s="7"/>
+      <c r="G81" s="8"/>
+      <c r="L81" s="8"/>
     </row>
     <row r="82">
-      <c r="G82" s="7"/>
+      <c r="G82" s="8"/>
+      <c r="L82" s="8"/>
     </row>
     <row r="83">
-      <c r="G83" s="7"/>
+      <c r="G83" s="8"/>
+      <c r="L83" s="8"/>
     </row>
     <row r="84">
-      <c r="G84" s="7"/>
+      <c r="G84" s="8"/>
+      <c r="L84" s="8"/>
     </row>
     <row r="85">
-      <c r="G85" s="7"/>
+      <c r="G85" s="8"/>
+      <c r="L85" s="8"/>
     </row>
     <row r="86">
-      <c r="G86" s="7"/>
+      <c r="G86" s="8"/>
+      <c r="L86" s="8"/>
     </row>
     <row r="87">
-      <c r="G87" s="7"/>
+      <c r="G87" s="8"/>
+      <c r="L87" s="8"/>
     </row>
     <row r="88">
-      <c r="G88" s="7"/>
+      <c r="G88" s="8"/>
+      <c r="L88" s="8"/>
     </row>
     <row r="89">
-      <c r="G89" s="7"/>
+      <c r="G89" s="8"/>
+      <c r="L89" s="8"/>
     </row>
     <row r="90">
-      <c r="G90" s="7"/>
+      <c r="G90" s="8"/>
+      <c r="L90" s="8"/>
     </row>
     <row r="91">
-      <c r="G91" s="7"/>
+      <c r="G91" s="8"/>
+      <c r="L91" s="8"/>
     </row>
     <row r="92">
-      <c r="G92" s="7"/>
+      <c r="G92" s="8"/>
+      <c r="L92" s="8"/>
     </row>
     <row r="93">
-      <c r="G93" s="7"/>
+      <c r="G93" s="8"/>
+      <c r="L93" s="8"/>
     </row>
     <row r="94">
-      <c r="G94" s="7"/>
+      <c r="G94" s="8"/>
+      <c r="L94" s="8"/>
     </row>
     <row r="95">
-      <c r="G95" s="7"/>
+      <c r="G95" s="8"/>
+      <c r="L95" s="8"/>
     </row>
     <row r="96">
-      <c r="G96" s="7"/>
+      <c r="G96" s="8"/>
+      <c r="L96" s="8"/>
     </row>
     <row r="97">
-      <c r="G97" s="7"/>
+      <c r="G97" s="8"/>
+      <c r="L97" s="8"/>
     </row>
     <row r="98">
-      <c r="G98" s="7"/>
+      <c r="G98" s="8"/>
+      <c r="L98" s="8"/>
     </row>
     <row r="99">
-      <c r="G99" s="7"/>
+      <c r="G99" s="8"/>
+      <c r="L99" s="8"/>
     </row>
     <row r="100">
-      <c r="G100" s="7"/>
+      <c r="G100" s="8"/>
+      <c r="L100" s="8"/>
     </row>
     <row r="101">
-      <c r="G101" s="7"/>
+      <c r="G101" s="8"/>
+      <c r="L101" s="8"/>
     </row>
     <row r="102">
-      <c r="G102" s="7"/>
+      <c r="G102" s="8"/>
+      <c r="L102" s="8"/>
     </row>
     <row r="103">
-      <c r="G103" s="7"/>
+      <c r="G103" s="8"/>
+      <c r="L103" s="8"/>
     </row>
     <row r="104">
-      <c r="G104" s="7"/>
+      <c r="G104" s="8"/>
+      <c r="L104" s="8"/>
     </row>
     <row r="105">
-      <c r="G105" s="7"/>
+      <c r="G105" s="8"/>
+      <c r="L105" s="8"/>
     </row>
     <row r="106">
-      <c r="G106" s="7"/>
+      <c r="G106" s="8"/>
+      <c r="L106" s="8"/>
     </row>
     <row r="107">
-      <c r="G107" s="7"/>
+      <c r="G107" s="8"/>
+      <c r="L107" s="8"/>
     </row>
     <row r="108">
-      <c r="G108" s="7"/>
+      <c r="G108" s="8"/>
+      <c r="L108" s="8"/>
     </row>
     <row r="109">
-      <c r="G109" s="7"/>
+      <c r="G109" s="8"/>
+      <c r="L109" s="8"/>
     </row>
     <row r="110">
-      <c r="G110" s="7"/>
+      <c r="G110" s="8"/>
+      <c r="L110" s="8"/>
     </row>
     <row r="111">
-      <c r="G111" s="7"/>
+      <c r="G111" s="8"/>
+      <c r="L111" s="8"/>
     </row>
     <row r="112">
-      <c r="G112" s="7"/>
+      <c r="G112" s="8"/>
+      <c r="L112" s="8"/>
     </row>
     <row r="113">
-      <c r="G113" s="7"/>
+      <c r="G113" s="8"/>
+      <c r="L113" s="8"/>
     </row>
     <row r="114">
-      <c r="G114" s="7"/>
+      <c r="G114" s="8"/>
+      <c r="L114" s="8"/>
     </row>
     <row r="115">
-      <c r="G115" s="7"/>
+      <c r="G115" s="8"/>
+      <c r="L115" s="8"/>
     </row>
     <row r="116">
-      <c r="G116" s="7"/>
+      <c r="G116" s="8"/>
+      <c r="L116" s="8"/>
     </row>
     <row r="117">
-      <c r="G117" s="7"/>
+      <c r="G117" s="8"/>
+      <c r="L117" s="8"/>
     </row>
     <row r="118">
-      <c r="G118" s="7"/>
+      <c r="G118" s="8"/>
+      <c r="L118" s="8"/>
     </row>
     <row r="119">
-      <c r="G119" s="7"/>
+      <c r="G119" s="8"/>
+      <c r="L119" s="8"/>
     </row>
     <row r="120">
-      <c r="G120" s="7"/>
+      <c r="G120" s="8"/>
+      <c r="L120" s="8"/>
     </row>
     <row r="121">
-      <c r="G121" s="7"/>
+      <c r="G121" s="8"/>
+      <c r="L121" s="8"/>
     </row>
     <row r="122">
-      <c r="G122" s="7"/>
+      <c r="G122" s="8"/>
+      <c r="L122" s="8"/>
     </row>
     <row r="123">
-      <c r="G123" s="7"/>
+      <c r="G123" s="8"/>
+      <c r="L123" s="8"/>
     </row>
     <row r="124">
-      <c r="G124" s="7"/>
+      <c r="G124" s="8"/>
+      <c r="L124" s="8"/>
     </row>
     <row r="125">
-      <c r="G125" s="7"/>
+      <c r="G125" s="8"/>
+      <c r="L125" s="8"/>
     </row>
     <row r="126">
-      <c r="G126" s="7"/>
+      <c r="G126" s="8"/>
+      <c r="L126" s="8"/>
     </row>
     <row r="127">
-      <c r="G127" s="7"/>
+      <c r="G127" s="8"/>
+      <c r="L127" s="8"/>
     </row>
     <row r="128">
-      <c r="G128" s="7"/>
+      <c r="G128" s="8"/>
+      <c r="L128" s="8"/>
     </row>
     <row r="129">
-      <c r="G129" s="7"/>
+      <c r="G129" s="8"/>
+      <c r="L129" s="8"/>
     </row>
     <row r="130">
-      <c r="G130" s="7"/>
+      <c r="G130" s="8"/>
+      <c r="L130" s="8"/>
     </row>
     <row r="131">
-      <c r="G131" s="7"/>
+      <c r="G131" s="8"/>
+      <c r="L131" s="8"/>
     </row>
     <row r="132">
-      <c r="G132" s="7"/>
+      <c r="G132" s="8"/>
+      <c r="L132" s="8"/>
     </row>
     <row r="133">
-      <c r="G133" s="7"/>
+      <c r="G133" s="8"/>
+      <c r="L133" s="8"/>
     </row>
     <row r="134">
-      <c r="G134" s="7"/>
+      <c r="G134" s="8"/>
+      <c r="L134" s="8"/>
     </row>
     <row r="135">
-      <c r="G135" s="7"/>
+      <c r="G135" s="8"/>
+      <c r="L135" s="8"/>
     </row>
     <row r="136">
-      <c r="G136" s="7"/>
+      <c r="G136" s="8"/>
+      <c r="L136" s="8"/>
     </row>
     <row r="137">
-      <c r="G137" s="7"/>
+      <c r="G137" s="8"/>
+      <c r="L137" s="8"/>
     </row>
     <row r="138">
-      <c r="G138" s="7"/>
+      <c r="G138" s="8"/>
+      <c r="L138" s="8"/>
     </row>
     <row r="139">
-      <c r="G139" s="7"/>
+      <c r="G139" s="8"/>
+      <c r="L139" s="8"/>
     </row>
     <row r="140">
-      <c r="G140" s="7"/>
+      <c r="G140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row r="141">
-      <c r="G141" s="7"/>
+      <c r="G141" s="8"/>
+      <c r="L141" s="8"/>
     </row>
     <row r="142">
-      <c r="G142" s="7"/>
+      <c r="G142" s="8"/>
+      <c r="L142" s="8"/>
     </row>
     <row r="143">
-      <c r="G143" s="7"/>
+      <c r="G143" s="8"/>
+      <c r="L143" s="8"/>
     </row>
     <row r="144">
-      <c r="G144" s="7"/>
+      <c r="G144" s="8"/>
+      <c r="L144" s="8"/>
     </row>
     <row r="145">
-      <c r="G145" s="7"/>
+      <c r="G145" s="8"/>
+      <c r="L145" s="8"/>
     </row>
     <row r="146">
-      <c r="G146" s="7"/>
+      <c r="G146" s="8"/>
+      <c r="L146" s="8"/>
     </row>
     <row r="147">
-      <c r="G147" s="7"/>
+      <c r="G147" s="8"/>
+      <c r="L147" s="8"/>
     </row>
     <row r="148">
-      <c r="G148" s="7"/>
+      <c r="G148" s="8"/>
+      <c r="L148" s="8"/>
     </row>
     <row r="149">
-      <c r="G149" s="7"/>
+      <c r="G149" s="8"/>
+      <c r="L149" s="8"/>
     </row>
     <row r="150">
-      <c r="G150" s="7"/>
+      <c r="G150" s="8"/>
+      <c r="L150" s="8"/>
     </row>
     <row r="151">
-      <c r="G151" s="7"/>
+      <c r="G151" s="8"/>
+      <c r="L151" s="8"/>
     </row>
     <row r="152">
-      <c r="G152" s="7"/>
+      <c r="G152" s="8"/>
+      <c r="L152" s="8"/>
     </row>
     <row r="153">
-      <c r="G153" s="7"/>
+      <c r="G153" s="8"/>
+      <c r="L153" s="8"/>
     </row>
     <row r="154">
-      <c r="G154" s="7"/>
+      <c r="G154" s="8"/>
+      <c r="L154" s="8"/>
     </row>
     <row r="155">
-      <c r="G155" s="7"/>
+      <c r="G155" s="8"/>
+      <c r="L155" s="8"/>
     </row>
     <row r="156">
-      <c r="G156" s="7"/>
+      <c r="G156" s="8"/>
+      <c r="L156" s="8"/>
     </row>
     <row r="157">
-      <c r="G157" s="7"/>
+      <c r="G157" s="8"/>
+      <c r="L157" s="8"/>
     </row>
     <row r="158">
-      <c r="G158" s="7"/>
+      <c r="G158" s="8"/>
+      <c r="L158" s="8"/>
     </row>
     <row r="159">
-      <c r="G159" s="7"/>
+      <c r="G159" s="8"/>
+      <c r="L159" s="8"/>
     </row>
     <row r="160">
-      <c r="G160" s="7"/>
+      <c r="G160" s="8"/>
+      <c r="L160" s="8"/>
     </row>
     <row r="161">
-      <c r="G161" s="7"/>
+      <c r="G161" s="8"/>
+      <c r="L161" s="8"/>
     </row>
     <row r="162">
-      <c r="G162" s="7"/>
+      <c r="G162" s="8"/>
+      <c r="L162" s="8"/>
     </row>
     <row r="163">
-      <c r="G163" s="7"/>
+      <c r="G163" s="8"/>
+      <c r="L163" s="8"/>
     </row>
     <row r="164">
-      <c r="G164" s="7"/>
+      <c r="G164" s="8"/>
+      <c r="L164" s="8"/>
     </row>
     <row r="165">
-      <c r="G165" s="7"/>
+      <c r="G165" s="8"/>
+      <c r="L165" s="8"/>
     </row>
     <row r="166">
-      <c r="G166" s="7"/>
+      <c r="G166" s="8"/>
+      <c r="L166" s="8"/>
     </row>
     <row r="167">
-      <c r="G167" s="7"/>
+      <c r="G167" s="8"/>
+      <c r="L167" s="8"/>
     </row>
     <row r="168">
-      <c r="G168" s="7"/>
+      <c r="G168" s="8"/>
+      <c r="L168" s="8"/>
     </row>
     <row r="169">
-      <c r="G169" s="7"/>
+      <c r="G169" s="8"/>
+      <c r="L169" s="8"/>
     </row>
     <row r="170">
-      <c r="G170" s="7"/>
+      <c r="G170" s="8"/>
+      <c r="L170" s="8"/>
     </row>
     <row r="171">
-      <c r="G171" s="7"/>
+      <c r="G171" s="8"/>
+      <c r="L171" s="8"/>
     </row>
     <row r="172">
-      <c r="G172" s="7"/>
+      <c r="G172" s="8"/>
+      <c r="L172" s="8"/>
     </row>
     <row r="173">
-      <c r="G173" s="7"/>
+      <c r="G173" s="8"/>
+      <c r="L173" s="8"/>
     </row>
     <row r="174">
-      <c r="G174" s="7"/>
+      <c r="G174" s="8"/>
+      <c r="L174" s="8"/>
     </row>
     <row r="175">
-      <c r="G175" s="7"/>
+      <c r="G175" s="8"/>
+      <c r="L175" s="8"/>
     </row>
     <row r="176">
-      <c r="G176" s="7"/>
+      <c r="G176" s="8"/>
+      <c r="L176" s="8"/>
     </row>
     <row r="177">
-      <c r="G177" s="7"/>
+      <c r="G177" s="8"/>
+      <c r="L177" s="8"/>
     </row>
     <row r="178">
-      <c r="G178" s="7"/>
+      <c r="G178" s="8"/>
+      <c r="L178" s="8"/>
     </row>
     <row r="179">
-      <c r="G179" s="7"/>
+      <c r="G179" s="8"/>
+      <c r="L179" s="8"/>
     </row>
     <row r="180">
-      <c r="G180" s="7"/>
+      <c r="G180" s="8"/>
+      <c r="L180" s="8"/>
     </row>
     <row r="181">
-      <c r="G181" s="7"/>
+      <c r="G181" s="8"/>
+      <c r="L181" s="8"/>
     </row>
     <row r="182">
-      <c r="G182" s="7"/>
+      <c r="G182" s="8"/>
+      <c r="L182" s="8"/>
     </row>
     <row r="183">
-      <c r="G183" s="7"/>
+      <c r="G183" s="8"/>
+      <c r="L183" s="8"/>
     </row>
     <row r="184">
-      <c r="G184" s="7"/>
+      <c r="G184" s="8"/>
+      <c r="L184" s="8"/>
     </row>
     <row r="185">
-      <c r="G185" s="7"/>
+      <c r="G185" s="8"/>
+      <c r="L185" s="8"/>
     </row>
     <row r="186">
-      <c r="G186" s="7"/>
+      <c r="G186" s="8"/>
+      <c r="L186" s="8"/>
     </row>
     <row r="187">
-      <c r="G187" s="7"/>
+      <c r="G187" s="8"/>
+      <c r="L187" s="8"/>
     </row>
     <row r="188">
-      <c r="G188" s="7"/>
+      <c r="G188" s="8"/>
+      <c r="L188" s="8"/>
     </row>
     <row r="189">
-      <c r="G189" s="7"/>
+      <c r="G189" s="8"/>
+      <c r="L189" s="8"/>
     </row>
     <row r="190">
-      <c r="G190" s="7"/>
+      <c r="G190" s="8"/>
+      <c r="L190" s="8"/>
     </row>
     <row r="191">
-      <c r="G191" s="7"/>
+      <c r="G191" s="8"/>
+      <c r="L191" s="8"/>
     </row>
     <row r="192">
-      <c r="G192" s="7"/>
+      <c r="G192" s="8"/>
+      <c r="L192" s="8"/>
     </row>
     <row r="193">
-      <c r="G193" s="7"/>
+      <c r="G193" s="8"/>
+      <c r="L193" s="8"/>
     </row>
     <row r="194">
-      <c r="G194" s="7"/>
+      <c r="G194" s="8"/>
+      <c r="L194" s="8"/>
     </row>
     <row r="195">
-      <c r="G195" s="7"/>
+      <c r="G195" s="8"/>
+      <c r="L195" s="8"/>
     </row>
     <row r="196">
-      <c r="G196" s="7"/>
+      <c r="G196" s="8"/>
+      <c r="L196" s="8"/>
     </row>
     <row r="197">
-      <c r="G197" s="7"/>
+      <c r="G197" s="8"/>
+      <c r="L197" s="8"/>
     </row>
     <row r="198">
-      <c r="G198" s="7"/>
+      <c r="G198" s="8"/>
+      <c r="L198" s="8"/>
     </row>
     <row r="199">
-      <c r="G199" s="7"/>
+      <c r="G199" s="8"/>
+      <c r="L199" s="8"/>
     </row>
     <row r="200">
-      <c r="G200" s="7"/>
+      <c r="G200" s="8"/>
+      <c r="L200" s="8"/>
     </row>
     <row r="201">
-      <c r="G201" s="7"/>
+      <c r="G201" s="8"/>
+      <c r="L201" s="8"/>
     </row>
     <row r="202">
-      <c r="G202" s="7"/>
+      <c r="G202" s="8"/>
+      <c r="L202" s="8"/>
     </row>
     <row r="203">
-      <c r="G203" s="7"/>
+      <c r="G203" s="8"/>
+      <c r="L203" s="8"/>
     </row>
     <row r="204">
-      <c r="G204" s="7"/>
+      <c r="G204" s="8"/>
+      <c r="L204" s="8"/>
     </row>
     <row r="205">
-      <c r="G205" s="7"/>
+      <c r="G205" s="8"/>
+      <c r="L205" s="8"/>
     </row>
     <row r="206">
-      <c r="G206" s="7"/>
+      <c r="G206" s="8"/>
+      <c r="L206" s="8"/>
     </row>
     <row r="207">
-      <c r="G207" s="7"/>
+      <c r="G207" s="8"/>
+      <c r="L207" s="8"/>
     </row>
     <row r="208">
-      <c r="G208" s="7"/>
+      <c r="G208" s="8"/>
+      <c r="L208" s="8"/>
     </row>
     <row r="209">
-      <c r="G209" s="7"/>
+      <c r="G209" s="8"/>
+      <c r="L209" s="8"/>
     </row>
     <row r="210">
-      <c r="G210" s="7"/>
+      <c r="G210" s="8"/>
+      <c r="L210" s="8"/>
     </row>
     <row r="211">
-      <c r="G211" s="7"/>
+      <c r="G211" s="8"/>
+      <c r="L211" s="8"/>
     </row>
     <row r="212">
-      <c r="G212" s="7"/>
+      <c r="G212" s="8"/>
+      <c r="L212" s="8"/>
     </row>
     <row r="213">
-      <c r="G213" s="7"/>
+      <c r="G213" s="8"/>
+      <c r="L213" s="8"/>
     </row>
     <row r="214">
-      <c r="G214" s="7"/>
+      <c r="G214" s="8"/>
+      <c r="L214" s="8"/>
     </row>
     <row r="215">
-      <c r="G215" s="7"/>
+      <c r="G215" s="8"/>
+      <c r="L215" s="8"/>
     </row>
     <row r="216">
-      <c r="G216" s="7"/>
+      <c r="G216" s="8"/>
+      <c r="L216" s="8"/>
     </row>
     <row r="217">
-      <c r="G217" s="7"/>
+      <c r="G217" s="8"/>
+      <c r="L217" s="8"/>
     </row>
     <row r="218">
-      <c r="G218" s="7"/>
+      <c r="G218" s="8"/>
+      <c r="L218" s="8"/>
     </row>
     <row r="219">
-      <c r="G219" s="7"/>
+      <c r="G219" s="8"/>
+      <c r="L219" s="8"/>
     </row>
     <row r="220">
-      <c r="G220" s="7"/>
+      <c r="G220" s="8"/>
+      <c r="L220" s="8"/>
     </row>
     <row r="221">
-      <c r="G221" s="7"/>
+      <c r="G221" s="8"/>
+      <c r="L221" s="8"/>
     </row>
     <row r="222">
-      <c r="G222" s="7"/>
+      <c r="G222" s="8"/>
+      <c r="L222" s="8"/>
     </row>
     <row r="223">
-      <c r="G223" s="7"/>
+      <c r="G223" s="8"/>
+      <c r="L223" s="8"/>
     </row>
     <row r="224">
-      <c r="G224" s="7"/>
+      <c r="G224" s="8"/>
+      <c r="L224" s="8"/>
     </row>
     <row r="225">
-      <c r="G225" s="7"/>
+      <c r="G225" s="8"/>
+      <c r="L225" s="8"/>
     </row>
     <row r="226">
-      <c r="G226" s="7"/>
+      <c r="G226" s="8"/>
+      <c r="L226" s="8"/>
     </row>
     <row r="227">
-      <c r="G227" s="7"/>
+      <c r="G227" s="8"/>
+      <c r="L227" s="8"/>
     </row>
     <row r="228">
-      <c r="G228" s="7"/>
+      <c r="G228" s="8"/>
+      <c r="L228" s="8"/>
     </row>
     <row r="229">
-      <c r="G229" s="7"/>
+      <c r="G229" s="8"/>
+      <c r="L229" s="8"/>
     </row>
     <row r="230">
-      <c r="G230" s="7"/>
+      <c r="G230" s="8"/>
+      <c r="L230" s="8"/>
     </row>
     <row r="231">
-      <c r="G231" s="7"/>
+      <c r="G231" s="8"/>
+      <c r="L231" s="8"/>
     </row>
     <row r="232">
-      <c r="G232" s="7"/>
+      <c r="G232" s="8"/>
+      <c r="L232" s="8"/>
     </row>
     <row r="233">
-      <c r="G233" s="7"/>
+      <c r="G233" s="8"/>
+      <c r="L233" s="8"/>
     </row>
     <row r="234">
-      <c r="G234" s="7"/>
+      <c r="G234" s="8"/>
+      <c r="L234" s="8"/>
     </row>
     <row r="235">
-      <c r="G235" s="7"/>
+      <c r="G235" s="8"/>
+      <c r="L235" s="8"/>
     </row>
     <row r="236">
-      <c r="G236" s="7"/>
+      <c r="G236" s="8"/>
+      <c r="L236" s="8"/>
     </row>
     <row r="237">
-      <c r="G237" s="7"/>
+      <c r="G237" s="8"/>
+      <c r="L237" s="8"/>
     </row>
     <row r="238">
-      <c r="G238" s="7"/>
+      <c r="G238" s="8"/>
+      <c r="L238" s="8"/>
     </row>
     <row r="239">
-      <c r="G239" s="7"/>
+      <c r="G239" s="8"/>
+      <c r="L239" s="8"/>
     </row>
     <row r="240">
-      <c r="G240" s="7"/>
+      <c r="G240" s="8"/>
+      <c r="L240" s="8"/>
     </row>
     <row r="241">
-      <c r="G241" s="7"/>
+      <c r="G241" s="8"/>
+      <c r="L241" s="8"/>
     </row>
     <row r="242">
-      <c r="G242" s="7"/>
+      <c r="G242" s="8"/>
+      <c r="L242" s="8"/>
     </row>
     <row r="243">
-      <c r="G243" s="7"/>
+      <c r="G243" s="8"/>
+      <c r="L243" s="8"/>
     </row>
     <row r="244">
-      <c r="G244" s="7"/>
+      <c r="G244" s="8"/>
+      <c r="L244" s="8"/>
     </row>
     <row r="245">
-      <c r="G245" s="7"/>
+      <c r="G245" s="8"/>
+      <c r="L245" s="8"/>
     </row>
     <row r="246">
-      <c r="G246" s="7"/>
+      <c r="G246" s="8"/>
+      <c r="L246" s="8"/>
     </row>
     <row r="247">
-      <c r="G247" s="7"/>
+      <c r="G247" s="8"/>
+      <c r="L247" s="8"/>
     </row>
     <row r="248">
-      <c r="G248" s="7"/>
+      <c r="G248" s="8"/>
+      <c r="L248" s="8"/>
     </row>
     <row r="249">
-      <c r="G249" s="7"/>
+      <c r="G249" s="8"/>
+      <c r="L249" s="8"/>
     </row>
     <row r="250">
-      <c r="G250" s="7"/>
+      <c r="G250" s="8"/>
+      <c r="L250" s="8"/>
     </row>
     <row r="251">
-      <c r="G251" s="7"/>
+      <c r="G251" s="8"/>
+      <c r="L251" s="8"/>
     </row>
     <row r="252">
-      <c r="G252" s="7"/>
+      <c r="G252" s="8"/>
+      <c r="L252" s="8"/>
     </row>
     <row r="253">
-      <c r="G253" s="7"/>
+      <c r="G253" s="8"/>
+      <c r="L253" s="8"/>
     </row>
     <row r="254">
-      <c r="G254" s="7"/>
+      <c r="G254" s="8"/>
+      <c r="L254" s="8"/>
     </row>
     <row r="255">
-      <c r="G255" s="7"/>
+      <c r="G255" s="8"/>
+      <c r="L255" s="8"/>
     </row>
     <row r="256">
-      <c r="G256" s="7"/>
+      <c r="G256" s="8"/>
+      <c r="L256" s="8"/>
     </row>
     <row r="257">
-      <c r="G257" s="7"/>
+      <c r="G257" s="8"/>
+      <c r="L257" s="8"/>
     </row>
     <row r="258">
-      <c r="G258" s="7"/>
+      <c r="G258" s="8"/>
+      <c r="L258" s="8"/>
     </row>
     <row r="259">
-      <c r="G259" s="7"/>
+      <c r="G259" s="8"/>
+      <c r="L259" s="8"/>
     </row>
     <row r="260">
-      <c r="G260" s="7"/>
+      <c r="G260" s="8"/>
+      <c r="L260" s="8"/>
     </row>
     <row r="261">
-      <c r="G261" s="7"/>
+      <c r="G261" s="8"/>
+      <c r="L261" s="8"/>
     </row>
     <row r="262">
-      <c r="G262" s="7"/>
+      <c r="G262" s="8"/>
+      <c r="L262" s="8"/>
     </row>
     <row r="263">
-      <c r="G263" s="7"/>
+      <c r="G263" s="8"/>
+      <c r="L263" s="8"/>
     </row>
     <row r="264">
-      <c r="G264" s="7"/>
+      <c r="G264" s="8"/>
+      <c r="L264" s="8"/>
     </row>
     <row r="265">
-      <c r="G265" s="7"/>
+      <c r="G265" s="8"/>
+      <c r="L265" s="8"/>
     </row>
     <row r="266">
-      <c r="G266" s="7"/>
+      <c r="G266" s="8"/>
+      <c r="L266" s="8"/>
     </row>
     <row r="267">
-      <c r="G267" s="7"/>
+      <c r="G267" s="8"/>
+      <c r="L267" s="8"/>
     </row>
     <row r="268">
-      <c r="G268" s="7"/>
+      <c r="G268" s="8"/>
+      <c r="L268" s="8"/>
     </row>
     <row r="269">
-      <c r="G269" s="7"/>
+      <c r="G269" s="8"/>
+      <c r="L269" s="8"/>
     </row>
     <row r="270">
-      <c r="G270" s="7"/>
+      <c r="G270" s="8"/>
+      <c r="L270" s="8"/>
     </row>
     <row r="271">
-      <c r="G271" s="7"/>
+      <c r="G271" s="8"/>
+      <c r="L271" s="8"/>
     </row>
     <row r="272">
-      <c r="G272" s="7"/>
+      <c r="G272" s="8"/>
+      <c r="L272" s="8"/>
     </row>
     <row r="273">
-      <c r="G273" s="7"/>
+      <c r="G273" s="8"/>
+      <c r="L273" s="8"/>
     </row>
     <row r="274">
-      <c r="G274" s="7"/>
+      <c r="G274" s="8"/>
+      <c r="L274" s="8"/>
     </row>
     <row r="275">
-      <c r="G275" s="7"/>
+      <c r="G275" s="8"/>
+      <c r="L275" s="8"/>
     </row>
     <row r="276">
-      <c r="G276" s="7"/>
+      <c r="G276" s="8"/>
+      <c r="L276" s="8"/>
     </row>
     <row r="277">
-      <c r="G277" s="7"/>
+      <c r="G277" s="8"/>
+      <c r="L277" s="8"/>
     </row>
     <row r="278">
-      <c r="G278" s="7"/>
+      <c r="G278" s="8"/>
+      <c r="L278" s="8"/>
     </row>
     <row r="279">
-      <c r="G279" s="7"/>
+      <c r="G279" s="8"/>
+      <c r="L279" s="8"/>
     </row>
     <row r="280">
-      <c r="G280" s="7"/>
+      <c r="G280" s="8"/>
+      <c r="L280" s="8"/>
     </row>
     <row r="281">
-      <c r="G281" s="7"/>
+      <c r="G281" s="8"/>
+      <c r="L281" s="8"/>
     </row>
     <row r="282">
-      <c r="G282" s="7"/>
+      <c r="G282" s="8"/>
+      <c r="L282" s="8"/>
     </row>
     <row r="283">
-      <c r="G283" s="7"/>
+      <c r="G283" s="8"/>
+      <c r="L283" s="8"/>
     </row>
     <row r="284">
-      <c r="G284" s="7"/>
+      <c r="G284" s="8"/>
+      <c r="L284" s="8"/>
     </row>
     <row r="285">
-      <c r="G285" s="7"/>
+      <c r="G285" s="8"/>
+      <c r="L285" s="8"/>
     </row>
     <row r="286">
-      <c r="G286" s="7"/>
+      <c r="G286" s="8"/>
+      <c r="L286" s="8"/>
     </row>
     <row r="287">
-      <c r="G287" s="7"/>
+      <c r="G287" s="8"/>
+      <c r="L287" s="8"/>
     </row>
     <row r="288">
-      <c r="G288" s="7"/>
+      <c r="G288" s="8"/>
+      <c r="L288" s="8"/>
     </row>
     <row r="289">
-      <c r="G289" s="7"/>
+      <c r="G289" s="8"/>
+      <c r="L289" s="8"/>
     </row>
     <row r="290">
-      <c r="G290" s="7"/>
+      <c r="G290" s="8"/>
+      <c r="L290" s="8"/>
     </row>
     <row r="291">
-      <c r="G291" s="7"/>
+      <c r="G291" s="8"/>
+      <c r="L291" s="8"/>
     </row>
     <row r="292">
-      <c r="G292" s="7"/>
+      <c r="G292" s="8"/>
+      <c r="L292" s="8"/>
     </row>
     <row r="293">
-      <c r="G293" s="7"/>
+      <c r="G293" s="8"/>
+      <c r="L293" s="8"/>
     </row>
     <row r="294">
-      <c r="G294" s="7"/>
+      <c r="G294" s="8"/>
+      <c r="L294" s="8"/>
     </row>
     <row r="295">
-      <c r="G295" s="7"/>
+      <c r="G295" s="8"/>
+      <c r="L295" s="8"/>
     </row>
     <row r="296">
-      <c r="G296" s="7"/>
+      <c r="G296" s="8"/>
+      <c r="L296" s="8"/>
     </row>
     <row r="297">
-      <c r="G297" s="7"/>
+      <c r="G297" s="8"/>
+      <c r="L297" s="8"/>
     </row>
     <row r="298">
-      <c r="G298" s="7"/>
+      <c r="G298" s="8"/>
+      <c r="L298" s="8"/>
     </row>
     <row r="299">
-      <c r="G299" s="7"/>
+      <c r="G299" s="8"/>
+      <c r="L299" s="8"/>
     </row>
     <row r="300">
-      <c r="G300" s="7"/>
+      <c r="G300" s="8"/>
+      <c r="L300" s="8"/>
     </row>
     <row r="301">
-      <c r="G301" s="7"/>
+      <c r="G301" s="8"/>
+      <c r="L301" s="8"/>
     </row>
     <row r="302">
-      <c r="G302" s="7"/>
+      <c r="G302" s="8"/>
+      <c r="L302" s="8"/>
     </row>
     <row r="303">
-      <c r="G303" s="7"/>
+      <c r="G303" s="8"/>
+      <c r="L303" s="8"/>
     </row>
     <row r="304">
-      <c r="G304" s="7"/>
+      <c r="G304" s="8"/>
+      <c r="L304" s="8"/>
     </row>
     <row r="305">
-      <c r="G305" s="7"/>
+      <c r="G305" s="8"/>
+      <c r="L305" s="8"/>
     </row>
     <row r="306">
-      <c r="G306" s="7"/>
+      <c r="G306" s="8"/>
+      <c r="L306" s="8"/>
     </row>
     <row r="307">
-      <c r="G307" s="7"/>
+      <c r="G307" s="8"/>
+      <c r="L307" s="8"/>
     </row>
     <row r="308">
-      <c r="G308" s="7"/>
+      <c r="G308" s="8"/>
+      <c r="L308" s="8"/>
     </row>
     <row r="309">
-      <c r="G309" s="7"/>
+      <c r="G309" s="8"/>
+      <c r="L309" s="8"/>
     </row>
     <row r="310">
-      <c r="G310" s="7"/>
+      <c r="G310" s="8"/>
+      <c r="L310" s="8"/>
     </row>
     <row r="311">
-      <c r="G311" s="7"/>
+      <c r="G311" s="8"/>
+      <c r="L311" s="8"/>
     </row>
     <row r="312">
-      <c r="G312" s="7"/>
+      <c r="G312" s="8"/>
+      <c r="L312" s="8"/>
     </row>
     <row r="313">
-      <c r="G313" s="7"/>
+      <c r="G313" s="8"/>
+      <c r="L313" s="8"/>
     </row>
     <row r="314">
-      <c r="G314" s="7"/>
+      <c r="G314" s="8"/>
+      <c r="L314" s="8"/>
     </row>
     <row r="315">
-      <c r="G315" s="7"/>
+      <c r="G315" s="8"/>
+      <c r="L315" s="8"/>
     </row>
     <row r="316">
-      <c r="G316" s="7"/>
+      <c r="G316" s="8"/>
+      <c r="L316" s="8"/>
     </row>
     <row r="317">
-      <c r="G317" s="7"/>
+      <c r="G317" s="8"/>
+      <c r="L317" s="8"/>
     </row>
     <row r="318">
-      <c r="G318" s="7"/>
+      <c r="G318" s="8"/>
+      <c r="L318" s="8"/>
     </row>
     <row r="319">
-      <c r="G319" s="7"/>
+      <c r="G319" s="8"/>
+      <c r="L319" s="8"/>
     </row>
     <row r="320">
-      <c r="G320" s="7"/>
+      <c r="G320" s="8"/>
+      <c r="L320" s="8"/>
     </row>
     <row r="321">
-      <c r="G321" s="7"/>
+      <c r="G321" s="8"/>
+      <c r="L321" s="8"/>
     </row>
     <row r="322">
-      <c r="G322" s="7"/>
+      <c r="G322" s="8"/>
+      <c r="L322" s="8"/>
     </row>
     <row r="323">
-      <c r="G323" s="7"/>
+      <c r="G323" s="8"/>
+      <c r="L323" s="8"/>
     </row>
     <row r="324">
-      <c r="G324" s="7"/>
+      <c r="G324" s="8"/>
+      <c r="L324" s="8"/>
     </row>
     <row r="325">
-      <c r="G325" s="7"/>
+      <c r="G325" s="8"/>
+      <c r="L325" s="8"/>
     </row>
     <row r="326">
-      <c r="G326" s="7"/>
+      <c r="G326" s="8"/>
+      <c r="L326" s="8"/>
     </row>
     <row r="327">
-      <c r="G327" s="7"/>
+      <c r="G327" s="8"/>
+      <c r="L327" s="8"/>
     </row>
     <row r="328">
-      <c r="G328" s="7"/>
+      <c r="G328" s="8"/>
+      <c r="L328" s="8"/>
     </row>
     <row r="329">
-      <c r="G329" s="7"/>
+      <c r="G329" s="8"/>
+      <c r="L329" s="8"/>
     </row>
     <row r="330">
-      <c r="G330" s="7"/>
+      <c r="G330" s="8"/>
+      <c r="L330" s="8"/>
     </row>
     <row r="331">
-      <c r="G331" s="7"/>
+      <c r="G331" s="8"/>
+      <c r="L331" s="8"/>
     </row>
     <row r="332">
-      <c r="G332" s="7"/>
+      <c r="G332" s="8"/>
+      <c r="L332" s="8"/>
     </row>
     <row r="333">
-      <c r="G333" s="7"/>
+      <c r="G333" s="8"/>
+      <c r="L333" s="8"/>
     </row>
     <row r="334">
-      <c r="G334" s="7"/>
+      <c r="G334" s="8"/>
+      <c r="L334" s="8"/>
     </row>
     <row r="335">
-      <c r="G335" s="7"/>
+      <c r="G335" s="8"/>
+      <c r="L335" s="8"/>
     </row>
     <row r="336">
-      <c r="G336" s="7"/>
+      <c r="G336" s="8"/>
+      <c r="L336" s="8"/>
     </row>
     <row r="337">
-      <c r="G337" s="7"/>
+      <c r="G337" s="8"/>
+      <c r="L337" s="8"/>
     </row>
     <row r="338">
-      <c r="G338" s="7"/>
+      <c r="G338" s="8"/>
+      <c r="L338" s="8"/>
     </row>
     <row r="339">
-      <c r="G339" s="7"/>
+      <c r="G339" s="8"/>
+      <c r="L339" s="8"/>
     </row>
     <row r="340">
-      <c r="G340" s="7"/>
+      <c r="G340" s="8"/>
+      <c r="L340" s="8"/>
     </row>
     <row r="341">
-      <c r="G341" s="7"/>
+      <c r="G341" s="8"/>
+      <c r="L341" s="8"/>
     </row>
     <row r="342">
-      <c r="G342" s="7"/>
+      <c r="G342" s="8"/>
+      <c r="L342" s="8"/>
     </row>
     <row r="343">
-      <c r="G343" s="7"/>
+      <c r="G343" s="8"/>
+      <c r="L343" s="8"/>
     </row>
     <row r="344">
-      <c r="G344" s="7"/>
+      <c r="G344" s="8"/>
+      <c r="L344" s="8"/>
     </row>
     <row r="345">
-      <c r="G345" s="7"/>
+      <c r="G345" s="8"/>
+      <c r="L345" s="8"/>
     </row>
     <row r="346">
-      <c r="G346" s="7"/>
+      <c r="G346" s="8"/>
+      <c r="L346" s="8"/>
     </row>
     <row r="347">
-      <c r="G347" s="7"/>
+      <c r="G347" s="8"/>
+      <c r="L347" s="8"/>
     </row>
     <row r="348">
-      <c r="G348" s="7"/>
+      <c r="G348" s="8"/>
+      <c r="L348" s="8"/>
     </row>
     <row r="349">
-      <c r="G349" s="7"/>
+      <c r="G349" s="8"/>
+      <c r="L349" s="8"/>
     </row>
     <row r="350">
-      <c r="G350" s="7"/>
+      <c r="G350" s="8"/>
+      <c r="L350" s="8"/>
     </row>
     <row r="351">
-      <c r="G351" s="7"/>
+      <c r="G351" s="8"/>
+      <c r="L351" s="8"/>
     </row>
     <row r="352">
-      <c r="G352" s="7"/>
+      <c r="G352" s="8"/>
+      <c r="L352" s="8"/>
     </row>
     <row r="353">
-      <c r="G353" s="7"/>
+      <c r="G353" s="8"/>
+      <c r="L353" s="8"/>
     </row>
     <row r="354">
-      <c r="G354" s="7"/>
+      <c r="G354" s="8"/>
+      <c r="L354" s="8"/>
     </row>
     <row r="355">
-      <c r="G355" s="7"/>
+      <c r="G355" s="8"/>
+      <c r="L355" s="8"/>
     </row>
     <row r="356">
-      <c r="G356" s="7"/>
+      <c r="G356" s="8"/>
+      <c r="L356" s="8"/>
     </row>
     <row r="357">
-      <c r="G357" s="7"/>
+      <c r="G357" s="8"/>
+      <c r="L357" s="8"/>
     </row>
     <row r="358">
-      <c r="G358" s="7"/>
+      <c r="G358" s="8"/>
+      <c r="L358" s="8"/>
     </row>
     <row r="359">
-      <c r="G359" s="7"/>
+      <c r="G359" s="8"/>
+      <c r="L359" s="8"/>
     </row>
     <row r="360">
-      <c r="G360" s="7"/>
+      <c r="G360" s="8"/>
+      <c r="L360" s="8"/>
     </row>
     <row r="361">
-      <c r="G361" s="7"/>
+      <c r="G361" s="8"/>
+      <c r="L361" s="8"/>
     </row>
     <row r="362">
-      <c r="G362" s="7"/>
+      <c r="G362" s="8"/>
+      <c r="L362" s="8"/>
     </row>
     <row r="363">
-      <c r="G363" s="7"/>
+      <c r="G363" s="8"/>
+      <c r="L363" s="8"/>
     </row>
     <row r="364">
-      <c r="G364" s="7"/>
+      <c r="G364" s="8"/>
+      <c r="L364" s="8"/>
     </row>
     <row r="365">
-      <c r="G365" s="7"/>
+      <c r="G365" s="8"/>
+      <c r="L365" s="8"/>
     </row>
     <row r="366">
-      <c r="G366" s="7"/>
+      <c r="G366" s="8"/>
+      <c r="L366" s="8"/>
     </row>
     <row r="367">
-      <c r="G367" s="7"/>
+      <c r="G367" s="8"/>
+      <c r="L367" s="8"/>
     </row>
     <row r="368">
-      <c r="G368" s="7"/>
+      <c r="G368" s="8"/>
+      <c r="L368" s="8"/>
     </row>
     <row r="369">
-      <c r="G369" s="7"/>
+      <c r="G369" s="8"/>
+      <c r="L369" s="8"/>
     </row>
     <row r="370">
-      <c r="G370" s="7"/>
+      <c r="G370" s="8"/>
+      <c r="L370" s="8"/>
     </row>
     <row r="371">
-      <c r="G371" s="7"/>
+      <c r="G371" s="8"/>
+      <c r="L371" s="8"/>
     </row>
     <row r="372">
-      <c r="G372" s="7"/>
+      <c r="G372" s="8"/>
+      <c r="L372" s="8"/>
     </row>
     <row r="373">
-      <c r="G373" s="7"/>
+      <c r="G373" s="8"/>
+      <c r="L373" s="8"/>
     </row>
     <row r="374">
-      <c r="G374" s="7"/>
+      <c r="G374" s="8"/>
+      <c r="L374" s="8"/>
     </row>
     <row r="375">
-      <c r="G375" s="7"/>
+      <c r="G375" s="8"/>
+      <c r="L375" s="8"/>
     </row>
     <row r="376">
-      <c r="G376" s="7"/>
+      <c r="G376" s="8"/>
+      <c r="L376" s="8"/>
     </row>
     <row r="377">
-      <c r="G377" s="7"/>
+      <c r="G377" s="8"/>
+      <c r="L377" s="8"/>
     </row>
     <row r="378">
-      <c r="G378" s="7"/>
+      <c r="G378" s="8"/>
+      <c r="L378" s="8"/>
     </row>
     <row r="379">
-      <c r="G379" s="7"/>
+      <c r="G379" s="8"/>
+      <c r="L379" s="8"/>
     </row>
     <row r="380">
-      <c r="G380" s="7"/>
+      <c r="G380" s="8"/>
+      <c r="L380" s="8"/>
     </row>
     <row r="381">
-      <c r="G381" s="7"/>
+      <c r="G381" s="8"/>
+      <c r="L381" s="8"/>
     </row>
     <row r="382">
-      <c r="G382" s="7"/>
+      <c r="G382" s="8"/>
+      <c r="L382" s="8"/>
     </row>
     <row r="383">
-      <c r="G383" s="7"/>
+      <c r="G383" s="8"/>
+      <c r="L383" s="8"/>
     </row>
     <row r="384">
-      <c r="G384" s="7"/>
+      <c r="G384" s="8"/>
+      <c r="L384" s="8"/>
     </row>
     <row r="385">
-      <c r="G385" s="7"/>
+      <c r="G385" s="8"/>
+      <c r="L385" s="8"/>
     </row>
     <row r="386">
-      <c r="G386" s="7"/>
+      <c r="G386" s="8"/>
+      <c r="L386" s="8"/>
     </row>
     <row r="387">
-      <c r="G387" s="7"/>
+      <c r="G387" s="8"/>
+      <c r="L387" s="8"/>
     </row>
     <row r="388">
-      <c r="G388" s="7"/>
+      <c r="G388" s="8"/>
+      <c r="L388" s="8"/>
     </row>
     <row r="389">
-      <c r="G389" s="7"/>
+      <c r="G389" s="8"/>
+      <c r="L389" s="8"/>
     </row>
     <row r="390">
-      <c r="G390" s="7"/>
+      <c r="G390" s="8"/>
+      <c r="L390" s="8"/>
     </row>
     <row r="391">
-      <c r="G391" s="7"/>
+      <c r="G391" s="8"/>
+      <c r="L391" s="8"/>
     </row>
     <row r="392">
-      <c r="G392" s="7"/>
+      <c r="G392" s="8"/>
+      <c r="L392" s="8"/>
     </row>
     <row r="393">
-      <c r="G393" s="7"/>
+      <c r="G393" s="8"/>
+      <c r="L393" s="8"/>
     </row>
     <row r="394">
-      <c r="G394" s="7"/>
+      <c r="G394" s="8"/>
+      <c r="L394" s="8"/>
     </row>
     <row r="395">
-      <c r="G395" s="7"/>
+      <c r="G395" s="8"/>
+      <c r="L395" s="8"/>
     </row>
     <row r="396">
-      <c r="G396" s="7"/>
+      <c r="G396" s="8"/>
+      <c r="L396" s="8"/>
     </row>
     <row r="397">
-      <c r="G397" s="7"/>
+      <c r="G397" s="8"/>
+      <c r="L397" s="8"/>
     </row>
     <row r="398">
-      <c r="G398" s="7"/>
+      <c r="G398" s="8"/>
+      <c r="L398" s="8"/>
     </row>
     <row r="399">
-      <c r="G399" s="7"/>
+      <c r="G399" s="8"/>
+      <c r="L399" s="8"/>
     </row>
     <row r="400">
-      <c r="G400" s="7"/>
+      <c r="G400" s="8"/>
+      <c r="L400" s="8"/>
     </row>
     <row r="401">
-      <c r="G401" s="7"/>
+      <c r="G401" s="8"/>
+      <c r="L401" s="8"/>
     </row>
     <row r="402">
-      <c r="G402" s="7"/>
+      <c r="G402" s="8"/>
+      <c r="L402" s="8"/>
     </row>
     <row r="403">
-      <c r="G403" s="7"/>
+      <c r="G403" s="8"/>
+      <c r="L403" s="8"/>
     </row>
     <row r="404">
-      <c r="G404" s="7"/>
+      <c r="G404" s="8"/>
+      <c r="L404" s="8"/>
     </row>
     <row r="405">
-      <c r="G405" s="7"/>
+      <c r="G405" s="8"/>
+      <c r="L405" s="8"/>
     </row>
     <row r="406">
-      <c r="G406" s="7"/>
+      <c r="G406" s="8"/>
+      <c r="L406" s="8"/>
     </row>
     <row r="407">
-      <c r="G407" s="7"/>
+      <c r="G407" s="8"/>
+      <c r="L407" s="8"/>
     </row>
     <row r="408">
-      <c r="G408" s="7"/>
+      <c r="G408" s="8"/>
+      <c r="L408" s="8"/>
     </row>
     <row r="409">
-      <c r="G409" s="7"/>
+      <c r="G409" s="8"/>
+      <c r="L409" s="8"/>
     </row>
     <row r="410">
-      <c r="G410" s="7"/>
+      <c r="G410" s="8"/>
+      <c r="L410" s="8"/>
     </row>
     <row r="411">
-      <c r="G411" s="7"/>
+      <c r="G411" s="8"/>
+      <c r="L411" s="8"/>
     </row>
     <row r="412">
-      <c r="G412" s="7"/>
+      <c r="G412" s="8"/>
+      <c r="L412" s="8"/>
     </row>
     <row r="413">
-      <c r="G413" s="7"/>
+      <c r="G413" s="8"/>
+      <c r="L413" s="8"/>
     </row>
     <row r="414">
-      <c r="G414" s="7"/>
+      <c r="G414" s="8"/>
+      <c r="L414" s="8"/>
     </row>
     <row r="415">
-      <c r="G415" s="7"/>
+      <c r="G415" s="8"/>
+      <c r="L415" s="8"/>
     </row>
     <row r="416">
-      <c r="G416" s="7"/>
+      <c r="G416" s="8"/>
+      <c r="L416" s="8"/>
     </row>
     <row r="417">
-      <c r="G417" s="7"/>
+      <c r="G417" s="8"/>
+      <c r="L417" s="8"/>
     </row>
     <row r="418">
-      <c r="G418" s="7"/>
+      <c r="G418" s="8"/>
+      <c r="L418" s="8"/>
     </row>
     <row r="419">
-      <c r="G419" s="7"/>
+      <c r="G419" s="8"/>
+      <c r="L419" s="8"/>
     </row>
     <row r="420">
-      <c r="G420" s="7"/>
+      <c r="G420" s="8"/>
+      <c r="L420" s="8"/>
     </row>
     <row r="421">
-      <c r="G421" s="7"/>
+      <c r="G421" s="8"/>
+      <c r="L421" s="8"/>
     </row>
     <row r="422">
-      <c r="G422" s="7"/>
+      <c r="G422" s="8"/>
+      <c r="L422" s="8"/>
     </row>
     <row r="423">
-      <c r="G423" s="7"/>
+      <c r="G423" s="8"/>
+      <c r="L423" s="8"/>
     </row>
     <row r="424">
-      <c r="G424" s="7"/>
+      <c r="G424" s="8"/>
+      <c r="L424" s="8"/>
     </row>
     <row r="425">
-      <c r="G425" s="7"/>
+      <c r="G425" s="8"/>
+      <c r="L425" s="8"/>
     </row>
     <row r="426">
-      <c r="G426" s="7"/>
+      <c r="G426" s="8"/>
+      <c r="L426" s="8"/>
     </row>
     <row r="427">
-      <c r="G427" s="7"/>
+      <c r="G427" s="8"/>
+      <c r="L427" s="8"/>
     </row>
     <row r="428">
-      <c r="G428" s="7"/>
+      <c r="G428" s="8"/>
+      <c r="L428" s="8"/>
     </row>
     <row r="429">
-      <c r="G429" s="7"/>
+      <c r="G429" s="8"/>
+      <c r="L429" s="8"/>
     </row>
     <row r="430">
-      <c r="G430" s="7"/>
+      <c r="G430" s="8"/>
+      <c r="L430" s="8"/>
     </row>
     <row r="431">
-      <c r="G431" s="7"/>
+      <c r="G431" s="8"/>
+      <c r="L431" s="8"/>
     </row>
     <row r="432">
-      <c r="G432" s="7"/>
+      <c r="G432" s="8"/>
+      <c r="L432" s="8"/>
     </row>
     <row r="433">
-      <c r="G433" s="7"/>
+      <c r="G433" s="8"/>
+      <c r="L433" s="8"/>
     </row>
     <row r="434">
-      <c r="G434" s="7"/>
+      <c r="G434" s="8"/>
+      <c r="L434" s="8"/>
     </row>
     <row r="435">
-      <c r="G435" s="7"/>
+      <c r="G435" s="8"/>
+      <c r="L435" s="8"/>
     </row>
     <row r="436">
-      <c r="G436" s="7"/>
+      <c r="G436" s="8"/>
+      <c r="L436" s="8"/>
     </row>
     <row r="437">
-      <c r="G437" s="7"/>
+      <c r="G437" s="8"/>
+      <c r="L437" s="8"/>
     </row>
     <row r="438">
-      <c r="G438" s="7"/>
+      <c r="G438" s="8"/>
+      <c r="L438" s="8"/>
     </row>
     <row r="439">
-      <c r="G439" s="7"/>
+      <c r="G439" s="8"/>
+      <c r="L439" s="8"/>
     </row>
     <row r="440">
-      <c r="G440" s="7"/>
+      <c r="G440" s="8"/>
+      <c r="L440" s="8"/>
     </row>
     <row r="441">
-      <c r="G441" s="7"/>
+      <c r="G441" s="8"/>
+      <c r="L441" s="8"/>
     </row>
     <row r="442">
-      <c r="G442" s="7"/>
+      <c r="G442" s="8"/>
+      <c r="L442" s="8"/>
     </row>
     <row r="443">
-      <c r="G443" s="7"/>
+      <c r="G443" s="8"/>
+      <c r="L443" s="8"/>
     </row>
     <row r="444">
-      <c r="G444" s="7"/>
+      <c r="G444" s="8"/>
+      <c r="L444" s="8"/>
     </row>
     <row r="445">
-      <c r="G445" s="7"/>
+      <c r="G445" s="8"/>
+      <c r="L445" s="8"/>
     </row>
     <row r="446">
-      <c r="G446" s="7"/>
+      <c r="G446" s="8"/>
+      <c r="L446" s="8"/>
     </row>
     <row r="447">
-      <c r="G447" s="7"/>
+      <c r="G447" s="8"/>
+      <c r="L447" s="8"/>
     </row>
     <row r="448">
-      <c r="G448" s="7"/>
+      <c r="G448" s="8"/>
+      <c r="L448" s="8"/>
     </row>
     <row r="449">
-      <c r="G449" s="7"/>
+      <c r="G449" s="8"/>
+      <c r="L449" s="8"/>
     </row>
     <row r="450">
-      <c r="G450" s="7"/>
+      <c r="G450" s="8"/>
+      <c r="L450" s="8"/>
     </row>
     <row r="451">
-      <c r="G451" s="7"/>
+      <c r="G451" s="8"/>
+      <c r="L451" s="8"/>
     </row>
     <row r="452">
-      <c r="G452" s="7"/>
+      <c r="G452" s="8"/>
+      <c r="L452" s="8"/>
     </row>
     <row r="453">
-      <c r="G453" s="7"/>
+      <c r="G453" s="8"/>
+      <c r="L453" s="8"/>
     </row>
     <row r="454">
-      <c r="G454" s="7"/>
+      <c r="G454" s="8"/>
+      <c r="L454" s="8"/>
     </row>
     <row r="455">
-      <c r="G455" s="7"/>
+      <c r="G455" s="8"/>
+      <c r="L455" s="8"/>
     </row>
     <row r="456">
-      <c r="G456" s="7"/>
+      <c r="G456" s="8"/>
+      <c r="L456" s="8"/>
     </row>
     <row r="457">
-      <c r="G457" s="7"/>
+      <c r="G457" s="8"/>
+      <c r="L457" s="8"/>
     </row>
     <row r="458">
-      <c r="G458" s="7"/>
+      <c r="G458" s="8"/>
+      <c r="L458" s="8"/>
     </row>
     <row r="459">
-      <c r="G459" s="7"/>
+      <c r="G459" s="8"/>
+      <c r="L459" s="8"/>
     </row>
     <row r="460">
-      <c r="G460" s="7"/>
+      <c r="G460" s="8"/>
+      <c r="L460" s="8"/>
     </row>
     <row r="461">
-      <c r="G461" s="7"/>
+      <c r="G461" s="8"/>
+      <c r="L461" s="8"/>
     </row>
     <row r="462">
-      <c r="G462" s="7"/>
+      <c r="G462" s="8"/>
+      <c r="L462" s="8"/>
     </row>
     <row r="463">
-      <c r="G463" s="7"/>
+      <c r="G463" s="8"/>
+      <c r="L463" s="8"/>
     </row>
     <row r="464">
-      <c r="G464" s="7"/>
+      <c r="G464" s="8"/>
+      <c r="L464" s="8"/>
     </row>
     <row r="465">
-      <c r="G465" s="7"/>
+      <c r="G465" s="8"/>
+      <c r="L465" s="8"/>
     </row>
     <row r="466">
-      <c r="G466" s="7"/>
+      <c r="G466" s="8"/>
+      <c r="L466" s="8"/>
     </row>
     <row r="467">
-      <c r="G467" s="7"/>
+      <c r="G467" s="8"/>
+      <c r="L467" s="8"/>
     </row>
     <row r="468">
-      <c r="G468" s="7"/>
+      <c r="G468" s="8"/>
+      <c r="L468" s="8"/>
     </row>
     <row r="469">
-      <c r="G469" s="7"/>
+      <c r="G469" s="8"/>
+      <c r="L469" s="8"/>
     </row>
     <row r="470">
-      <c r="G470" s="7"/>
+      <c r="G470" s="8"/>
+      <c r="L470" s="8"/>
     </row>
     <row r="471">
-      <c r="G471" s="7"/>
+      <c r="G471" s="8"/>
+      <c r="L471" s="8"/>
     </row>
     <row r="472">
-      <c r="G472" s="7"/>
+      <c r="G472" s="8"/>
+      <c r="L472" s="8"/>
     </row>
     <row r="473">
-      <c r="G473" s="7"/>
+      <c r="G473" s="8"/>
+      <c r="L473" s="8"/>
     </row>
     <row r="474">
-      <c r="G474" s="7"/>
+      <c r="G474" s="8"/>
+      <c r="L474" s="8"/>
     </row>
     <row r="475">
-      <c r="G475" s="7"/>
+      <c r="G475" s="8"/>
+      <c r="L475" s="8"/>
     </row>
     <row r="476">
-      <c r="G476" s="7"/>
+      <c r="G476" s="8"/>
+      <c r="L476" s="8"/>
     </row>
     <row r="477">
-      <c r="G477" s="7"/>
+      <c r="G477" s="8"/>
+      <c r="L477" s="8"/>
     </row>
     <row r="478">
-      <c r="G478" s="7"/>
+      <c r="G478" s="8"/>
+      <c r="L478" s="8"/>
     </row>
     <row r="479">
-      <c r="G479" s="7"/>
+      <c r="G479" s="8"/>
+      <c r="L479" s="8"/>
     </row>
     <row r="480">
-      <c r="G480" s="7"/>
+      <c r="G480" s="8"/>
+      <c r="L480" s="8"/>
     </row>
     <row r="481">
-      <c r="G481" s="7"/>
+      <c r="G481" s="8"/>
+      <c r="L481" s="8"/>
     </row>
     <row r="482">
-      <c r="G482" s="7"/>
+      <c r="G482" s="8"/>
+      <c r="L482" s="8"/>
     </row>
     <row r="483">
-      <c r="G483" s="7"/>
+      <c r="G483" s="8"/>
+      <c r="L483" s="8"/>
     </row>
     <row r="484">
-      <c r="G484" s="7"/>
+      <c r="G484" s="8"/>
+      <c r="L484" s="8"/>
     </row>
     <row r="485">
-      <c r="G485" s="7"/>
+      <c r="G485" s="8"/>
+      <c r="L485" s="8"/>
     </row>
     <row r="486">
-      <c r="G486" s="7"/>
+      <c r="G486" s="8"/>
+      <c r="L486" s="8"/>
     </row>
     <row r="487">
-      <c r="G487" s="7"/>
+      <c r="G487" s="8"/>
+      <c r="L487" s="8"/>
     </row>
     <row r="488">
-      <c r="G488" s="7"/>
+      <c r="G488" s="8"/>
+      <c r="L488" s="8"/>
     </row>
     <row r="489">
-      <c r="G489" s="7"/>
+      <c r="G489" s="8"/>
+      <c r="L489" s="8"/>
     </row>
     <row r="490">
-      <c r="G490" s="7"/>
+      <c r="G490" s="8"/>
+      <c r="L490" s="8"/>
     </row>
     <row r="491">
-      <c r="G491" s="7"/>
+      <c r="G491" s="8"/>
+      <c r="L491" s="8"/>
     </row>
     <row r="492">
-      <c r="G492" s="7"/>
+      <c r="G492" s="8"/>
+      <c r="L492" s="8"/>
     </row>
     <row r="493">
-      <c r="G493" s="7"/>
+      <c r="G493" s="8"/>
+      <c r="L493" s="8"/>
     </row>
     <row r="494">
-      <c r="G494" s="7"/>
+      <c r="G494" s="8"/>
+      <c r="L494" s="8"/>
     </row>
     <row r="495">
-      <c r="G495" s="7"/>
+      <c r="G495" s="8"/>
+      <c r="L495" s="8"/>
     </row>
     <row r="496">
-      <c r="G496" s="7"/>
+      <c r="G496" s="8"/>
+      <c r="L496" s="8"/>
     </row>
     <row r="497">
-      <c r="G497" s="7"/>
+      <c r="G497" s="8"/>
+      <c r="L497" s="8"/>
     </row>
     <row r="498">
-      <c r="G498" s="7"/>
+      <c r="G498" s="8"/>
+      <c r="L498" s="8"/>
     </row>
     <row r="499">
-      <c r="G499" s="7"/>
+      <c r="G499" s="8"/>
+      <c r="L499" s="8"/>
     </row>
     <row r="500">
-      <c r="G500" s="7"/>
+      <c r="G500" s="8"/>
+      <c r="L500" s="8"/>
     </row>
     <row r="501">
-      <c r="G501" s="7"/>
+      <c r="G501" s="8"/>
+      <c r="L501" s="8"/>
     </row>
     <row r="502">
-      <c r="G502" s="7"/>
+      <c r="G502" s="8"/>
+      <c r="L502" s="8"/>
     </row>
     <row r="503">
-      <c r="G503" s="7"/>
+      <c r="G503" s="8"/>
+      <c r="L503" s="8"/>
     </row>
     <row r="504">
-      <c r="G504" s="7"/>
+      <c r="G504" s="8"/>
+      <c r="L504" s="8"/>
     </row>
     <row r="505">
-      <c r="G505" s="7"/>
+      <c r="G505" s="8"/>
+      <c r="L505" s="8"/>
     </row>
     <row r="506">
-      <c r="G506" s="7"/>
+      <c r="G506" s="8"/>
+      <c r="L506" s="8"/>
     </row>
     <row r="507">
-      <c r="G507" s="7"/>
+      <c r="G507" s="8"/>
+      <c r="L507" s="8"/>
     </row>
     <row r="508">
-      <c r="G508" s="7"/>
+      <c r="G508" s="8"/>
+      <c r="L508" s="8"/>
     </row>
     <row r="509">
-      <c r="G509" s="7"/>
+      <c r="G509" s="8"/>
+      <c r="L509" s="8"/>
     </row>
     <row r="510">
-      <c r="G510" s="7"/>
+      <c r="G510" s="8"/>
+      <c r="L510" s="8"/>
     </row>
     <row r="511">
-      <c r="G511" s="7"/>
+      <c r="G511" s="8"/>
+      <c r="L511" s="8"/>
     </row>
     <row r="512">
-      <c r="G512" s="7"/>
+      <c r="G512" s="8"/>
+      <c r="L512" s="8"/>
     </row>
     <row r="513">
-      <c r="G513" s="7"/>
+      <c r="G513" s="8"/>
+      <c r="L513" s="8"/>
     </row>
     <row r="514">
-      <c r="G514" s="7"/>
+      <c r="G514" s="8"/>
+      <c r="L514" s="8"/>
     </row>
     <row r="515">
-      <c r="G515" s="7"/>
+      <c r="G515" s="8"/>
+      <c r="L515" s="8"/>
     </row>
     <row r="516">
-      <c r="G516" s="7"/>
+      <c r="G516" s="8"/>
+      <c r="L516" s="8"/>
     </row>
     <row r="517">
-      <c r="G517" s="7"/>
+      <c r="G517" s="8"/>
+      <c r="L517" s="8"/>
     </row>
     <row r="518">
-      <c r="G518" s="7"/>
+      <c r="G518" s="8"/>
+      <c r="L518" s="8"/>
     </row>
     <row r="519">
-      <c r="G519" s="7"/>
+      <c r="G519" s="8"/>
+      <c r="L519" s="8"/>
     </row>
     <row r="520">
-      <c r="G520" s="7"/>
+      <c r="G520" s="8"/>
+      <c r="L520" s="8"/>
     </row>
     <row r="521">
-      <c r="G521" s="7"/>
+      <c r="G521" s="8"/>
+      <c r="L521" s="8"/>
     </row>
     <row r="522">
-      <c r="G522" s="7"/>
+      <c r="G522" s="8"/>
+      <c r="L522" s="8"/>
     </row>
     <row r="523">
-      <c r="G523" s="7"/>
+      <c r="G523" s="8"/>
+      <c r="L523" s="8"/>
     </row>
     <row r="524">
-      <c r="G524" s="7"/>
+      <c r="G524" s="8"/>
+      <c r="L524" s="8"/>
     </row>
     <row r="525">
-      <c r="G525" s="7"/>
+      <c r="G525" s="8"/>
+      <c r="L525" s="8"/>
     </row>
     <row r="526">
-      <c r="G526" s="7"/>
+      <c r="G526" s="8"/>
+      <c r="L526" s="8"/>
     </row>
     <row r="527">
-      <c r="G527" s="7"/>
+      <c r="G527" s="8"/>
+      <c r="L527" s="8"/>
     </row>
     <row r="528">
-      <c r="G528" s="7"/>
+      <c r="G528" s="8"/>
+      <c r="L528" s="8"/>
     </row>
     <row r="529">
-      <c r="G529" s="7"/>
+      <c r="G529" s="8"/>
+      <c r="L529" s="8"/>
     </row>
     <row r="530">
-      <c r="G530" s="7"/>
+      <c r="G530" s="8"/>
+      <c r="L530" s="8"/>
     </row>
     <row r="531">
-      <c r="G531" s="7"/>
+      <c r="G531" s="8"/>
+      <c r="L531" s="8"/>
     </row>
     <row r="532">
-      <c r="G532" s="7"/>
+      <c r="G532" s="8"/>
+      <c r="L532" s="8"/>
     </row>
     <row r="533">
-      <c r="G533" s="7"/>
+      <c r="G533" s="8"/>
+      <c r="L533" s="8"/>
     </row>
     <row r="534">
-      <c r="G534" s="7"/>
+      <c r="G534" s="8"/>
+      <c r="L534" s="8"/>
     </row>
     <row r="535">
-      <c r="G535" s="7"/>
+      <c r="G535" s="8"/>
+      <c r="L535" s="8"/>
     </row>
     <row r="536">
-      <c r="G536" s="7"/>
+      <c r="G536" s="8"/>
+      <c r="L536" s="8"/>
     </row>
     <row r="537">
-      <c r="G537" s="7"/>
+      <c r="G537" s="8"/>
+      <c r="L537" s="8"/>
     </row>
     <row r="538">
-      <c r="G538" s="7"/>
+      <c r="G538" s="8"/>
+      <c r="L538" s="8"/>
     </row>
     <row r="539">
-      <c r="G539" s="7"/>
+      <c r="G539" s="8"/>
+      <c r="L539" s="8"/>
     </row>
     <row r="540">
-      <c r="G540" s="7"/>
+      <c r="G540" s="8"/>
+      <c r="L540" s="8"/>
     </row>
     <row r="541">
-      <c r="G541" s="7"/>
+      <c r="G541" s="8"/>
+      <c r="L541" s="8"/>
     </row>
     <row r="542">
-      <c r="G542" s="7"/>
+      <c r="G542" s="8"/>
+      <c r="L542" s="8"/>
     </row>
     <row r="543">
-      <c r="G543" s="7"/>
+      <c r="G543" s="8"/>
+      <c r="L543" s="8"/>
     </row>
     <row r="544">
-      <c r="G544" s="7"/>
+      <c r="G544" s="8"/>
+      <c r="L544" s="8"/>
     </row>
     <row r="545">
-      <c r="G545" s="7"/>
+      <c r="G545" s="8"/>
+      <c r="L545" s="8"/>
     </row>
     <row r="546">
-      <c r="G546" s="7"/>
+      <c r="G546" s="8"/>
+      <c r="L546" s="8"/>
     </row>
     <row r="547">
-      <c r="G547" s="7"/>
+      <c r="G547" s="8"/>
+      <c r="L547" s="8"/>
     </row>
     <row r="548">
-      <c r="G548" s="7"/>
+      <c r="G548" s="8"/>
+      <c r="L548" s="8"/>
     </row>
     <row r="549">
-      <c r="G549" s="7"/>
+      <c r="G549" s="8"/>
+      <c r="L549" s="8"/>
     </row>
     <row r="550">
-      <c r="G550" s="7"/>
+      <c r="G550" s="8"/>
+      <c r="L550" s="8"/>
     </row>
     <row r="551">
-      <c r="G551" s="7"/>
+      <c r="G551" s="8"/>
+      <c r="L551" s="8"/>
     </row>
     <row r="552">
-      <c r="G552" s="7"/>
+      <c r="G552" s="8"/>
+      <c r="L552" s="8"/>
     </row>
     <row r="553">
-      <c r="G553" s="7"/>
+      <c r="G553" s="8"/>
+      <c r="L553" s="8"/>
     </row>
     <row r="554">
-      <c r="G554" s="7"/>
+      <c r="G554" s="8"/>
+      <c r="L554" s="8"/>
     </row>
     <row r="555">
-      <c r="G555" s="7"/>
+      <c r="G555" s="8"/>
+      <c r="L555" s="8"/>
     </row>
     <row r="556">
-      <c r="G556" s="7"/>
+      <c r="G556" s="8"/>
+      <c r="L556" s="8"/>
     </row>
     <row r="557">
-      <c r="G557" s="7"/>
+      <c r="G557" s="8"/>
+      <c r="L557" s="8"/>
     </row>
     <row r="558">
-      <c r="G558" s="7"/>
+      <c r="G558" s="8"/>
+      <c r="L558" s="8"/>
     </row>
     <row r="559">
-      <c r="G559" s="7"/>
+      <c r="G559" s="8"/>
+      <c r="L559" s="8"/>
     </row>
     <row r="560">
-      <c r="G560" s="7"/>
+      <c r="G560" s="8"/>
+      <c r="L560" s="8"/>
     </row>
     <row r="561">
-      <c r="G561" s="7"/>
+      <c r="G561" s="8"/>
+      <c r="L561" s="8"/>
     </row>
     <row r="562">
-      <c r="G562" s="7"/>
+      <c r="G562" s="8"/>
+      <c r="L562" s="8"/>
     </row>
     <row r="563">
-      <c r="G563" s="7"/>
+      <c r="G563" s="8"/>
+      <c r="L563" s="8"/>
     </row>
     <row r="564">
-      <c r="G564" s="7"/>
+      <c r="G564" s="8"/>
+      <c r="L564" s="8"/>
     </row>
     <row r="565">
-      <c r="G565" s="7"/>
+      <c r="G565" s="8"/>
+      <c r="L565" s="8"/>
     </row>
     <row r="566">
-      <c r="G566" s="7"/>
+      <c r="G566" s="8"/>
+      <c r="L566" s="8"/>
     </row>
     <row r="567">
-      <c r="G567" s="7"/>
+      <c r="G567" s="8"/>
+      <c r="L567" s="8"/>
     </row>
     <row r="568">
-      <c r="G568" s="7"/>
+      <c r="G568" s="8"/>
+      <c r="L568" s="8"/>
     </row>
     <row r="569">
-      <c r="G569" s="7"/>
+      <c r="G569" s="8"/>
+      <c r="L569" s="8"/>
     </row>
     <row r="570">
-      <c r="G570" s="7"/>
+      <c r="G570" s="8"/>
+      <c r="L570" s="8"/>
     </row>
     <row r="571">
-      <c r="G571" s="7"/>
+      <c r="G571" s="8"/>
+      <c r="L571" s="8"/>
     </row>
     <row r="572">
-      <c r="G572" s="7"/>
+      <c r="G572" s="8"/>
+      <c r="L572" s="8"/>
     </row>
     <row r="573">
-      <c r="G573" s="7"/>
+      <c r="G573" s="8"/>
+      <c r="L573" s="8"/>
     </row>
     <row r="574">
-      <c r="G574" s="7"/>
+      <c r="G574" s="8"/>
+      <c r="L574" s="8"/>
     </row>
     <row r="575">
-      <c r="G575" s="7"/>
+      <c r="G575" s="8"/>
+      <c r="L575" s="8"/>
     </row>
     <row r="576">
-      <c r="G576" s="7"/>
+      <c r="G576" s="8"/>
+      <c r="L576" s="8"/>
     </row>
     <row r="577">
-      <c r="G577" s="7"/>
+      <c r="G577" s="8"/>
+      <c r="L577" s="8"/>
     </row>
     <row r="578">
-      <c r="G578" s="7"/>
+      <c r="G578" s="8"/>
+      <c r="L578" s="8"/>
     </row>
     <row r="579">
-      <c r="G579" s="7"/>
+      <c r="G579" s="8"/>
+      <c r="L579" s="8"/>
     </row>
     <row r="580">
-      <c r="G580" s="7"/>
+      <c r="G580" s="8"/>
+      <c r="L580" s="8"/>
     </row>
     <row r="581">
-      <c r="G581" s="7"/>
+      <c r="G581" s="8"/>
+      <c r="L581" s="8"/>
     </row>
     <row r="582">
-      <c r="G582" s="7"/>
+      <c r="G582" s="8"/>
+      <c r="L582" s="8"/>
     </row>
     <row r="583">
-      <c r="G583" s="7"/>
+      <c r="G583" s="8"/>
+      <c r="L583" s="8"/>
     </row>
     <row r="584">
-      <c r="G584" s="7"/>
+      <c r="G584" s="8"/>
+      <c r="L584" s="8"/>
     </row>
     <row r="585">
-      <c r="G585" s="7"/>
+      <c r="G585" s="8"/>
+      <c r="L585" s="8"/>
     </row>
     <row r="586">
-      <c r="G586" s="7"/>
+      <c r="G586" s="8"/>
+      <c r="L586" s="8"/>
     </row>
     <row r="587">
-      <c r="G587" s="7"/>
+      <c r="G587" s="8"/>
+      <c r="L587" s="8"/>
     </row>
     <row r="588">
-      <c r="G588" s="7"/>
+      <c r="G588" s="8"/>
+      <c r="L588" s="8"/>
     </row>
     <row r="589">
-      <c r="G589" s="7"/>
+      <c r="G589" s="8"/>
+      <c r="L589" s="8"/>
     </row>
     <row r="590">
-      <c r="G590" s="7"/>
+      <c r="G590" s="8"/>
+      <c r="L590" s="8"/>
     </row>
     <row r="591">
-      <c r="G591" s="7"/>
+      <c r="G591" s="8"/>
+      <c r="L591" s="8"/>
     </row>
     <row r="592">
-      <c r="G592" s="7"/>
+      <c r="G592" s="8"/>
+      <c r="L592" s="8"/>
     </row>
     <row r="593">
-      <c r="G593" s="7"/>
+      <c r="G593" s="8"/>
+      <c r="L593" s="8"/>
     </row>
     <row r="594">
-      <c r="G594" s="7"/>
+      <c r="G594" s="8"/>
+      <c r="L594" s="8"/>
     </row>
     <row r="595">
-      <c r="G595" s="7"/>
+      <c r="G595" s="8"/>
+      <c r="L595" s="8"/>
     </row>
     <row r="596">
-      <c r="G596" s="7"/>
+      <c r="G596" s="8"/>
+      <c r="L596" s="8"/>
     </row>
     <row r="597">
-      <c r="G597" s="7"/>
+      <c r="G597" s="8"/>
+      <c r="L597" s="8"/>
     </row>
     <row r="598">
-      <c r="G598" s="7"/>
+      <c r="G598" s="8"/>
+      <c r="L598" s="8"/>
     </row>
     <row r="599">
-      <c r="G599" s="7"/>
+      <c r="G599" s="8"/>
+      <c r="L599" s="8"/>
     </row>
     <row r="600">
-      <c r="G600" s="7"/>
+      <c r="G600" s="8"/>
+      <c r="L600" s="8"/>
     </row>
     <row r="601">
-      <c r="G601" s="7"/>
+      <c r="G601" s="8"/>
+      <c r="L601" s="8"/>
     </row>
     <row r="602">
-      <c r="G602" s="7"/>
+      <c r="G602" s="8"/>
+      <c r="L602" s="8"/>
     </row>
     <row r="603">
-      <c r="G603" s="7"/>
+      <c r="G603" s="8"/>
+      <c r="L603" s="8"/>
     </row>
     <row r="604">
-      <c r="G604" s="7"/>
+      <c r="G604" s="8"/>
+      <c r="L604" s="8"/>
     </row>
     <row r="605">
-      <c r="G605" s="7"/>
+      <c r="G605" s="8"/>
+      <c r="L605" s="8"/>
     </row>
     <row r="606">
-      <c r="G606" s="7"/>
+      <c r="G606" s="8"/>
+      <c r="L606" s="8"/>
     </row>
     <row r="607">
-      <c r="G607" s="7"/>
+      <c r="G607" s="8"/>
+      <c r="L607" s="8"/>
     </row>
     <row r="608">
-      <c r="G608" s="7"/>
+      <c r="G608" s="8"/>
+      <c r="L608" s="8"/>
     </row>
     <row r="609">
-      <c r="G609" s="7"/>
+      <c r="G609" s="8"/>
+      <c r="L609" s="8"/>
     </row>
     <row r="610">
-      <c r="G610" s="7"/>
+      <c r="G610" s="8"/>
+      <c r="L610" s="8"/>
     </row>
     <row r="611">
-      <c r="G611" s="7"/>
+      <c r="G611" s="8"/>
+      <c r="L611" s="8"/>
     </row>
     <row r="612">
-      <c r="G612" s="7"/>
+      <c r="G612" s="8"/>
+      <c r="L612" s="8"/>
     </row>
     <row r="613">
-      <c r="G613" s="7"/>
+      <c r="G613" s="8"/>
+      <c r="L613" s="8"/>
     </row>
     <row r="614">
-      <c r="G614" s="7"/>
+      <c r="G614" s="8"/>
+      <c r="L614" s="8"/>
     </row>
     <row r="615">
-      <c r="G615" s="7"/>
+      <c r="G615" s="8"/>
+      <c r="L615" s="8"/>
     </row>
     <row r="616">
-      <c r="G616" s="7"/>
+      <c r="G616" s="8"/>
+      <c r="L616" s="8"/>
     </row>
     <row r="617">
-      <c r="G617" s="7"/>
+      <c r="G617" s="8"/>
+      <c r="L617" s="8"/>
     </row>
     <row r="618">
-      <c r="G618" s="7"/>
+      <c r="G618" s="8"/>
+      <c r="L618" s="8"/>
     </row>
     <row r="619">
-      <c r="G619" s="7"/>
+      <c r="G619" s="8"/>
+      <c r="L619" s="8"/>
     </row>
     <row r="620">
-      <c r="G620" s="7"/>
+      <c r="G620" s="8"/>
+      <c r="L620" s="8"/>
     </row>
     <row r="621">
-      <c r="G621" s="7"/>
+      <c r="G621" s="8"/>
+      <c r="L621" s="8"/>
     </row>
     <row r="622">
-      <c r="G622" s="7"/>
+      <c r="G622" s="8"/>
+      <c r="L622" s="8"/>
     </row>
     <row r="623">
-      <c r="G623" s="7"/>
+      <c r="G623" s="8"/>
+      <c r="L623" s="8"/>
     </row>
     <row r="624">
-      <c r="G624" s="7"/>
+      <c r="G624" s="8"/>
+      <c r="L624" s="8"/>
     </row>
     <row r="625">
-      <c r="G625" s="7"/>
+      <c r="G625" s="8"/>
+      <c r="L625" s="8"/>
     </row>
     <row r="626">
-      <c r="G626" s="7"/>
+      <c r="G626" s="8"/>
+      <c r="L626" s="8"/>
     </row>
     <row r="627">
-      <c r="G627" s="7"/>
+      <c r="G627" s="8"/>
+      <c r="L627" s="8"/>
     </row>
     <row r="628">
-      <c r="G628" s="7"/>
+      <c r="G628" s="8"/>
+      <c r="L628" s="8"/>
     </row>
     <row r="629">
-      <c r="G629" s="7"/>
+      <c r="G629" s="8"/>
+      <c r="L629" s="8"/>
     </row>
     <row r="630">
-      <c r="G630" s="7"/>
+      <c r="G630" s="8"/>
+      <c r="L630" s="8"/>
     </row>
     <row r="631">
-      <c r="G631" s="7"/>
+      <c r="G631" s="8"/>
+      <c r="L631" s="8"/>
     </row>
     <row r="632">
-      <c r="G632" s="7"/>
+      <c r="G632" s="8"/>
+      <c r="L632" s="8"/>
     </row>
     <row r="633">
-      <c r="G633" s="7"/>
+      <c r="G633" s="8"/>
+      <c r="L633" s="8"/>
     </row>
     <row r="634">
-      <c r="G634" s="7"/>
+      <c r="G634" s="8"/>
+      <c r="L634" s="8"/>
     </row>
     <row r="635">
-      <c r="G635" s="7"/>
+      <c r="G635" s="8"/>
+      <c r="L635" s="8"/>
     </row>
     <row r="636">
-      <c r="G636" s="7"/>
+      <c r="G636" s="8"/>
+      <c r="L636" s="8"/>
     </row>
     <row r="637">
-      <c r="G637" s="7"/>
+      <c r="G637" s="8"/>
+      <c r="L637" s="8"/>
     </row>
     <row r="638">
-      <c r="G638" s="7"/>
+      <c r="G638" s="8"/>
+      <c r="L638" s="8"/>
     </row>
     <row r="639">
-      <c r="G639" s="7"/>
+      <c r="G639" s="8"/>
+      <c r="L639" s="8"/>
     </row>
     <row r="640">
-      <c r="G640" s="7"/>
+      <c r="G640" s="8"/>
+      <c r="L640" s="8"/>
     </row>
     <row r="641">
-      <c r="G641" s="7"/>
+      <c r="G641" s="8"/>
+      <c r="L641" s="8"/>
     </row>
     <row r="642">
-      <c r="G642" s="7"/>
+      <c r="G642" s="8"/>
+      <c r="L642" s="8"/>
     </row>
     <row r="643">
-      <c r="G643" s="7"/>
+      <c r="G643" s="8"/>
+      <c r="L643" s="8"/>
     </row>
     <row r="644">
-      <c r="G644" s="7"/>
+      <c r="G644" s="8"/>
+      <c r="L644" s="8"/>
     </row>
     <row r="645">
-      <c r="G645" s="7"/>
+      <c r="G645" s="8"/>
+      <c r="L645" s="8"/>
     </row>
     <row r="646">
-      <c r="G646" s="7"/>
+      <c r="G646" s="8"/>
+      <c r="L646" s="8"/>
     </row>
     <row r="647">
-      <c r="G647" s="7"/>
+      <c r="G647" s="8"/>
+      <c r="L647" s="8"/>
     </row>
     <row r="648">
-      <c r="G648" s="7"/>
+      <c r="G648" s="8"/>
+      <c r="L648" s="8"/>
     </row>
     <row r="649">
-      <c r="G649" s="7"/>
+      <c r="G649" s="8"/>
+      <c r="L649" s="8"/>
     </row>
     <row r="650">
-      <c r="G650" s="7"/>
+      <c r="G650" s="8"/>
+      <c r="L650" s="8"/>
     </row>
     <row r="651">
-      <c r="G651" s="7"/>
+      <c r="G651" s="8"/>
+      <c r="L651" s="8"/>
     </row>
     <row r="652">
-      <c r="G652" s="7"/>
+      <c r="G652" s="8"/>
+      <c r="L652" s="8"/>
     </row>
     <row r="653">
-      <c r="G653" s="7"/>
+      <c r="G653" s="8"/>
+      <c r="L653" s="8"/>
     </row>
     <row r="654">
-      <c r="G654" s="7"/>
+      <c r="G654" s="8"/>
+      <c r="L654" s="8"/>
     </row>
     <row r="655">
-      <c r="G655" s="7"/>
+      <c r="G655" s="8"/>
+      <c r="L655" s="8"/>
     </row>
     <row r="656">
-      <c r="G656" s="7"/>
+      <c r="G656" s="8"/>
+      <c r="L656" s="8"/>
     </row>
     <row r="657">
-      <c r="G657" s="7"/>
+      <c r="G657" s="8"/>
+      <c r="L657" s="8"/>
     </row>
     <row r="658">
-      <c r="G658" s="7"/>
+      <c r="G658" s="8"/>
+      <c r="L658" s="8"/>
     </row>
     <row r="659">
-      <c r="G659" s="7"/>
+      <c r="G659" s="8"/>
+      <c r="L659" s="8"/>
     </row>
     <row r="660">
-      <c r="G660" s="7"/>
+      <c r="G660" s="8"/>
+      <c r="L660" s="8"/>
     </row>
     <row r="661">
-      <c r="G661" s="7"/>
+      <c r="G661" s="8"/>
+      <c r="L661" s="8"/>
     </row>
     <row r="662">
-      <c r="G662" s="7"/>
+      <c r="G662" s="8"/>
+      <c r="L662" s="8"/>
     </row>
     <row r="663">
-      <c r="G663" s="7"/>
+      <c r="G663" s="8"/>
+      <c r="L663" s="8"/>
     </row>
     <row r="664">
-      <c r="G664" s="7"/>
+      <c r="G664" s="8"/>
+      <c r="L664" s="8"/>
     </row>
     <row r="665">
-      <c r="G665" s="7"/>
+      <c r="G665" s="8"/>
+      <c r="L665" s="8"/>
     </row>
     <row r="666">
-      <c r="G666" s="7"/>
+      <c r="G666" s="8"/>
+      <c r="L666" s="8"/>
     </row>
     <row r="667">
-      <c r="G667" s="7"/>
+      <c r="G667" s="8"/>
+      <c r="L667" s="8"/>
     </row>
     <row r="668">
-      <c r="G668" s="7"/>
+      <c r="G668" s="8"/>
+      <c r="L668" s="8"/>
     </row>
     <row r="669">
-      <c r="G669" s="7"/>
+      <c r="G669" s="8"/>
+      <c r="L669" s="8"/>
     </row>
     <row r="670">
-      <c r="G670" s="7"/>
+      <c r="G670" s="8"/>
+      <c r="L670" s="8"/>
     </row>
     <row r="671">
-      <c r="G671" s="7"/>
+      <c r="G671" s="8"/>
+      <c r="L671" s="8"/>
     </row>
     <row r="672">
-      <c r="G672" s="7"/>
+      <c r="G672" s="8"/>
+      <c r="L672" s="8"/>
     </row>
     <row r="673">
-      <c r="G673" s="7"/>
+      <c r="G673" s="8"/>
+      <c r="L673" s="8"/>
     </row>
     <row r="674">
-      <c r="G674" s="7"/>
+      <c r="G674" s="8"/>
+      <c r="L674" s="8"/>
     </row>
     <row r="675">
-      <c r="G675" s="7"/>
+      <c r="G675" s="8"/>
+      <c r="L675" s="8"/>
     </row>
     <row r="676">
-      <c r="G676" s="7"/>
+      <c r="G676" s="8"/>
+      <c r="L676" s="8"/>
     </row>
     <row r="677">
-      <c r="G677" s="7"/>
+      <c r="G677" s="8"/>
+      <c r="L677" s="8"/>
     </row>
     <row r="678">
-      <c r="G678" s="7"/>
+      <c r="G678" s="8"/>
+      <c r="L678" s="8"/>
     </row>
     <row r="679">
-      <c r="G679" s="7"/>
+      <c r="G679" s="8"/>
+      <c r="L679" s="8"/>
     </row>
     <row r="680">
-      <c r="G680" s="7"/>
+      <c r="G680" s="8"/>
+      <c r="L680" s="8"/>
     </row>
     <row r="681">
-      <c r="G681" s="7"/>
+      <c r="G681" s="8"/>
+      <c r="L681" s="8"/>
     </row>
     <row r="682">
-      <c r="G682" s="7"/>
+      <c r="G682" s="8"/>
+      <c r="L682" s="8"/>
     </row>
     <row r="683">
-      <c r="G683" s="7"/>
+      <c r="G683" s="8"/>
+      <c r="L683" s="8"/>
     </row>
     <row r="684">
-      <c r="G684" s="7"/>
+      <c r="G684" s="8"/>
+      <c r="L684" s="8"/>
     </row>
     <row r="685">
-      <c r="G685" s="7"/>
+      <c r="G685" s="8"/>
+      <c r="L685" s="8"/>
     </row>
     <row r="686">
-      <c r="G686" s="7"/>
+      <c r="G686" s="8"/>
+      <c r="L686" s="8"/>
     </row>
     <row r="687">
-      <c r="G687" s="7"/>
+      <c r="G687" s="8"/>
+      <c r="L687" s="8"/>
     </row>
     <row r="688">
-      <c r="G688" s="7"/>
+      <c r="G688" s="8"/>
+      <c r="L688" s="8"/>
     </row>
     <row r="689">
-      <c r="G689" s="7"/>
+      <c r="G689" s="8"/>
+      <c r="L689" s="8"/>
     </row>
     <row r="690">
-      <c r="G690" s="7"/>
+      <c r="G690" s="8"/>
+      <c r="L690" s="8"/>
     </row>
     <row r="691">
-      <c r="G691" s="7"/>
+      <c r="G691" s="8"/>
+      <c r="L691" s="8"/>
     </row>
     <row r="692">
-      <c r="G692" s="7"/>
+      <c r="G692" s="8"/>
+      <c r="L692" s="8"/>
     </row>
     <row r="693">
-      <c r="G693" s="7"/>
+      <c r="G693" s="8"/>
+      <c r="L693" s="8"/>
     </row>
     <row r="694">
-      <c r="G694" s="7"/>
+      <c r="G694" s="8"/>
+      <c r="L694" s="8"/>
     </row>
     <row r="695">
-      <c r="G695" s="7"/>
+      <c r="G695" s="8"/>
+      <c r="L695" s="8"/>
     </row>
     <row r="696">
-      <c r="G696" s="7"/>
+      <c r="G696" s="8"/>
+      <c r="L696" s="8"/>
     </row>
     <row r="697">
-      <c r="G697" s="7"/>
+      <c r="G697" s="8"/>
+      <c r="L697" s="8"/>
     </row>
     <row r="698">
-      <c r="G698" s="7"/>
+      <c r="G698" s="8"/>
+      <c r="L698" s="8"/>
     </row>
     <row r="699">
-      <c r="G699" s="7"/>
+      <c r="G699" s="8"/>
+      <c r="L699" s="8"/>
     </row>
     <row r="700">
-      <c r="G700" s="7"/>
+      <c r="G700" s="8"/>
+      <c r="L700" s="8"/>
     </row>
     <row r="701">
-      <c r="G701" s="7"/>
+      <c r="G701" s="8"/>
+      <c r="L701" s="8"/>
     </row>
     <row r="702">
-      <c r="G702" s="7"/>
+      <c r="G702" s="8"/>
+      <c r="L702" s="8"/>
     </row>
     <row r="703">
-      <c r="G703" s="7"/>
+      <c r="G703" s="8"/>
+      <c r="L703" s="8"/>
     </row>
     <row r="704">
-      <c r="G704" s="7"/>
+      <c r="G704" s="8"/>
+      <c r="L704" s="8"/>
     </row>
     <row r="705">
-      <c r="G705" s="7"/>
+      <c r="G705" s="8"/>
+      <c r="L705" s="8"/>
     </row>
     <row r="706">
-      <c r="G706" s="7"/>
+      <c r="G706" s="8"/>
+      <c r="L706" s="8"/>
     </row>
     <row r="707">
-      <c r="G707" s="7"/>
+      <c r="G707" s="8"/>
+      <c r="L707" s="8"/>
     </row>
     <row r="708">
-      <c r="G708" s="7"/>
+      <c r="G708" s="8"/>
+      <c r="L708" s="8"/>
     </row>
     <row r="709">
-      <c r="G709" s="7"/>
+      <c r="G709" s="8"/>
+      <c r="L709" s="8"/>
     </row>
     <row r="710">
-      <c r="G710" s="7"/>
+      <c r="G710" s="8"/>
+      <c r="L710" s="8"/>
     </row>
     <row r="711">
-      <c r="G711" s="7"/>
+      <c r="G711" s="8"/>
+      <c r="L711" s="8"/>
     </row>
     <row r="712">
-      <c r="G712" s="7"/>
+      <c r="G712" s="8"/>
+      <c r="L712" s="8"/>
     </row>
     <row r="713">
-      <c r="G713" s="7"/>
+      <c r="G713" s="8"/>
+      <c r="L713" s="8"/>
     </row>
     <row r="714">
-      <c r="G714" s="7"/>
+      <c r="G714" s="8"/>
+      <c r="L714" s="8"/>
     </row>
     <row r="715">
-      <c r="G715" s="7"/>
+      <c r="G715" s="8"/>
+      <c r="L715" s="8"/>
     </row>
     <row r="716">
-      <c r="G716" s="7"/>
+      <c r="G716" s="8"/>
+      <c r="L716" s="8"/>
     </row>
     <row r="717">
-      <c r="G717" s="7"/>
+      <c r="G717" s="8"/>
+      <c r="L717" s="8"/>
     </row>
     <row r="718">
-      <c r="G718" s="7"/>
+      <c r="G718" s="8"/>
+      <c r="L718" s="8"/>
     </row>
     <row r="719">
-      <c r="G719" s="7"/>
+      <c r="G719" s="8"/>
+      <c r="L719" s="8"/>
     </row>
     <row r="720">
-      <c r="G720" s="7"/>
+      <c r="G720" s="8"/>
+      <c r="L720" s="8"/>
     </row>
     <row r="721">
-      <c r="G721" s="7"/>
+      <c r="G721" s="8"/>
+      <c r="L721" s="8"/>
     </row>
     <row r="722">
-      <c r="G722" s="7"/>
+      <c r="G722" s="8"/>
+      <c r="L722" s="8"/>
     </row>
     <row r="723">
-      <c r="G723" s="7"/>
+      <c r="G723" s="8"/>
+      <c r="L723" s="8"/>
     </row>
     <row r="724">
-      <c r="G724" s="7"/>
+      <c r="G724" s="8"/>
+      <c r="L724" s="8"/>
     </row>
     <row r="725">
-      <c r="G725" s="7"/>
+      <c r="G725" s="8"/>
+      <c r="L725" s="8"/>
     </row>
     <row r="726">
-      <c r="G726" s="7"/>
+      <c r="G726" s="8"/>
+      <c r="L726" s="8"/>
     </row>
     <row r="727">
-      <c r="G727" s="7"/>
+      <c r="G727" s="8"/>
+      <c r="L727" s="8"/>
     </row>
     <row r="728">
-      <c r="G728" s="7"/>
+      <c r="G728" s="8"/>
+      <c r="L728" s="8"/>
     </row>
     <row r="729">
-      <c r="G729" s="7"/>
+      <c r="G729" s="8"/>
+      <c r="L729" s="8"/>
     </row>
     <row r="730">
-      <c r="G730" s="7"/>
+      <c r="G730" s="8"/>
+      <c r="L730" s="8"/>
     </row>
     <row r="731">
-      <c r="G731" s="7"/>
+      <c r="G731" s="8"/>
+      <c r="L731" s="8"/>
     </row>
     <row r="732">
-      <c r="G732" s="7"/>
+      <c r="G732" s="8"/>
+      <c r="L732" s="8"/>
     </row>
     <row r="733">
-      <c r="G733" s="7"/>
+      <c r="G733" s="8"/>
+      <c r="L733" s="8"/>
     </row>
     <row r="734">
-      <c r="G734" s="7"/>
+      <c r="G734" s="8"/>
+      <c r="L734" s="8"/>
     </row>
     <row r="735">
-      <c r="G735" s="7"/>
+      <c r="G735" s="8"/>
+      <c r="L735" s="8"/>
     </row>
     <row r="736">
-      <c r="G736" s="7"/>
+      <c r="G736" s="8"/>
+      <c r="L736" s="8"/>
     </row>
     <row r="737">
-      <c r="G737" s="7"/>
+      <c r="G737" s="8"/>
+      <c r="L737" s="8"/>
     </row>
     <row r="738">
-      <c r="G738" s="7"/>
+      <c r="G738" s="8"/>
+      <c r="L738" s="8"/>
     </row>
     <row r="739">
-      <c r="G739" s="7"/>
+      <c r="G739" s="8"/>
+      <c r="L739" s="8"/>
     </row>
     <row r="740">
-      <c r="G740" s="7"/>
+      <c r="G740" s="8"/>
+      <c r="L740" s="8"/>
     </row>
     <row r="741">
-      <c r="G741" s="7"/>
+      <c r="G741" s="8"/>
+      <c r="L741" s="8"/>
     </row>
     <row r="742">
-      <c r="G742" s="7"/>
+      <c r="G742" s="8"/>
+      <c r="L742" s="8"/>
     </row>
     <row r="743">
-      <c r="G743" s="7"/>
+      <c r="G743" s="8"/>
+      <c r="L743" s="8"/>
     </row>
     <row r="744">
-      <c r="G744" s="7"/>
+      <c r="G744" s="8"/>
+      <c r="L744" s="8"/>
     </row>
     <row r="745">
-      <c r="G745" s="7"/>
+      <c r="G745" s="8"/>
+      <c r="L745" s="8"/>
     </row>
     <row r="746">
-      <c r="G746" s="7"/>
+      <c r="G746" s="8"/>
+      <c r="L746" s="8"/>
     </row>
     <row r="747">
-      <c r="G747" s="7"/>
+      <c r="G747" s="8"/>
+      <c r="L747" s="8"/>
     </row>
     <row r="748">
-      <c r="G748" s="7"/>
+      <c r="G748" s="8"/>
+      <c r="L748" s="8"/>
     </row>
     <row r="749">
-      <c r="G749" s="7"/>
+      <c r="G749" s="8"/>
+      <c r="L749" s="8"/>
     </row>
     <row r="750">
-      <c r="G750" s="7"/>
+      <c r="G750" s="8"/>
+      <c r="L750" s="8"/>
     </row>
     <row r="751">
-      <c r="G751" s="7"/>
+      <c r="G751" s="8"/>
+      <c r="L751" s="8"/>
     </row>
     <row r="752">
-      <c r="G752" s="7"/>
+      <c r="G752" s="8"/>
+      <c r="L752" s="8"/>
     </row>
     <row r="753">
-      <c r="G753" s="7"/>
+      <c r="G753" s="8"/>
+      <c r="L753" s="8"/>
     </row>
     <row r="754">
-      <c r="G754" s="7"/>
+      <c r="G754" s="8"/>
+      <c r="L754" s="8"/>
     </row>
     <row r="755">
-      <c r="G755" s="7"/>
+      <c r="G755" s="8"/>
+      <c r="L755" s="8"/>
     </row>
     <row r="756">
-      <c r="G756" s="7"/>
+      <c r="G756" s="8"/>
+      <c r="L756" s="8"/>
     </row>
     <row r="757">
-      <c r="G757" s="7"/>
+      <c r="G757" s="8"/>
+      <c r="L757" s="8"/>
     </row>
     <row r="758">
-      <c r="G758" s="7"/>
+      <c r="G758" s="8"/>
+      <c r="L758" s="8"/>
     </row>
     <row r="759">
-      <c r="G759" s="7"/>
+      <c r="G759" s="8"/>
+      <c r="L759" s="8"/>
     </row>
     <row r="760">
-      <c r="G760" s="7"/>
+      <c r="G760" s="8"/>
+      <c r="L760" s="8"/>
     </row>
     <row r="761">
-      <c r="G761" s="7"/>
+      <c r="G761" s="8"/>
+      <c r="L761" s="8"/>
     </row>
     <row r="762">
-      <c r="G762" s="7"/>
+      <c r="G762" s="8"/>
+      <c r="L762" s="8"/>
     </row>
     <row r="763">
-      <c r="G763" s="7"/>
+      <c r="G763" s="8"/>
+      <c r="L763" s="8"/>
     </row>
     <row r="764">
-      <c r="G764" s="7"/>
+      <c r="G764" s="8"/>
+      <c r="L764" s="8"/>
     </row>
     <row r="765">
-      <c r="G765" s="7"/>
+      <c r="G765" s="8"/>
+      <c r="L765" s="8"/>
     </row>
     <row r="766">
-      <c r="G766" s="7"/>
+      <c r="G766" s="8"/>
+      <c r="L766" s="8"/>
     </row>
     <row r="767">
-      <c r="G767" s="7"/>
+      <c r="G767" s="8"/>
+      <c r="L767" s="8"/>
     </row>
     <row r="768">
-      <c r="G768" s="7"/>
+      <c r="G768" s="8"/>
+      <c r="L768" s="8"/>
     </row>
     <row r="769">
-      <c r="G769" s="7"/>
+      <c r="G769" s="8"/>
+      <c r="L769" s="8"/>
     </row>
     <row r="770">
-      <c r="G770" s="7"/>
+      <c r="G770" s="8"/>
+      <c r="L770" s="8"/>
     </row>
     <row r="771">
-      <c r="G771" s="7"/>
+      <c r="G771" s="8"/>
+      <c r="L771" s="8"/>
     </row>
     <row r="772">
-      <c r="G772" s="7"/>
+      <c r="G772" s="8"/>
+      <c r="L772" s="8"/>
     </row>
     <row r="773">
-      <c r="G773" s="7"/>
+      <c r="G773" s="8"/>
+      <c r="L773" s="8"/>
     </row>
     <row r="774">
-      <c r="G774" s="7"/>
+      <c r="G774" s="8"/>
+      <c r="L774" s="8"/>
     </row>
     <row r="775">
-      <c r="G775" s="7"/>
+      <c r="G775" s="8"/>
+      <c r="L775" s="8"/>
     </row>
     <row r="776">
-      <c r="G776" s="7"/>
+      <c r="G776" s="8"/>
+      <c r="L776" s="8"/>
     </row>
     <row r="777">
-      <c r="G777" s="7"/>
+      <c r="G777" s="8"/>
+      <c r="L777" s="8"/>
     </row>
     <row r="778">
-      <c r="G778" s="7"/>
+      <c r="G778" s="8"/>
+      <c r="L778" s="8"/>
     </row>
     <row r="779">
-      <c r="G779" s="7"/>
+      <c r="G779" s="8"/>
+      <c r="L779" s="8"/>
     </row>
     <row r="780">
-      <c r="G780" s="7"/>
+      <c r="G780" s="8"/>
+      <c r="L780" s="8"/>
     </row>
     <row r="781">
-      <c r="G781" s="7"/>
+      <c r="G781" s="8"/>
+      <c r="L781" s="8"/>
     </row>
     <row r="782">
-      <c r="G782" s="7"/>
+      <c r="G782" s="8"/>
+      <c r="L782" s="8"/>
     </row>
     <row r="783">
-      <c r="G783" s="7"/>
+      <c r="G783" s="8"/>
+      <c r="L783" s="8"/>
     </row>
     <row r="784">
-      <c r="G784" s="7"/>
+      <c r="G784" s="8"/>
+      <c r="L784" s="8"/>
     </row>
     <row r="785">
-      <c r="G785" s="7"/>
+      <c r="G785" s="8"/>
+      <c r="L785" s="8"/>
     </row>
     <row r="786">
-      <c r="G786" s="7"/>
+      <c r="G786" s="8"/>
+      <c r="L786" s="8"/>
     </row>
     <row r="787">
-      <c r="G787" s="7"/>
+      <c r="G787" s="8"/>
+      <c r="L787" s="8"/>
     </row>
     <row r="788">
-      <c r="G788" s="7"/>
+      <c r="G788" s="8"/>
+      <c r="L788" s="8"/>
     </row>
     <row r="789">
-      <c r="G789" s="7"/>
+      <c r="G789" s="8"/>
+      <c r="L789" s="8"/>
     </row>
     <row r="790">
-      <c r="G790" s="7"/>
+      <c r="G790" s="8"/>
+      <c r="L790" s="8"/>
     </row>
     <row r="791">
-      <c r="G791" s="7"/>
+      <c r="G791" s="8"/>
+      <c r="L791" s="8"/>
     </row>
     <row r="792">
-      <c r="G792" s="7"/>
+      <c r="G792" s="8"/>
+      <c r="L792" s="8"/>
     </row>
     <row r="793">
-      <c r="G793" s="7"/>
+      <c r="G793" s="8"/>
+      <c r="L793" s="8"/>
     </row>
     <row r="794">
-      <c r="G794" s="7"/>
+      <c r="G794" s="8"/>
+      <c r="L794" s="8"/>
     </row>
     <row r="795">
-      <c r="G795" s="7"/>
+      <c r="G795" s="8"/>
+      <c r="L795" s="8"/>
     </row>
     <row r="796">
-      <c r="G796" s="7"/>
+      <c r="G796" s="8"/>
+      <c r="L796" s="8"/>
     </row>
     <row r="797">
-      <c r="G797" s="7"/>
+      <c r="G797" s="8"/>
+      <c r="L797" s="8"/>
     </row>
     <row r="798">
-      <c r="G798" s="7"/>
+      <c r="G798" s="8"/>
+      <c r="L798" s="8"/>
     </row>
     <row r="799">
-      <c r="G799" s="7"/>
+      <c r="G799" s="8"/>
+      <c r="L799" s="8"/>
     </row>
     <row r="800">
-      <c r="G800" s="7"/>
+      <c r="G800" s="8"/>
+      <c r="L800" s="8"/>
     </row>
     <row r="801">
-      <c r="G801" s="7"/>
+      <c r="G801" s="8"/>
+      <c r="L801" s="8"/>
     </row>
     <row r="802">
-      <c r="G802" s="7"/>
+      <c r="G802" s="8"/>
+      <c r="L802" s="8"/>
     </row>
     <row r="803">
-      <c r="G803" s="7"/>
+      <c r="G803" s="8"/>
+      <c r="L803" s="8"/>
     </row>
     <row r="804">
-      <c r="G804" s="7"/>
+      <c r="G804" s="8"/>
+      <c r="L804" s="8"/>
     </row>
     <row r="805">
-      <c r="G805" s="7"/>
+      <c r="G805" s="8"/>
+      <c r="L805" s="8"/>
     </row>
     <row r="806">
-      <c r="G806" s="7"/>
+      <c r="G806" s="8"/>
+      <c r="L806" s="8"/>
     </row>
     <row r="807">
-      <c r="G807" s="7"/>
+      <c r="G807" s="8"/>
+      <c r="L807" s="8"/>
     </row>
     <row r="808">
-      <c r="G808" s="7"/>
+      <c r="G808" s="8"/>
+      <c r="L808" s="8"/>
     </row>
     <row r="809">
-      <c r="G809" s="7"/>
+      <c r="G809" s="8"/>
+      <c r="L809" s="8"/>
     </row>
     <row r="810">
-      <c r="G810" s="7"/>
+      <c r="G810" s="8"/>
+      <c r="L810" s="8"/>
     </row>
     <row r="811">
-      <c r="G811" s="7"/>
+      <c r="G811" s="8"/>
+      <c r="L811" s="8"/>
     </row>
     <row r="812">
-      <c r="G812" s="7"/>
+      <c r="G812" s="8"/>
+      <c r="L812" s="8"/>
     </row>
     <row r="813">
-      <c r="G813" s="7"/>
+      <c r="G813" s="8"/>
+      <c r="L813" s="8"/>
     </row>
     <row r="814">
-      <c r="G814" s="7"/>
+      <c r="G814" s="8"/>
+      <c r="L814" s="8"/>
     </row>
     <row r="815">
-      <c r="G815" s="7"/>
+      <c r="G815" s="8"/>
+      <c r="L815" s="8"/>
     </row>
     <row r="816">
-      <c r="G816" s="7"/>
+      <c r="G816" s="8"/>
+      <c r="L816" s="8"/>
     </row>
     <row r="817">
-      <c r="G817" s="7"/>
+      <c r="G817" s="8"/>
+      <c r="L817" s="8"/>
     </row>
     <row r="818">
-      <c r="G818" s="7"/>
+      <c r="G818" s="8"/>
+      <c r="L818" s="8"/>
     </row>
     <row r="819">
-      <c r="G819" s="7"/>
+      <c r="G819" s="8"/>
+      <c r="L819" s="8"/>
     </row>
     <row r="820">
-      <c r="G820" s="7"/>
+      <c r="G820" s="8"/>
+      <c r="L820" s="8"/>
     </row>
     <row r="821">
-      <c r="G821" s="7"/>
+      <c r="G821" s="8"/>
+      <c r="L821" s="8"/>
     </row>
     <row r="822">
-      <c r="G822" s="7"/>
+      <c r="G822" s="8"/>
+      <c r="L822" s="8"/>
     </row>
     <row r="823">
-      <c r="G823" s="7"/>
+      <c r="G823" s="8"/>
+      <c r="L823" s="8"/>
     </row>
     <row r="824">
-      <c r="G824" s="7"/>
+      <c r="G824" s="8"/>
+      <c r="L824" s="8"/>
     </row>
     <row r="825">
-      <c r="G825" s="7"/>
+      <c r="G825" s="8"/>
+      <c r="L825" s="8"/>
     </row>
     <row r="826">
-      <c r="G826" s="7"/>
+      <c r="G826" s="8"/>
+      <c r="L826" s="8"/>
     </row>
     <row r="827">
-      <c r="G827" s="7"/>
+      <c r="G827" s="8"/>
+      <c r="L827" s="8"/>
     </row>
     <row r="828">
-      <c r="G828" s="7"/>
+      <c r="G828" s="8"/>
+      <c r="L828" s="8"/>
     </row>
     <row r="829">
-      <c r="G829" s="7"/>
+      <c r="G829" s="8"/>
+      <c r="L829" s="8"/>
     </row>
     <row r="830">
-      <c r="G830" s="7"/>
+      <c r="G830" s="8"/>
+      <c r="L830" s="8"/>
     </row>
     <row r="831">
-      <c r="G831" s="7"/>
+      <c r="G831" s="8"/>
+      <c r="L831" s="8"/>
     </row>
     <row r="832">
-      <c r="G832" s="7"/>
+      <c r="G832" s="8"/>
+      <c r="L832" s="8"/>
     </row>
     <row r="833">
-      <c r="G833" s="7"/>
+      <c r="G833" s="8"/>
+      <c r="L833" s="8"/>
     </row>
     <row r="834">
-      <c r="G834" s="7"/>
+      <c r="G834" s="8"/>
+      <c r="L834" s="8"/>
     </row>
     <row r="835">
-      <c r="G835" s="7"/>
+      <c r="G835" s="8"/>
+      <c r="L835" s="8"/>
     </row>
     <row r="836">
-      <c r="G836" s="7"/>
+      <c r="G836" s="8"/>
+      <c r="L836" s="8"/>
     </row>
     <row r="837">
-      <c r="G837" s="7"/>
+      <c r="G837" s="8"/>
+      <c r="L837" s="8"/>
     </row>
     <row r="838">
-      <c r="G838" s="7"/>
+      <c r="G838" s="8"/>
+      <c r="L838" s="8"/>
     </row>
     <row r="839">
-      <c r="G839" s="7"/>
+      <c r="G839" s="8"/>
+      <c r="L839" s="8"/>
     </row>
     <row r="840">
-      <c r="G840" s="7"/>
+      <c r="G840" s="8"/>
+      <c r="L840" s="8"/>
     </row>
     <row r="841">
-      <c r="G841" s="7"/>
+      <c r="G841" s="8"/>
+      <c r="L841" s="8"/>
     </row>
     <row r="842">
-      <c r="G842" s="7"/>
+      <c r="G842" s="8"/>
+      <c r="L842" s="8"/>
     </row>
     <row r="843">
-      <c r="G843" s="7"/>
+      <c r="G843" s="8"/>
+      <c r="L843" s="8"/>
     </row>
     <row r="844">
-      <c r="G844" s="7"/>
+      <c r="G844" s="8"/>
+      <c r="L844" s="8"/>
     </row>
     <row r="845">
-      <c r="G845" s="7"/>
+      <c r="G845" s="8"/>
+      <c r="L845" s="8"/>
     </row>
     <row r="846">
-      <c r="G846" s="7"/>
+      <c r="G846" s="8"/>
+      <c r="L846" s="8"/>
     </row>
     <row r="847">
-      <c r="G847" s="7"/>
+      <c r="G847" s="8"/>
+      <c r="L847" s="8"/>
     </row>
     <row r="848">
-      <c r="G848" s="7"/>
+      <c r="G848" s="8"/>
+      <c r="L848" s="8"/>
     </row>
     <row r="849">
-      <c r="G849" s="7"/>
+      <c r="G849" s="8"/>
+      <c r="L849" s="8"/>
     </row>
     <row r="850">
-      <c r="G850" s="7"/>
+      <c r="G850" s="8"/>
+      <c r="L850" s="8"/>
     </row>
     <row r="851">
-      <c r="G851" s="7"/>
+      <c r="G851" s="8"/>
+      <c r="L851" s="8"/>
     </row>
     <row r="852">
-      <c r="G852" s="7"/>
+      <c r="G852" s="8"/>
+      <c r="L852" s="8"/>
     </row>
     <row r="853">
-      <c r="G853" s="7"/>
+      <c r="G853" s="8"/>
+      <c r="L853" s="8"/>
     </row>
     <row r="854">
-      <c r="G854" s="7"/>
+      <c r="G854" s="8"/>
+      <c r="L854" s="8"/>
     </row>
     <row r="855">
-      <c r="G855" s="7"/>
+      <c r="G855" s="8"/>
+      <c r="L855" s="8"/>
     </row>
     <row r="856">
-      <c r="G856" s="7"/>
+      <c r="G856" s="8"/>
+      <c r="L856" s="8"/>
     </row>
     <row r="857">
-      <c r="G857" s="7"/>
+      <c r="G857" s="8"/>
+      <c r="L857" s="8"/>
     </row>
     <row r="858">
-      <c r="G858" s="7"/>
+      <c r="G858" s="8"/>
+      <c r="L858" s="8"/>
     </row>
     <row r="859">
-      <c r="G859" s="7"/>
+      <c r="G859" s="8"/>
+      <c r="L859" s="8"/>
     </row>
     <row r="860">
-      <c r="G860" s="7"/>
+      <c r="G860" s="8"/>
+      <c r="L860" s="8"/>
     </row>
     <row r="861">
-      <c r="G861" s="7"/>
+      <c r="G861" s="8"/>
+      <c r="L861" s="8"/>
     </row>
     <row r="862">
-      <c r="G862" s="7"/>
+      <c r="G862" s="8"/>
+      <c r="L862" s="8"/>
     </row>
     <row r="863">
-      <c r="G863" s="7"/>
+      <c r="G863" s="8"/>
+      <c r="L863" s="8"/>
     </row>
     <row r="864">
-      <c r="G864" s="7"/>
+      <c r="G864" s="8"/>
+      <c r="L864" s="8"/>
     </row>
     <row r="865">
-      <c r="G865" s="7"/>
+      <c r="G865" s="8"/>
+      <c r="L865" s="8"/>
     </row>
     <row r="866">
-      <c r="G866" s="7"/>
+      <c r="G866" s="8"/>
+      <c r="L866" s="8"/>
     </row>
     <row r="867">
-      <c r="G867" s="7"/>
+      <c r="G867" s="8"/>
+      <c r="L867" s="8"/>
     </row>
     <row r="868">
-      <c r="G868" s="7"/>
+      <c r="G868" s="8"/>
+      <c r="L868" s="8"/>
     </row>
     <row r="869">
-      <c r="G869" s="7"/>
+      <c r="G869" s="8"/>
+      <c r="L869" s="8"/>
     </row>
     <row r="870">
-      <c r="G870" s="7"/>
+      <c r="G870" s="8"/>
+      <c r="L870" s="8"/>
     </row>
     <row r="871">
-      <c r="G871" s="7"/>
+      <c r="G871" s="8"/>
+      <c r="L871" s="8"/>
     </row>
     <row r="872">
-      <c r="G872" s="7"/>
+      <c r="G872" s="8"/>
+      <c r="L872" s="8"/>
     </row>
     <row r="873">
-      <c r="G873" s="7"/>
+      <c r="G873" s="8"/>
+      <c r="L873" s="8"/>
     </row>
     <row r="874">
-      <c r="G874" s="7"/>
+      <c r="G874" s="8"/>
+      <c r="L874" s="8"/>
     </row>
     <row r="875">
-      <c r="G875" s="7"/>
+      <c r="G875" s="8"/>
+      <c r="L875" s="8"/>
     </row>
     <row r="876">
-      <c r="G876" s="7"/>
+      <c r="G876" s="8"/>
+      <c r="L876" s="8"/>
     </row>
     <row r="877">
-      <c r="G877" s="7"/>
+      <c r="G877" s="8"/>
+      <c r="L877" s="8"/>
     </row>
     <row r="878">
-      <c r="G878" s="7"/>
+      <c r="G878" s="8"/>
+      <c r="L878" s="8"/>
     </row>
     <row r="879">
-      <c r="G879" s="7"/>
+      <c r="G879" s="8"/>
+      <c r="L879" s="8"/>
     </row>
     <row r="880">
-      <c r="G880" s="7"/>
+      <c r="G880" s="8"/>
+      <c r="L880" s="8"/>
     </row>
     <row r="881">
-      <c r="G881" s="7"/>
+      <c r="G881" s="8"/>
+      <c r="L881" s="8"/>
     </row>
     <row r="882">
-      <c r="G882" s="7"/>
+      <c r="G882" s="8"/>
+      <c r="L882" s="8"/>
     </row>
     <row r="883">
-      <c r="G883" s="7"/>
+      <c r="G883" s="8"/>
+      <c r="L883" s="8"/>
     </row>
     <row r="884">
-      <c r="G884" s="7"/>
+      <c r="G884" s="8"/>
+      <c r="L884" s="8"/>
     </row>
     <row r="885">
-      <c r="G885" s="7"/>
+      <c r="G885" s="8"/>
+      <c r="L885" s="8"/>
     </row>
     <row r="886">
-      <c r="G886" s="7"/>
+      <c r="G886" s="8"/>
+      <c r="L886" s="8"/>
     </row>
     <row r="887">
-      <c r="G887" s="7"/>
+      <c r="G887" s="8"/>
+      <c r="L887" s="8"/>
     </row>
     <row r="888">
-      <c r="G888" s="7"/>
+      <c r="G888" s="8"/>
+      <c r="L888" s="8"/>
     </row>
     <row r="889">
-      <c r="G889" s="7"/>
+      <c r="G889" s="8"/>
+      <c r="L889" s="8"/>
     </row>
     <row r="890">
-      <c r="G890" s="7"/>
+      <c r="G890" s="8"/>
+      <c r="L890" s="8"/>
     </row>
     <row r="891">
-      <c r="G891" s="7"/>
+      <c r="G891" s="8"/>
+      <c r="L891" s="8"/>
     </row>
     <row r="892">
-      <c r="G892" s="7"/>
+      <c r="G892" s="8"/>
+      <c r="L892" s="8"/>
     </row>
     <row r="893">
-      <c r="G893" s="7"/>
+      <c r="G893" s="8"/>
+      <c r="L893" s="8"/>
     </row>
     <row r="894">
-      <c r="G894" s="7"/>
+      <c r="G894" s="8"/>
+      <c r="L894" s="8"/>
     </row>
     <row r="895">
-      <c r="G895" s="7"/>
+      <c r="G895" s="8"/>
+      <c r="L895" s="8"/>
     </row>
     <row r="896">
-      <c r="G896" s="7"/>
+      <c r="G896" s="8"/>
+      <c r="L896" s="8"/>
     </row>
     <row r="897">
-      <c r="G897" s="7"/>
+      <c r="G897" s="8"/>
+      <c r="L897" s="8"/>
     </row>
     <row r="898">
-      <c r="G898" s="7"/>
+      <c r="G898" s="8"/>
+      <c r="L898" s="8"/>
     </row>
     <row r="899">
-      <c r="G899" s="7"/>
+      <c r="G899" s="8"/>
+      <c r="L899" s="8"/>
     </row>
     <row r="900">
-      <c r="G900" s="7"/>
+      <c r="G900" s="8"/>
+      <c r="L900" s="8"/>
     </row>
     <row r="901">
-      <c r="G901" s="7"/>
+      <c r="G901" s="8"/>
+      <c r="L901" s="8"/>
     </row>
     <row r="902">
-      <c r="G902" s="7"/>
+      <c r="G902" s="8"/>
+      <c r="L902" s="8"/>
     </row>
     <row r="903">
-      <c r="G903" s="7"/>
+      <c r="G903" s="8"/>
+      <c r="L903" s="8"/>
     </row>
     <row r="904">
-      <c r="G904" s="7"/>
+      <c r="G904" s="8"/>
+      <c r="L904" s="8"/>
     </row>
     <row r="905">
-      <c r="G905" s="7"/>
+      <c r="G905" s="8"/>
+      <c r="L905" s="8"/>
     </row>
     <row r="906">
-      <c r="G906" s="7"/>
+      <c r="G906" s="8"/>
+      <c r="L906" s="8"/>
     </row>
     <row r="907">
-      <c r="G907" s="7"/>
+      <c r="G907" s="8"/>
+      <c r="L907" s="8"/>
     </row>
     <row r="908">
-      <c r="G908" s="7"/>
+      <c r="G908" s="8"/>
+      <c r="L908" s="8"/>
     </row>
     <row r="909">
-      <c r="G909" s="7"/>
+      <c r="G909" s="8"/>
+      <c r="L909" s="8"/>
     </row>
     <row r="910">
-      <c r="G910" s="7"/>
+      <c r="G910" s="8"/>
+      <c r="L910" s="8"/>
     </row>
     <row r="911">
-      <c r="G911" s="7"/>
+      <c r="G911" s="8"/>
+      <c r="L911" s="8"/>
     </row>
     <row r="912">
-      <c r="G912" s="7"/>
+      <c r="G912" s="8"/>
+      <c r="L912" s="8"/>
     </row>
     <row r="913">
-      <c r="G913" s="7"/>
+      <c r="G913" s="8"/>
+      <c r="L913" s="8"/>
     </row>
     <row r="914">
-      <c r="G914" s="7"/>
+      <c r="G914" s="8"/>
+      <c r="L914" s="8"/>
     </row>
     <row r="915">
-      <c r="G915" s="7"/>
+      <c r="G915" s="8"/>
+      <c r="L915" s="8"/>
     </row>
     <row r="916">
-      <c r="G916" s="7"/>
+      <c r="G916" s="8"/>
+      <c r="L916" s="8"/>
     </row>
     <row r="917">
-      <c r="G917" s="7"/>
+      <c r="G917" s="8"/>
+      <c r="L917" s="8"/>
     </row>
     <row r="918">
-      <c r="G918" s="7"/>
+      <c r="G918" s="8"/>
+      <c r="L918" s="8"/>
     </row>
     <row r="919">
-      <c r="G919" s="7"/>
+      <c r="G919" s="8"/>
+      <c r="L919" s="8"/>
     </row>
     <row r="920">
-      <c r="G920" s="7"/>
+      <c r="G920" s="8"/>
+      <c r="L920" s="8"/>
     </row>
     <row r="921">
-      <c r="G921" s="7"/>
+      <c r="G921" s="8"/>
+      <c r="L921" s="8"/>
     </row>
     <row r="922">
-      <c r="G922" s="7"/>
+      <c r="G922" s="8"/>
+      <c r="L922" s="8"/>
     </row>
     <row r="923">
-      <c r="G923" s="7"/>
+      <c r="G923" s="8"/>
+      <c r="L923" s="8"/>
     </row>
     <row r="924">
-      <c r="G924" s="7"/>
+      <c r="G924" s="8"/>
+      <c r="L924" s="8"/>
     </row>
     <row r="925">
-      <c r="G925" s="7"/>
+      <c r="G925" s="8"/>
+      <c r="L925" s="8"/>
     </row>
     <row r="926">
-      <c r="G926" s="7"/>
+      <c r="G926" s="8"/>
+      <c r="L926" s="8"/>
     </row>
     <row r="927">
-      <c r="G927" s="7"/>
+      <c r="G927" s="8"/>
+      <c r="L927" s="8"/>
     </row>
     <row r="928">
-      <c r="G928" s="7"/>
+      <c r="G928" s="8"/>
+      <c r="L928" s="8"/>
     </row>
     <row r="929">
-      <c r="G929" s="7"/>
+      <c r="G929" s="8"/>
+      <c r="L929" s="8"/>
     </row>
     <row r="930">
-      <c r="G930" s="7"/>
+      <c r="G930" s="8"/>
+      <c r="L930" s="8"/>
     </row>
     <row r="931">
-      <c r="G931" s="7"/>
+      <c r="G931" s="8"/>
+      <c r="L931" s="8"/>
     </row>
     <row r="932">
-      <c r="G932" s="7"/>
+      <c r="G932" s="8"/>
+      <c r="L932" s="8"/>
     </row>
     <row r="933">
-      <c r="G933" s="7"/>
+      <c r="G933" s="8"/>
+      <c r="L933" s="8"/>
     </row>
     <row r="934">
-      <c r="G934" s="7"/>
+      <c r="G934" s="8"/>
+      <c r="L934" s="8"/>
     </row>
     <row r="935">
-      <c r="G935" s="7"/>
+      <c r="G935" s="8"/>
+      <c r="L935" s="8"/>
     </row>
     <row r="936">
-      <c r="G936" s="7"/>
+      <c r="G936" s="8"/>
+      <c r="L936" s="8"/>
     </row>
     <row r="937">
-      <c r="G937" s="7"/>
+      <c r="G937" s="8"/>
+      <c r="L937" s="8"/>
     </row>
     <row r="938">
-      <c r="G938" s="7"/>
+      <c r="G938" s="8"/>
+      <c r="L938" s="8"/>
     </row>
     <row r="939">
-      <c r="G939" s="7"/>
+      <c r="G939" s="8"/>
+      <c r="L939" s="8"/>
     </row>
     <row r="940">
-      <c r="G940" s="7"/>
+      <c r="G940" s="8"/>
+      <c r="L940" s="8"/>
     </row>
     <row r="941">
-      <c r="G941" s="7"/>
+      <c r="G941" s="8"/>
+      <c r="L941" s="8"/>
     </row>
     <row r="942">
-      <c r="G942" s="7"/>
+      <c r="G942" s="8"/>
+      <c r="L942" s="8"/>
     </row>
     <row r="943">
-      <c r="G943" s="7"/>
+      <c r="G943" s="8"/>
+      <c r="L943" s="8"/>
     </row>
     <row r="944">
-      <c r="G944" s="7"/>
+      <c r="G944" s="8"/>
+      <c r="L944" s="8"/>
     </row>
     <row r="945">
-      <c r="G945" s="7"/>
+      <c r="G945" s="8"/>
+      <c r="L945" s="8"/>
     </row>
     <row r="946">
-      <c r="G946" s="7"/>
+      <c r="G946" s="8"/>
+      <c r="L946" s="8"/>
     </row>
     <row r="947">
-      <c r="G947" s="7"/>
+      <c r="G947" s="8"/>
+      <c r="L947" s="8"/>
     </row>
     <row r="948">
-      <c r="G948" s="7"/>
+      <c r="G948" s="8"/>
+      <c r="L948" s="8"/>
     </row>
     <row r="949">
-      <c r="G949" s="7"/>
+      <c r="G949" s="8"/>
+      <c r="L949" s="8"/>
     </row>
     <row r="950">
-      <c r="G950" s="7"/>
+      <c r="G950" s="8"/>
+      <c r="L950" s="8"/>
     </row>
     <row r="951">
-      <c r="G951" s="7"/>
+      <c r="G951" s="8"/>
+      <c r="L951" s="8"/>
     </row>
     <row r="952">
-      <c r="G952" s="7"/>
+      <c r="G952" s="8"/>
+      <c r="L952" s="8"/>
     </row>
     <row r="953">
-      <c r="G953" s="7"/>
+      <c r="G953" s="8"/>
+      <c r="L953" s="8"/>
     </row>
     <row r="954">
-      <c r="G954" s="7"/>
+      <c r="G954" s="8"/>
+      <c r="L954" s="8"/>
     </row>
     <row r="955">
-      <c r="G955" s="7"/>
+      <c r="G955" s="8"/>
+      <c r="L955" s="8"/>
     </row>
     <row r="956">
-      <c r="G956" s="7"/>
+      <c r="G956" s="8"/>
+      <c r="L956" s="8"/>
     </row>
     <row r="957">
-      <c r="G957" s="7"/>
+      <c r="G957" s="8"/>
+      <c r="L957" s="8"/>
     </row>
     <row r="958">
-      <c r="G958" s="7"/>
+      <c r="G958" s="8"/>
+      <c r="L958" s="8"/>
     </row>
     <row r="959">
-      <c r="G959" s="7"/>
+      <c r="G959" s="8"/>
+      <c r="L959" s="8"/>
     </row>
     <row r="960">
-      <c r="G960" s="7"/>
+      <c r="G960" s="8"/>
+      <c r="L960" s="8"/>
     </row>
     <row r="961">
-      <c r="G961" s="7"/>
+      <c r="G961" s="8"/>
+      <c r="L961" s="8"/>
     </row>
     <row r="962">
-      <c r="G962" s="7"/>
+      <c r="G962" s="8"/>
+      <c r="L962" s="8"/>
     </row>
     <row r="963">
-      <c r="G963" s="7"/>
+      <c r="G963" s="8"/>
+      <c r="L963" s="8"/>
     </row>
     <row r="964">
-      <c r="G964" s="7"/>
+      <c r="G964" s="8"/>
+      <c r="L964" s="8"/>
     </row>
     <row r="965">
-      <c r="G965" s="7"/>
+      <c r="G965" s="8"/>
+      <c r="L965" s="8"/>
     </row>
     <row r="966">
-      <c r="G966" s="7"/>
+      <c r="G966" s="8"/>
+      <c r="L966" s="8"/>
     </row>
     <row r="967">
-      <c r="G967" s="7"/>
+      <c r="G967" s="8"/>
+      <c r="L967" s="8"/>
     </row>
     <row r="968">
-      <c r="G968" s="7"/>
+      <c r="G968" s="8"/>
+      <c r="L968" s="8"/>
     </row>
     <row r="969">
-      <c r="G969" s="7"/>
+      <c r="G969" s="8"/>
+      <c r="L969" s="8"/>
     </row>
     <row r="970">
-      <c r="G970" s="7"/>
+      <c r="G970" s="8"/>
+      <c r="L970" s="8"/>
     </row>
     <row r="971">
-      <c r="G971" s="7"/>
+      <c r="G971" s="8"/>
+      <c r="L971" s="8"/>
     </row>
     <row r="972">
-      <c r="G972" s="7"/>
+      <c r="G972" s="8"/>
+      <c r="L972" s="8"/>
     </row>
     <row r="973">
-      <c r="G973" s="7"/>
+      <c r="G973" s="8"/>
+      <c r="L973" s="8"/>
     </row>
     <row r="974">
-      <c r="G974" s="7"/>
+      <c r="G974" s="8"/>
+      <c r="L974" s="8"/>
     </row>
     <row r="975">
-      <c r="G975" s="7"/>
+      <c r="G975" s="8"/>
+      <c r="L975" s="8"/>
     </row>
     <row r="976">
-      <c r="G976" s="7"/>
+      <c r="G976" s="8"/>
+      <c r="L976" s="8"/>
     </row>
     <row r="977">
-      <c r="G977" s="7"/>
+      <c r="G977" s="8"/>
+      <c r="L977" s="8"/>
     </row>
     <row r="978">
-      <c r="G978" s="7"/>
+      <c r="G978" s="8"/>
+      <c r="L978" s="8"/>
     </row>
     <row r="979">
-      <c r="G979" s="7"/>
+      <c r="G979" s="8"/>
+      <c r="L979" s="8"/>
     </row>
     <row r="980">
-      <c r="G980" s="7"/>
+      <c r="G980" s="8"/>
+      <c r="L980" s="8"/>
     </row>
     <row r="981">
-      <c r="G981" s="7"/>
+      <c r="G981" s="8"/>
+      <c r="L981" s="8"/>
     </row>
     <row r="982">
-      <c r="G982" s="7"/>
+      <c r="G982" s="8"/>
+      <c r="L982" s="8"/>
     </row>
     <row r="983">
-      <c r="G983" s="7"/>
+      <c r="G983" s="8"/>
+      <c r="L983" s="8"/>
     </row>
     <row r="984">
-      <c r="G984" s="7"/>
+      <c r="G984" s="8"/>
+      <c r="L984" s="8"/>
     </row>
     <row r="985">
-      <c r="G985" s="7"/>
+      <c r="G985" s="8"/>
+      <c r="L985" s="8"/>
     </row>
     <row r="986">
-      <c r="G986" s="7"/>
+      <c r="G986" s="8"/>
+      <c r="L986" s="8"/>
     </row>
     <row r="987">
-      <c r="G987" s="7"/>
+      <c r="G987" s="8"/>
+      <c r="L987" s="8"/>
     </row>
     <row r="988">
-      <c r="G988" s="7"/>
+      <c r="G988" s="8"/>
+      <c r="L988" s="8"/>
     </row>
     <row r="989">
-      <c r="G989" s="7"/>
+      <c r="G989" s="8"/>
+      <c r="L989" s="8"/>
     </row>
     <row r="990">
-      <c r="G990" s="7"/>
+      <c r="G990" s="8"/>
+      <c r="L990" s="8"/>
     </row>
     <row r="991">
-      <c r="G991" s="7"/>
+      <c r="G991" s="8"/>
+      <c r="L991" s="8"/>
     </row>
     <row r="992">
-      <c r="G992" s="7"/>
+      <c r="G992" s="8"/>
+      <c r="L992" s="8"/>
     </row>
     <row r="993">
-      <c r="G993" s="7"/>
+      <c r="G993" s="8"/>
+      <c r="L993" s="8"/>
     </row>
     <row r="994">
-      <c r="G994" s="7"/>
+      <c r="G994" s="8"/>
+      <c r="L994" s="8"/>
     </row>
     <row r="995">
-      <c r="G995" s="7"/>
+      <c r="G995" s="8"/>
+      <c r="L995" s="8"/>
     </row>
     <row r="996">
-      <c r="G996" s="7"/>
+      <c r="G996" s="8"/>
+      <c r="L996" s="8"/>
     </row>
     <row r="997">
-      <c r="G997" s="7"/>
+      <c r="G997" s="8"/>
+      <c r="L997" s="8"/>
     </row>
     <row r="998">
-      <c r="G998" s="7"/>
+      <c r="G998" s="8"/>
+      <c r="L998" s="8"/>
     </row>
     <row r="999">
-      <c r="G999" s="7"/>
+      <c r="G999" s="8"/>
+      <c r="L999" s="8"/>
     </row>
     <row r="1000">
-      <c r="G1000" s="7"/>
+      <c r="G1000" s="8"/>
+      <c r="L1000" s="8"/>
     </row>
     <row r="1001">
-      <c r="G1001" s="7"/>
+      <c r="G1001" s="8"/>
+      <c r="L1001" s="8"/>
     </row>
     <row r="1002">
-      <c r="G1002" s="7"/>
+      <c r="G1002" s="8"/>
+      <c r="L1002" s="8"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="G1:G1002">
+    <dataValidation type="list" allowBlank="1" sqref="G1:G1002 L1:L1002">
       <formula1>"Left,Right,Center,HetrisCenter"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/RenpyData.xlsx
+++ b/test/RenpyData.xlsx
@@ -1,7 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="4"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Character" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Image" sheetId="2" r:id="rId5"/>
@@ -1515,44 +1518,83 @@
   <si>
     <t>會議室內，三個有角的男子面向著我，空氣中彌漫着令人不安的氣氛。</t>
   </si>
+  <si>
+    <t>dissolve,fade,easeinright,easeinleft,vpunch,easeoutright,easeoutleft,flash,pixellate,hpunch,blinds,squares,wipeleft,slideleft,slideawayleft,pushright</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Show,Hide</t>
+  </si>
+  <si>
+    <t>Left,Right,Center,HetrisCenter</t>
+  </si>
+  <si>
+    <t>dissolve,fade,easeinright,easeinleft,vpunch,easeoutright,easeoutleft,flash,pixellate,hpunch,blinds,squares,wipeleft,slideleft,slideawayleft,pushright</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Show,Hide</t>
+  </si>
+  <si>
+    <t>Left,Right,Center,HetrisCenter</t>
+  </si>
+  <si>
+    <t>DialogTransition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <name val="等线"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <sz val="11"/>
     </font>
     <font>
-      <color theme="1"/>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Roboto"/>
       <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <name val="Arial"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <name val="Sans-serif"/>
       <color rgb="FF222222"/>
-      <name val="Sans-serif"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <name val="Docs-Calibri"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1582,7 +1624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -1591,56 +1633,42 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -1861,20 +1889,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="16.75"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2056,21 +2084,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.13"/>
-    <col customWidth="1" min="2" max="2" width="34.13"/>
+    <col min="1" max="1" width="31.13" customWidth="1"/>
+    <col min="2" max="2" width="34.13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3103,20 +3131,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="207.88"/>
+    <col min="1" max="1" width="207.88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="420.0" customHeight="1">
+    <row ht="420" customHeight="1" r="1">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
@@ -3127,30 +3157,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="16.38"/>
-    <col customWidth="1" min="5" max="5" width="16.0"/>
-    <col customWidth="1" min="6" max="6" width="17.38"/>
-    <col customWidth="1" min="7" max="7" width="16.13"/>
-    <col customWidth="1" min="9" max="9" width="20.13"/>
-    <col customWidth="1" min="11" max="11" width="17.5"/>
-    <col customWidth="1" min="12" max="12" width="79.5"/>
-    <col customWidth="1" min="16" max="16" width="6.63"/>
-    <col customWidth="1" min="17" max="17" width="29.75"/>
-    <col customWidth="1" min="18" max="18" width="32.88"/>
-    <col customWidth="1" min="19" max="19" width="21.88"/>
-    <col customWidth="1" min="20" max="20" width="20.63"/>
+    <col min="3" max="3" width="16.38" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.38" customWidth="1"/>
+    <col min="7" max="7" width="16.13" customWidth="1"/>
+    <col min="9" max="9" width="20.13" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="79.5" customWidth="1"/>
+    <col min="13" max="13" width="23.09" customWidth="1"/>
+    <col min="16" max="16" width="6.63" customWidth="1"/>
+    <col min="17" max="17" width="29.75" customWidth="1"/>
+    <col min="18" max="18" width="32.88" customWidth="1"/>
+    <col min="19" max="19" width="21.88" customWidth="1"/>
+    <col min="20" max="20" width="20.63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3191,7 +3222,7 @@
         <v>286</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>287</v>
+        <v>503</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>288</v>
@@ -3231,7 +3262,7 @@
       <c r="M2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -12278,18 +12309,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="19.5"/>
-    <col customWidth="1" min="12" max="12" width="60.38"/>
-    <col customWidth="1" min="17" max="17" width="14.5"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="60.38" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12330,7 +12363,7 @@
         <v>286</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>287</v>
+        <v>503</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>288</v>
@@ -12371,7 +12404,7 @@
       <c r="N2" s="13"/>
       <c r="O2" s="9"/>
       <c r="P2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
